--- a/LandRegistryProject/TestDatas/TittleNumer.xlsx
+++ b/LandRegistryProject/TestDatas/TittleNumer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HomesEnglandAutomation\Land_Registry\LandRegistryProject\TestDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amos.Awaghade\source\repos\LandRegistryBulk-Discharge-Automation\LandRegistryProject\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4AC233-91E9-424C-97B3-A7843E71FA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AE6B8E-D7D9-4413-8E49-EF1CCCEA3EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="910" yWindow="0" windowWidth="22380" windowHeight="11270" xr2:uid="{BA3442DB-404F-46D9-B4F8-C3AAD76398EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA3442DB-404F-46D9-B4F8-C3AAD76398EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,62 +38,56 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
+    <t>30 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
+  </si>
+  <si>
+    <t>Hg545432</t>
+  </si>
+  <si>
+    <t>32 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
+  </si>
+  <si>
+    <t>HD602385</t>
+  </si>
+  <si>
+    <t>WT99999/BBB5555/190</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>33 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
+  </si>
+  <si>
+    <t>HD602386</t>
+  </si>
+  <si>
+    <t>WT99999/TTr5555/190</t>
+  </si>
+  <si>
+    <t>34 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
+  </si>
+  <si>
+    <t>HD602387</t>
+  </si>
+  <si>
+    <t>WT99999/YYr5555/190</t>
+  </si>
+  <si>
+    <t>31 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
+  </si>
+  <si>
     <t>HD602384</t>
-  </si>
-  <si>
-    <t>HD602385</t>
-  </si>
-  <si>
-    <t>HD602386</t>
-  </si>
-  <si>
-    <t>HD602387</t>
-  </si>
-  <si>
-    <t>Submitted</t>
-  </si>
-  <si>
-    <t>WT99999/TTr5555/190</t>
-  </si>
-  <si>
-    <t>WT99999/YYr5555/190</t>
-  </si>
-  <si>
-    <t>WT99999/BBB5555/190</t>
-  </si>
-  <si>
-    <t>Hg545432</t>
-  </si>
-  <si>
-    <t>31 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
-  </si>
-  <si>
-    <t>32 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
-  </si>
-  <si>
-    <t>33 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
-  </si>
-  <si>
-    <t>34 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
-  </si>
-  <si>
-    <t>30 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,9 +133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +173,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,103 +431,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB411934-2E25-4BF9-A7BD-3E1F9CE09557}">
   <dimension ref="D1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="52.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="45.81640625" customWidth="1"/>
+    <col min="10" max="10" width="45.85546875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E1">
         <v>33333</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>55556</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>55557</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>55558</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="E5">
         <v>55555</v>
       </c>
       <c r="I5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;12&amp;K0078D7 OFFICIAL </oddFooter>

--- a/LandRegistryProject/TestDatas/TittleNumer.xlsx
+++ b/LandRegistryProject/TestDatas/TittleNumer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amos.Awaghade\source\repos\LandRegistryBulk-Discharge-Automation\LandRegistryProject\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AE6B8E-D7D9-4413-8E49-EF1CCCEA3EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FEC6FD-35C0-4E7D-B03D-BBAB69F0691F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA3442DB-404F-46D9-B4F8-C3AAD76398EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>30 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
   </si>
@@ -44,16 +44,19 @@
     <t>Hg545432</t>
   </si>
   <si>
-    <t>32 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Vineyard Barn, The Vineyard, Welwyn Garden City (AL8 7PU)</t>
   </si>
   <si>
     <t>HD602385</t>
   </si>
   <si>
-    <t>WT99999/BBB5555/190</t>
-  </si>
-  <si>
-    <t>Submitted</t>
+    <t>31 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
+  </si>
+  <si>
+    <t>HD602384</t>
   </si>
   <si>
     <t>33 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
@@ -62,22 +65,10 @@
     <t>HD602386</t>
   </si>
   <si>
-    <t>WT99999/TTr5555/190</t>
-  </si>
-  <si>
     <t>34 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
   </si>
   <si>
     <t>HD602387</t>
-  </si>
-  <si>
-    <t>WT99999/YYr5555/190</t>
-  </si>
-  <si>
-    <t>31 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
-  </si>
-  <si>
-    <t>HD602384</t>
   </si>
 </sst>
 </file>
@@ -429,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB411934-2E25-4BF9-A7BD-3E1F9CE09557}">
-  <dimension ref="D1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +435,10 @@
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -454,76 +448,87 @@
       <c r="I1" t="s">
         <v>1</v>
       </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>55556</v>
       </c>
       <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>55555</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>55557</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>5</v>
       </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>55558</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>55557</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>55555</v>
+      </c>
+      <c r="I6" t="s">
         <v>6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>55558</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>55555</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/LandRegistryProject/TestDatas/TittleNumer.xlsx
+++ b/LandRegistryProject/TestDatas/TittleNumer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amos.Awaghade\source\repos\LandRegistryBulk-Discharge-Automation\LandRegistryProject\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB85685A-E557-444A-8834-2B23660E7B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6333AA5-45F0-491B-811A-A21B03028194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{400498CB-F334-4E68-B062-A427E2481F8E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="1934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1933">
   <si>
     <t>Daily Download</t>
   </si>
@@ -5458,397 +5458,394 @@
     <t>HP810130/Q946JHT/218</t>
   </si>
   <si>
+    <t>HD602384</t>
+  </si>
+  <si>
+    <t>1 Slater Way Ilkeston DE7 4SL</t>
+  </si>
+  <si>
+    <t>DY533669</t>
+  </si>
+  <si>
+    <t> 1 Slater Way, Ilkeston (DE7 4SL)</t>
+  </si>
+  <si>
+    <t>DY533669/W056JHT/218</t>
+  </si>
+  <si>
+    <t>54 Pius Avenue Lincoln LN6 9XT</t>
+  </si>
+  <si>
+    <t>LL393907</t>
+  </si>
+  <si>
+    <t>54 Pius Avenue, North Hykeham, Lincoln (LN6 9XT)</t>
+  </si>
+  <si>
+    <t> LL393907/S256JHT/218</t>
+  </si>
+  <si>
+    <t>2 Wilson Court Deepcut Camberley GU16 6FA</t>
+  </si>
+  <si>
+    <t>SY866329</t>
+  </si>
+  <si>
+    <t>2 Wilson Court, Deepcut, Camberley (GU16 6FA)</t>
+  </si>
+  <si>
+    <t>SY866329/X356JHT/218</t>
+  </si>
+  <si>
+    <t>28 Pintall close East Tilbury RM18 8FJ</t>
+  </si>
+  <si>
+    <t>EX969193</t>
+  </si>
+  <si>
+    <t>28 Pintail Close, East Tilbury, Tilbury (RM18 8FJ)</t>
+  </si>
+  <si>
+    <t>EX969193/Q656JHT/218</t>
+  </si>
+  <si>
+    <t>3 Pankhurst Close West Bromwich B70 0LW</t>
+  </si>
+  <si>
+    <t>MM128202</t>
+  </si>
+  <si>
+    <t>3 Pankhurst Close, West Bromwich And Parking Spaces (B70 0LW)</t>
+  </si>
+  <si>
+    <t>MM128202/L756JHT/218</t>
+  </si>
+  <si>
+    <t>41 Wincham Avenue Liverpool L24 1WS</t>
+  </si>
+  <si>
+    <t>MS687954</t>
+  </si>
+  <si>
+    <t>41 Wincham Avenue, Liverpool (L24 1WS)</t>
+  </si>
+  <si>
+    <t>MS687954/K856JHT/218</t>
+  </si>
+  <si>
+    <t>6, Northcote Avenue Lancashire OL1 4EH Oldham</t>
+  </si>
+  <si>
+    <t>MAN229892</t>
+  </si>
+  <si>
+    <t>6 Northcote Avenue, Oldham (OL1 4EH)</t>
+  </si>
+  <si>
+    <t> MAN229892/T856JHT/218</t>
+  </si>
+  <si>
+    <t>6 Woodland Crescent Halifax HX2 8WF</t>
+  </si>
+  <si>
+    <t>YY165413</t>
+  </si>
+  <si>
+    <t>6 Woodland Crescent, Halifax (HX2 8WF)</t>
+  </si>
+  <si>
+    <t>YY165413/Z956JHT/218</t>
+  </si>
+  <si>
+    <t>3 Sassoon Crescent Stowmarket IP14 1WA</t>
+  </si>
+  <si>
+    <t>SK382337</t>
+  </si>
+  <si>
+    <t> 3 Sassoon Crescent, Stowmarket (IP14 1WA)</t>
+  </si>
+  <si>
+    <t>SK382337/T066JHT/218</t>
+  </si>
+  <si>
+    <t>6 Teal Close Houghton Le Spring DH5 0GY Hetton Le Hole</t>
+  </si>
+  <si>
+    <t>TY534491</t>
+  </si>
+  <si>
+    <t> 6 Teal Close, Hetton-Le-Hole, Houghton Le Spring (DH5 0GY)</t>
+  </si>
+  <si>
+    <t>TY534491/V166JHT/218</t>
+  </si>
+  <si>
+    <t>11 Monastery Gardens Shepshed LE12 9FQ</t>
+  </si>
+  <si>
+    <t>LT482273</t>
+  </si>
+  <si>
+    <t>11 Monastery Gardens, Shepshed, Loughborough (LE12 9FQ)</t>
+  </si>
+  <si>
+    <t>LT482273/V266JHT/218</t>
+  </si>
+  <si>
+    <t>23 Hopkins Way York YO42 1AN</t>
+  </si>
+  <si>
+    <t>YEA90467</t>
+  </si>
+  <si>
+    <t>23 Hopkin Way, Pocklington, York (YO42 1AN)</t>
+  </si>
+  <si>
+    <t>YEA90467/M366JHT/218</t>
+  </si>
+  <si>
+    <t>7 Hundleby Court Cramlington NE23 1AS</t>
+  </si>
+  <si>
+    <t>ND195408</t>
+  </si>
+  <si>
+    <t>7 Hundleby Court, St. Nicholas Manor, Cramlington (NE23 1AS)</t>
+  </si>
+  <si>
+    <t>ND195408/J566JHT/218</t>
+  </si>
+  <si>
+    <t>22 Farmers Way Coalville LE67 2EG</t>
+  </si>
+  <si>
+    <t>LT510619</t>
+  </si>
+  <si>
+    <t> 22 Farmers Way, Hugglescote, Coalville (LE67 2EG)</t>
+  </si>
+  <si>
+    <t> LT510619/E666JHT/218</t>
+  </si>
+  <si>
+    <t>5 Harrier Way Norton Canes Cannock WS11 9AR</t>
+  </si>
+  <si>
+    <t>SF659628</t>
+  </si>
+  <si>
+    <t>5 Harrier Way, Norton Canes, Cannock (WS11 9AR)</t>
+  </si>
+  <si>
+    <t>SF659628/H676JHT/218</t>
+  </si>
+  <si>
+    <t>306 Hartsbourne Avenue Liverpool L25 2TD</t>
+  </si>
+  <si>
+    <t>MS672181</t>
+  </si>
+  <si>
+    <t>306 Hartsbourne Avenue, Liverpool (L25 2TD)</t>
+  </si>
+  <si>
+    <t> MS672181/F776JHT/218</t>
+  </si>
+  <si>
+    <t>77 1 Celmeres Court Springfield Road CM2 6JG Chelmsford</t>
+  </si>
+  <si>
+    <t>EX945892</t>
+  </si>
+  <si>
+    <t>1, Celmeres Court, 77 Springfield Road, Chelmsford (CM2 6JG)</t>
+  </si>
+  <si>
+    <t>EX945892/I786JHT/218</t>
+  </si>
+  <si>
+    <t>41 305 Glow Court Rookwod Way London E3 2XF</t>
+  </si>
+  <si>
+    <t>AGL509727</t>
+  </si>
+  <si>
+    <t> Flat 305, Glow Court, 41 Rookwood Way, London (E3 2XF)</t>
+  </si>
+  <si>
+    <t>AGL509727/H886JHT/218</t>
+  </si>
+  <si>
+    <t>23 Telford Road Winnington CW8 4YN</t>
+  </si>
+  <si>
+    <t>CH673009</t>
+  </si>
+  <si>
+    <t>23 Telford Road, Northwich (CW8 4YN)</t>
+  </si>
+  <si>
+    <t>CH673009/V886JHT/218</t>
+  </si>
+  <si>
+    <t>1 Stratford Way Bicester OX26 1BY</t>
+  </si>
+  <si>
+    <t>ON346247</t>
+  </si>
+  <si>
+    <t>1 Stratford Way, Bicester (OX26 1BY)</t>
+  </si>
+  <si>
+    <t>ON346247/J296JHT/218</t>
+  </si>
+  <si>
+    <t>9 West End Close Chippenham SN14 0FN</t>
+  </si>
+  <si>
+    <t>WT432310</t>
+  </si>
+  <si>
+    <t> 9 West End Close, Chippenham (SN14 0FN)</t>
+  </si>
+  <si>
+    <t>WT432310/E396JHT/218</t>
+  </si>
+  <si>
+    <t>20 Furnace Lane Swadlincote DE11 9QF</t>
+  </si>
+  <si>
+    <t>DY529578</t>
+  </si>
+  <si>
+    <t>20 Furnace Lane, Castle Gresley, Swadlincote (DE11 9QF)</t>
+  </si>
+  <si>
+    <t>DY529578/W396JHT/218</t>
+  </si>
+  <si>
+    <t>21 Stroothers Place Bradford Tyersal BD4 0BN</t>
+  </si>
+  <si>
+    <t>YY117941</t>
+  </si>
+  <si>
+    <t>21 Stroothers Place, Bradford (BD4 0BN)</t>
+  </si>
+  <si>
+    <t>YY117941/I596JHT/218</t>
+  </si>
+  <si>
+    <t>7 Flax Furrow Stratford Upon Avon CV37 0ED</t>
+  </si>
+  <si>
+    <t>WK493026</t>
+  </si>
+  <si>
+    <t>7 Flax Furrow, Stratford-Upon-Avon (CV37 0ED)</t>
+  </si>
+  <si>
+    <t>WK493026/P696JHT/218</t>
+  </si>
+  <si>
+    <t>23 Grange Road Huddersfield HD7 4QZ</t>
+  </si>
+  <si>
+    <t>YY110617/Y507JHT/218</t>
+  </si>
+  <si>
+    <t>25 Casson Gardens Thornaby TS17 0FU</t>
+  </si>
+  <si>
+    <t>CE241619</t>
+  </si>
+  <si>
+    <t>25 Casson Gardens, Thornaby, Stockton-On-Tees (TS17 0FU)</t>
+  </si>
+  <si>
+    <t>CE241619/P607JHT/218</t>
+  </si>
+  <si>
+    <t>52 Walker Road Northwich CW8 4UD</t>
+  </si>
+  <si>
+    <t>CH679826</t>
+  </si>
+  <si>
+    <t>52 Walker Road, Northwich (CW8 4UD)</t>
+  </si>
+  <si>
+    <t>CH679826/T617JHT/218</t>
+  </si>
+  <si>
+    <t>1 Staley Grove Bridgnorth WV16 6FB</t>
+  </si>
+  <si>
+    <t>SL257977</t>
+  </si>
+  <si>
+    <t>1 Staley Grove, Highley, Bridgnorth (WV16 6FB)</t>
+  </si>
+  <si>
+    <t>SL257977/T717JHT/218</t>
+  </si>
+  <si>
+    <t>15 Ivie Place Salisbury SP2 9GL</t>
+  </si>
+  <si>
+    <t>WT451944</t>
+  </si>
+  <si>
+    <t>15 Ivie Place, Salisbury (SP2 9GL)</t>
+  </si>
+  <si>
+    <t>WT451944/T817JHT/218</t>
+  </si>
+  <si>
+    <t>86 Hutchins Way Basingstoke RG24 9NG</t>
+  </si>
+  <si>
+    <t>HP831612</t>
+  </si>
+  <si>
+    <t>86 Hutchins Way, Basingstoke (RG24 9NG)</t>
+  </si>
+  <si>
+    <t>HP831612/J227JHT/218</t>
+  </si>
+  <si>
+    <t>17 Mary Way Clitheroe BB7 1FL</t>
+  </si>
+  <si>
+    <t>LAN223138</t>
+  </si>
+  <si>
+    <t>17 Mary Way, Clitheroe (BB7 1FL)</t>
+  </si>
+  <si>
+    <t>LAN223138/S427JHT/218</t>
+  </si>
+  <si>
+    <t>inbox</t>
+  </si>
+  <si>
+    <t>10 Caretakers Close Melksham SN12 8FR</t>
+  </si>
+  <si>
+    <t>WT464447</t>
+  </si>
+  <si>
+    <t>10 Caretakers Close, Melksham (SN12 8FR)</t>
+  </si>
+  <si>
+    <t>WT464447/R527JHT/218</t>
+  </si>
+  <si>
     <t>31 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
   </si>
   <si>
-    <t>HD602384</t>
-  </si>
-  <si>
-    <t>1 Slater Way Ilkeston DE7 4SL</t>
-  </si>
-  <si>
-    <t>DY533669</t>
-  </si>
-  <si>
-    <t> 1 Slater Way, Ilkeston (DE7 4SL)</t>
-  </si>
-  <si>
-    <t>DY533669/W056JHT/218</t>
-  </si>
-  <si>
-    <t>54 Pius Avenue Lincoln LN6 9XT</t>
-  </si>
-  <si>
-    <t>LL393907</t>
-  </si>
-  <si>
-    <t>54 Pius Avenue, North Hykeham, Lincoln (LN6 9XT)</t>
-  </si>
-  <si>
-    <t> LL393907/S256JHT/218</t>
-  </si>
-  <si>
-    <t>2 Wilson Court Deepcut Camberley GU16 6FA</t>
-  </si>
-  <si>
-    <t>SY866329</t>
-  </si>
-  <si>
-    <t>2 Wilson Court, Deepcut, Camberley (GU16 6FA)</t>
-  </si>
-  <si>
-    <t>SY866329/X356JHT/218</t>
-  </si>
-  <si>
-    <t>28 Pintall close East Tilbury RM18 8FJ</t>
-  </si>
-  <si>
-    <t>EX969193</t>
-  </si>
-  <si>
-    <t>28 Pintail Close, East Tilbury, Tilbury (RM18 8FJ)</t>
-  </si>
-  <si>
-    <t>EX969193/Q656JHT/218</t>
-  </si>
-  <si>
-    <t>3 Pankhurst Close West Bromwich B70 0LW</t>
-  </si>
-  <si>
-    <t>MM128202</t>
-  </si>
-  <si>
-    <t>3 Pankhurst Close, West Bromwich And Parking Spaces (B70 0LW)</t>
-  </si>
-  <si>
-    <t>MM128202/L756JHT/218</t>
-  </si>
-  <si>
-    <t>41 Wincham Avenue Liverpool L24 1WS</t>
-  </si>
-  <si>
-    <t>MS687954</t>
-  </si>
-  <si>
-    <t>41 Wincham Avenue, Liverpool (L24 1WS)</t>
-  </si>
-  <si>
-    <t>MS687954/K856JHT/218</t>
-  </si>
-  <si>
-    <t>6, Northcote Avenue Lancashire OL1 4EH Oldham</t>
-  </si>
-  <si>
-    <t>MAN229892</t>
-  </si>
-  <si>
-    <t>6 Northcote Avenue, Oldham (OL1 4EH)</t>
-  </si>
-  <si>
-    <t> MAN229892/T856JHT/218</t>
-  </si>
-  <si>
-    <t>6 Woodland Crescent Halifax HX2 8WF</t>
-  </si>
-  <si>
-    <t>YY165413</t>
-  </si>
-  <si>
-    <t>6 Woodland Crescent, Halifax (HX2 8WF)</t>
-  </si>
-  <si>
-    <t>YY165413/Z956JHT/218</t>
-  </si>
-  <si>
-    <t>3 Sassoon Crescent Stowmarket IP14 1WA</t>
-  </si>
-  <si>
-    <t>SK382337</t>
-  </si>
-  <si>
-    <t> 3 Sassoon Crescent, Stowmarket (IP14 1WA)</t>
-  </si>
-  <si>
-    <t>SK382337/T066JHT/218</t>
-  </si>
-  <si>
-    <t>6 Teal Close Houghton Le Spring DH5 0GY Hetton Le Hole</t>
-  </si>
-  <si>
-    <t>TY534491</t>
-  </si>
-  <si>
-    <t> 6 Teal Close, Hetton-Le-Hole, Houghton Le Spring (DH5 0GY)</t>
-  </si>
-  <si>
-    <t>TY534491/V166JHT/218</t>
-  </si>
-  <si>
-    <t>11 Monastery Gardens Shepshed LE12 9FQ</t>
-  </si>
-  <si>
-    <t>LT482273</t>
-  </si>
-  <si>
-    <t>11 Monastery Gardens, Shepshed, Loughborough (LE12 9FQ)</t>
-  </si>
-  <si>
-    <t>LT482273/V266JHT/218</t>
-  </si>
-  <si>
-    <t>23 Hopkins Way York YO42 1AN</t>
-  </si>
-  <si>
-    <t>YEA90467</t>
-  </si>
-  <si>
-    <t>23 Hopkin Way, Pocklington, York (YO42 1AN)</t>
-  </si>
-  <si>
-    <t>YEA90467/M366JHT/218</t>
-  </si>
-  <si>
-    <t>7 Hundleby Court Cramlington NE23 1AS</t>
-  </si>
-  <si>
-    <t>ND195408</t>
-  </si>
-  <si>
-    <t>7 Hundleby Court, St. Nicholas Manor, Cramlington (NE23 1AS)</t>
-  </si>
-  <si>
-    <t>ND195408/J566JHT/218</t>
-  </si>
-  <si>
-    <t>22 Farmers Way Coalville LE67 2EG</t>
-  </si>
-  <si>
-    <t>LT510619</t>
-  </si>
-  <si>
-    <t> 22 Farmers Way, Hugglescote, Coalville (LE67 2EG)</t>
-  </si>
-  <si>
-    <t> LT510619/E666JHT/218</t>
-  </si>
-  <si>
-    <t>5 Harrier Way Norton Canes Cannock WS11 9AR</t>
-  </si>
-  <si>
-    <t>SF659628</t>
-  </si>
-  <si>
-    <t>5 Harrier Way, Norton Canes, Cannock (WS11 9AR)</t>
-  </si>
-  <si>
-    <t>SF659628/H676JHT/218</t>
-  </si>
-  <si>
-    <t>306 Hartsbourne Avenue Liverpool L25 2TD</t>
-  </si>
-  <si>
-    <t>MS672181</t>
-  </si>
-  <si>
-    <t>306 Hartsbourne Avenue, Liverpool (L25 2TD)</t>
-  </si>
-  <si>
-    <t> MS672181/F776JHT/218</t>
-  </si>
-  <si>
-    <t>77 1 Celmeres Court Springfield Road CM2 6JG Chelmsford</t>
-  </si>
-  <si>
-    <t>EX945892</t>
-  </si>
-  <si>
-    <t>1, Celmeres Court, 77 Springfield Road, Chelmsford (CM2 6JG)</t>
-  </si>
-  <si>
-    <t>EX945892/I786JHT/218</t>
-  </si>
-  <si>
-    <t>41 305 Glow Court Rookwod Way London E3 2XF</t>
-  </si>
-  <si>
-    <t>AGL509727</t>
-  </si>
-  <si>
-    <t> Flat 305, Glow Court, 41 Rookwood Way, London (E3 2XF)</t>
-  </si>
-  <si>
-    <t>AGL509727/H886JHT/218</t>
-  </si>
-  <si>
-    <t>23 Telford Road Winnington CW8 4YN</t>
-  </si>
-  <si>
-    <t>CH673009</t>
-  </si>
-  <si>
-    <t>23 Telford Road, Northwich (CW8 4YN)</t>
-  </si>
-  <si>
-    <t>CH673009/V886JHT/218</t>
-  </si>
-  <si>
-    <t>1 Stratford Way Bicester OX26 1BY</t>
-  </si>
-  <si>
-    <t>ON346247</t>
-  </si>
-  <si>
-    <t>1 Stratford Way, Bicester (OX26 1BY)</t>
-  </si>
-  <si>
-    <t>ON346247/J296JHT/218</t>
-  </si>
-  <si>
-    <t>9 West End Close Chippenham SN14 0FN</t>
-  </si>
-  <si>
-    <t>WT432310</t>
-  </si>
-  <si>
-    <t> 9 West End Close, Chippenham (SN14 0FN)</t>
-  </si>
-  <si>
-    <t>WT432310/E396JHT/218</t>
-  </si>
-  <si>
-    <t>20 Furnace Lane Swadlincote DE11 9QF</t>
-  </si>
-  <si>
-    <t>DY529578</t>
-  </si>
-  <si>
-    <t>20 Furnace Lane, Castle Gresley, Swadlincote (DE11 9QF)</t>
-  </si>
-  <si>
-    <t>DY529578/W396JHT/218</t>
-  </si>
-  <si>
-    <t>21 Stroothers Place Bradford Tyersal BD4 0BN</t>
-  </si>
-  <si>
-    <t>YY117941</t>
-  </si>
-  <si>
-    <t>21 Stroothers Place, Bradford (BD4 0BN)</t>
-  </si>
-  <si>
-    <t>YY117941/I596JHT/218</t>
-  </si>
-  <si>
-    <t>7 Flax Furrow Stratford Upon Avon CV37 0ED</t>
-  </si>
-  <si>
-    <t>WK493026</t>
-  </si>
-  <si>
-    <t>7 Flax Furrow, Stratford-Upon-Avon (CV37 0ED)</t>
-  </si>
-  <si>
-    <t>WK493026/P696JHT/218</t>
-  </si>
-  <si>
-    <t>23 Grange Road Huddersfield HD7 4QZ</t>
-  </si>
-  <si>
-    <t>YY110617/Y507JHT/218</t>
-  </si>
-  <si>
-    <t>25 Casson Gardens Thornaby TS17 0FU</t>
-  </si>
-  <si>
-    <t>CE241619</t>
-  </si>
-  <si>
-    <t>25 Casson Gardens, Thornaby, Stockton-On-Tees (TS17 0FU)</t>
-  </si>
-  <si>
-    <t>CE241619/P607JHT/218</t>
-  </si>
-  <si>
-    <t>52 Walker Road Northwich CW8 4UD</t>
-  </si>
-  <si>
-    <t>CH679826</t>
-  </si>
-  <si>
-    <t>52 Walker Road, Northwich (CW8 4UD)</t>
-  </si>
-  <si>
-    <t>CH679826/T617JHT/218</t>
-  </si>
-  <si>
-    <t>1 Staley Grove Bridgnorth WV16 6FB</t>
-  </si>
-  <si>
-    <t>SL257977</t>
-  </si>
-  <si>
-    <t>1 Staley Grove, Highley, Bridgnorth (WV16 6FB)</t>
-  </si>
-  <si>
-    <t>SL257977/T717JHT/218</t>
-  </si>
-  <si>
-    <t>15 Ivie Place Salisbury SP2 9GL</t>
-  </si>
-  <si>
-    <t>WT451944</t>
-  </si>
-  <si>
-    <t>15 Ivie Place, Salisbury (SP2 9GL)</t>
-  </si>
-  <si>
-    <t>WT451944/T817JHT/218</t>
-  </si>
-  <si>
-    <t>86 Hutchins Way Basingstoke RG24 9NG</t>
-  </si>
-  <si>
-    <t>HP831612</t>
-  </si>
-  <si>
-    <t>86 Hutchins Way, Basingstoke (RG24 9NG)</t>
-  </si>
-  <si>
-    <t>HP831612/J227JHT/218</t>
-  </si>
-  <si>
-    <t>17 Mary Way Clitheroe BB7 1FL</t>
-  </si>
-  <si>
-    <t>LAN223138</t>
-  </si>
-  <si>
-    <t>17 Mary Way, Clitheroe (BB7 1FL)</t>
-  </si>
-  <si>
-    <t>LAN223138/S427JHT/218</t>
-  </si>
-  <si>
-    <t>inbox</t>
-  </si>
-  <si>
-    <t>10 Caretakers Close Melksham SN12 8FR</t>
-  </si>
-  <si>
-    <t>WT464447</t>
-  </si>
-  <si>
-    <t>10 Caretakers Close, Melksham (SN12 8FR)</t>
-  </si>
-  <si>
-    <t>WT464447/R527JHT/218</t>
-  </si>
-  <si>
-    <t>HD602384/T977JHT/218</t>
-  </si>
-  <si>
-    <t>HD602384/V977JHT/218</t>
+    <t>HD602384/L099LHT/221</t>
   </si>
 </sst>
 </file>
@@ -6375,36 +6372,6 @@
   <dxfs count="42">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -6765,6 +6732,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="ff9c0006"/>
       </font>
       <fill>
@@ -6818,8 +6815,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3036</xdr:row>
-      <xdr:rowOff>35223</xdr:rowOff>
+      <xdr:row>3037</xdr:row>
+      <xdr:rowOff>35221</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6836,8 +6833,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10706302" y="1570768"/>
-          <a:ext cx="309738" cy="577891097"/>
+          <a:off x="8817951" y="1571729"/>
+          <a:ext cx="308680" cy="578300670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6915,9 +6912,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>3035</xdr:row>
-      <xdr:rowOff>160604</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3036</xdr:row>
+      <xdr:rowOff>160602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7307,15 +7304,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8018EBFC-BBDD-47D5-8A8F-DFE2D059D3E8}">
-  <dimension ref="A1:R488"/>
+  <dimension ref="A1:R489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B442" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A49" sqref="A49"/>
-      <selection pane="topRight" activeCell="M488" sqref="M488"/>
+    <sheetView tabSelected="1" topLeftCell="A450" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K488" sqref="K488"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1" style="22"/>
     <col min="3" max="3" width="13.42578125" customWidth="1" style="24"/>
@@ -7333,7 +7328,8 @@
     <col min="15" max="15" width="14.42578125" customWidth="1" style="24"/>
     <col min="16" max="16" width="9.140625" customWidth="1" style="22"/>
     <col min="17" max="17" width="59" customWidth="1" style="22"/>
-    <col min="18" max="16384" width="9.140625" customWidth="1" style="22"/>
+    <col min="18" max="24" width="9.140625" customWidth="1" style="22"/>
+    <col min="25" max="16384" width="9.140625" customWidth="1" style="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="6" customFormat="1">
@@ -29266,27 +29262,11 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="22">
-        <v>3</v>
-      </c>
-      <c r="D455" s="22" t="s">
+    <row r="455" ht="15.75">
+      <c r="C455" s="28"/>
+      <c r="G455" s="24"/>
+      <c r="I455" s="23" t="s">
         <v>1803</v>
-      </c>
-      <c r="E455" s="22">
-        <v>55555</v>
-      </c>
-      <c r="I455" s="23" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J455" s="21" t="s">
-        <v>1803</v>
-      </c>
-      <c r="K455" s="22" t="s">
-        <v>1932</v>
-      </c>
-      <c r="M455" s="22" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="456" ht="15" customHeight="1">
@@ -29297,7 +29277,7 @@
         <v>45334</v>
       </c>
       <c r="D456" s="22" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E456" s="21">
         <v>869953</v>
@@ -29312,13 +29292,13 @@
         <v>31</v>
       </c>
       <c r="I456" s="23" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J456" s="68" t="s">
         <v>1806</v>
       </c>
-      <c r="J456" s="68" t="s">
+      <c r="K456" s="22" t="s">
         <v>1807</v>
-      </c>
-      <c r="K456" s="22" t="s">
-        <v>1808</v>
       </c>
       <c r="L456" s="22" t="s">
         <v>866</v>
@@ -29344,7 +29324,7 @@
         <v>45334</v>
       </c>
       <c r="D457" s="22" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E457" s="21">
         <v>881387</v>
@@ -29359,13 +29339,13 @@
         <v>31</v>
       </c>
       <c r="I457" s="23" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J457" s="68" t="s">
         <v>1810</v>
       </c>
-      <c r="J457" s="68" t="s">
+      <c r="K457" s="68" t="s">
         <v>1811</v>
-      </c>
-      <c r="K457" s="68" t="s">
-        <v>1812</v>
       </c>
       <c r="L457" s="22" t="s">
         <v>866</v>
@@ -29391,7 +29371,7 @@
         <v>45334</v>
       </c>
       <c r="D458" s="22" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E458" s="21">
         <v>917109</v>
@@ -29406,13 +29386,13 @@
         <v>31</v>
       </c>
       <c r="I458" s="23" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J458" s="68" t="s">
         <v>1814</v>
       </c>
-      <c r="J458" s="68" t="s">
+      <c r="K458" s="68" t="s">
         <v>1815</v>
-      </c>
-      <c r="K458" s="68" t="s">
-        <v>1816</v>
       </c>
       <c r="L458" s="22" t="s">
         <v>866</v>
@@ -29438,7 +29418,7 @@
         <v>45334</v>
       </c>
       <c r="D459" s="22" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E459" s="21">
         <v>803129</v>
@@ -29453,13 +29433,13 @@
         <v>31</v>
       </c>
       <c r="I459" s="23" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J459" s="68" t="s">
         <v>1818</v>
       </c>
-      <c r="J459" s="68" t="s">
+      <c r="K459" s="68" t="s">
         <v>1819</v>
-      </c>
-      <c r="K459" s="68" t="s">
-        <v>1820</v>
       </c>
       <c r="L459" s="22" t="s">
         <v>866</v>
@@ -29485,7 +29465,7 @@
         <v>45334</v>
       </c>
       <c r="D460" s="22" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E460" s="21">
         <v>865333</v>
@@ -29500,13 +29480,13 @@
         <v>31</v>
       </c>
       <c r="I460" s="23" t="s">
+        <v>1821</v>
+      </c>
+      <c r="J460" s="68" t="s">
         <v>1822</v>
       </c>
-      <c r="J460" s="68" t="s">
+      <c r="K460" s="68" t="s">
         <v>1823</v>
-      </c>
-      <c r="K460" s="68" t="s">
-        <v>1824</v>
       </c>
       <c r="L460" s="22" t="s">
         <v>866</v>
@@ -29532,7 +29512,7 @@
         <v>45334</v>
       </c>
       <c r="D461" s="22" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E461" s="21">
         <v>990861</v>
@@ -29547,13 +29527,13 @@
         <v>31</v>
       </c>
       <c r="I461" s="23" t="s">
+        <v>1825</v>
+      </c>
+      <c r="J461" s="68" t="s">
         <v>1826</v>
       </c>
-      <c r="J461" s="68" t="s">
+      <c r="K461" s="68" t="s">
         <v>1827</v>
-      </c>
-      <c r="K461" s="68" t="s">
-        <v>1828</v>
       </c>
       <c r="L461" s="22" t="s">
         <v>866</v>
@@ -29579,7 +29559,7 @@
         <v>45334</v>
       </c>
       <c r="D462" s="22" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E462" s="21">
         <v>618051</v>
@@ -29594,13 +29574,13 @@
         <v>31</v>
       </c>
       <c r="I462" s="23" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J462" s="68" t="s">
         <v>1830</v>
       </c>
-      <c r="J462" s="68" t="s">
+      <c r="K462" s="68" t="s">
         <v>1831</v>
-      </c>
-      <c r="K462" s="68" t="s">
-        <v>1832</v>
       </c>
       <c r="L462" s="22" t="s">
         <v>866</v>
@@ -29626,7 +29606,7 @@
         <v>45334</v>
       </c>
       <c r="D463" s="22" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E463" s="21">
         <v>968744</v>
@@ -29641,13 +29621,13 @@
         <v>31</v>
       </c>
       <c r="I463" s="23" t="s">
+        <v>1833</v>
+      </c>
+      <c r="J463" s="68" t="s">
         <v>1834</v>
       </c>
-      <c r="J463" s="68" t="s">
+      <c r="K463" s="68" t="s">
         <v>1835</v>
-      </c>
-      <c r="K463" s="68" t="s">
-        <v>1836</v>
       </c>
       <c r="L463" s="22" t="s">
         <v>866</v>
@@ -29673,7 +29653,7 @@
         <v>45334</v>
       </c>
       <c r="D464" s="22" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="E464" s="21">
         <v>791508</v>
@@ -29688,13 +29668,13 @@
         <v>31</v>
       </c>
       <c r="I464" s="23" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J464" s="68" t="s">
         <v>1838</v>
       </c>
-      <c r="J464" s="68" t="s">
+      <c r="K464" s="68" t="s">
         <v>1839</v>
-      </c>
-      <c r="K464" s="68" t="s">
-        <v>1840</v>
       </c>
       <c r="L464" s="22" t="s">
         <v>866</v>
@@ -29720,7 +29700,7 @@
         <v>45334</v>
       </c>
       <c r="D465" s="22" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E465" s="21">
         <v>682738</v>
@@ -29735,13 +29715,13 @@
         <v>31</v>
       </c>
       <c r="I465" s="23" t="s">
+        <v>1841</v>
+      </c>
+      <c r="J465" s="68" t="s">
         <v>1842</v>
       </c>
-      <c r="J465" s="68" t="s">
+      <c r="K465" s="68" t="s">
         <v>1843</v>
-      </c>
-      <c r="K465" s="68" t="s">
-        <v>1844</v>
       </c>
       <c r="L465" s="22" t="s">
         <v>866</v>
@@ -29767,7 +29747,7 @@
         <v>45334</v>
       </c>
       <c r="D466" s="22" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E466" s="21">
         <v>696891</v>
@@ -29782,13 +29762,13 @@
         <v>31</v>
       </c>
       <c r="I466" s="23" t="s">
+        <v>1845</v>
+      </c>
+      <c r="J466" s="68" t="s">
         <v>1846</v>
       </c>
-      <c r="J466" s="68" t="s">
+      <c r="K466" s="68" t="s">
         <v>1847</v>
-      </c>
-      <c r="K466" s="68" t="s">
-        <v>1848</v>
       </c>
       <c r="L466" s="22" t="s">
         <v>866</v>
@@ -29814,7 +29794,7 @@
         <v>45334</v>
       </c>
       <c r="D467" s="22" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E467" s="21">
         <v>866515</v>
@@ -29829,13 +29809,13 @@
         <v>31</v>
       </c>
       <c r="I467" s="23" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J467" s="68" t="s">
         <v>1850</v>
       </c>
-      <c r="J467" s="68" t="s">
+      <c r="K467" s="68" t="s">
         <v>1851</v>
-      </c>
-      <c r="K467" s="68" t="s">
-        <v>1852</v>
       </c>
       <c r="L467" s="22" t="s">
         <v>866</v>
@@ -29861,7 +29841,7 @@
         <v>45334</v>
       </c>
       <c r="D468" s="22" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E468" s="21">
         <v>822731</v>
@@ -29876,13 +29856,13 @@
         <v>31</v>
       </c>
       <c r="I468" s="23" t="s">
+        <v>1853</v>
+      </c>
+      <c r="J468" s="68" t="s">
         <v>1854</v>
       </c>
-      <c r="J468" s="68" t="s">
+      <c r="K468" s="68" t="s">
         <v>1855</v>
-      </c>
-      <c r="K468" s="68" t="s">
-        <v>1856</v>
       </c>
       <c r="L468" s="22" t="s">
         <v>866</v>
@@ -29908,7 +29888,7 @@
         <v>45334</v>
       </c>
       <c r="D469" s="22" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="E469" s="21">
         <v>860463</v>
@@ -29923,13 +29903,13 @@
         <v>31</v>
       </c>
       <c r="I469" s="72" t="s">
+        <v>1857</v>
+      </c>
+      <c r="J469" s="68" t="s">
         <v>1858</v>
       </c>
-      <c r="J469" s="68" t="s">
+      <c r="K469" s="68" t="s">
         <v>1859</v>
-      </c>
-      <c r="K469" s="68" t="s">
-        <v>1860</v>
       </c>
       <c r="L469" s="22" t="s">
         <v>866</v>
@@ -29955,7 +29935,7 @@
         <v>45334</v>
       </c>
       <c r="D470" s="22" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E470" s="21">
         <v>942874</v>
@@ -29970,13 +29950,13 @@
         <v>31</v>
       </c>
       <c r="I470" s="72" t="s">
+        <v>1861</v>
+      </c>
+      <c r="J470" s="68" t="s">
         <v>1862</v>
       </c>
-      <c r="J470" s="68" t="s">
+      <c r="K470" s="68" t="s">
         <v>1863</v>
-      </c>
-      <c r="K470" s="68" t="s">
-        <v>1864</v>
       </c>
       <c r="L470" s="22" t="s">
         <v>866</v>
@@ -30002,7 +29982,7 @@
         <v>45334</v>
       </c>
       <c r="D471" s="22" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E471" s="21">
         <v>885630</v>
@@ -30017,13 +29997,13 @@
         <v>31</v>
       </c>
       <c r="I471" s="72" t="s">
+        <v>1865</v>
+      </c>
+      <c r="J471" s="68" t="s">
         <v>1866</v>
       </c>
-      <c r="J471" s="68" t="s">
+      <c r="K471" s="68" t="s">
         <v>1867</v>
-      </c>
-      <c r="K471" s="68" t="s">
-        <v>1868</v>
       </c>
       <c r="L471" s="22" t="s">
         <v>866</v>
@@ -30049,7 +30029,7 @@
         <v>45334</v>
       </c>
       <c r="D472" s="22" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="E472" s="21">
         <v>720363</v>
@@ -30064,13 +30044,13 @@
         <v>31</v>
       </c>
       <c r="I472" s="23" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J472" s="68" t="s">
         <v>1870</v>
       </c>
-      <c r="J472" s="68" t="s">
+      <c r="K472" s="68" t="s">
         <v>1871</v>
-      </c>
-      <c r="K472" s="68" t="s">
-        <v>1872</v>
       </c>
       <c r="L472" s="22" t="s">
         <v>866</v>
@@ -30096,7 +30076,7 @@
         <v>45334</v>
       </c>
       <c r="D473" s="22" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E473" s="21">
         <v>951008</v>
@@ -30111,13 +30091,13 @@
         <v>31</v>
       </c>
       <c r="I473" s="23" t="s">
+        <v>1873</v>
+      </c>
+      <c r="J473" s="68" t="s">
         <v>1874</v>
       </c>
-      <c r="J473" s="68" t="s">
+      <c r="K473" s="68" t="s">
         <v>1875</v>
-      </c>
-      <c r="K473" s="68" t="s">
-        <v>1876</v>
       </c>
       <c r="L473" s="22" t="s">
         <v>866</v>
@@ -30143,7 +30123,7 @@
         <v>45334</v>
       </c>
       <c r="D474" s="22" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E474" s="21">
         <v>837884</v>
@@ -30158,13 +30138,13 @@
         <v>31</v>
       </c>
       <c r="I474" s="23" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J474" s="68" t="s">
         <v>1878</v>
       </c>
-      <c r="J474" s="68" t="s">
+      <c r="K474" s="68" t="s">
         <v>1879</v>
-      </c>
-      <c r="K474" s="68" t="s">
-        <v>1880</v>
       </c>
       <c r="L474" s="22" t="s">
         <v>866</v>
@@ -30190,7 +30170,7 @@
         <v>45334</v>
       </c>
       <c r="D475" s="22" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E475" s="21">
         <v>849393</v>
@@ -30205,13 +30185,13 @@
         <v>31</v>
       </c>
       <c r="I475" s="23" t="s">
+        <v>1881</v>
+      </c>
+      <c r="J475" s="68" t="s">
         <v>1882</v>
       </c>
-      <c r="J475" s="68" t="s">
+      <c r="K475" s="68" t="s">
         <v>1883</v>
-      </c>
-      <c r="K475" s="68" t="s">
-        <v>1884</v>
       </c>
       <c r="L475" s="22" t="s">
         <v>866</v>
@@ -30237,7 +30217,7 @@
         <v>45334</v>
       </c>
       <c r="D476" s="22" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E476" s="21">
         <v>747206</v>
@@ -30252,13 +30232,13 @@
         <v>31</v>
       </c>
       <c r="I476" s="23" t="s">
+        <v>1885</v>
+      </c>
+      <c r="J476" s="68" t="s">
         <v>1886</v>
       </c>
-      <c r="J476" s="68" t="s">
+      <c r="K476" s="68" t="s">
         <v>1887</v>
-      </c>
-      <c r="K476" s="68" t="s">
-        <v>1888</v>
       </c>
       <c r="L476" s="22" t="s">
         <v>866</v>
@@ -30284,7 +30264,7 @@
         <v>45334</v>
       </c>
       <c r="D477" s="22" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E477" s="21">
         <v>852917</v>
@@ -30299,13 +30279,13 @@
         <v>31</v>
       </c>
       <c r="I477" s="23" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J477" s="68" t="s">
         <v>1890</v>
       </c>
-      <c r="J477" s="68" t="s">
+      <c r="K477" s="68" t="s">
         <v>1891</v>
-      </c>
-      <c r="K477" s="68" t="s">
-        <v>1892</v>
       </c>
       <c r="L477" s="22" t="s">
         <v>866</v>
@@ -30331,7 +30311,7 @@
         <v>45334</v>
       </c>
       <c r="D478" s="22" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="E478" s="21">
         <v>826182</v>
@@ -30346,13 +30326,13 @@
         <v>31</v>
       </c>
       <c r="I478" s="23" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J478" s="68" t="s">
         <v>1894</v>
       </c>
-      <c r="J478" s="68" t="s">
+      <c r="K478" s="68" t="s">
         <v>1895</v>
-      </c>
-      <c r="K478" s="68" t="s">
-        <v>1896</v>
       </c>
       <c r="L478" s="22" t="s">
         <v>866</v>
@@ -30378,7 +30358,7 @@
         <v>45334</v>
       </c>
       <c r="D479" s="22" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E479" s="21">
         <v>778098</v>
@@ -30393,13 +30373,13 @@
         <v>31</v>
       </c>
       <c r="I479" s="23" t="s">
+        <v>1897</v>
+      </c>
+      <c r="J479" s="68" t="s">
         <v>1898</v>
       </c>
-      <c r="J479" s="68" t="s">
+      <c r="K479" s="68" t="s">
         <v>1899</v>
-      </c>
-      <c r="K479" s="68" t="s">
-        <v>1900</v>
       </c>
       <c r="L479" s="22" t="s">
         <v>866</v>
@@ -30425,7 +30405,7 @@
         <v>45334</v>
       </c>
       <c r="D480" s="22" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E480" s="21">
         <v>832644</v>
@@ -30446,7 +30426,7 @@
         <v>831</v>
       </c>
       <c r="K480" s="68" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="L480" s="22" t="s">
         <v>866</v>
@@ -30472,7 +30452,7 @@
         <v>45334</v>
       </c>
       <c r="D481" s="22" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="E481" s="21">
         <v>880275</v>
@@ -30487,13 +30467,13 @@
         <v>31</v>
       </c>
       <c r="I481" s="23" t="s">
+        <v>1903</v>
+      </c>
+      <c r="J481" s="68" t="s">
         <v>1904</v>
       </c>
-      <c r="J481" s="68" t="s">
+      <c r="K481" s="68" t="s">
         <v>1905</v>
-      </c>
-      <c r="K481" s="68" t="s">
-        <v>1906</v>
       </c>
       <c r="L481" s="22" t="s">
         <v>866</v>
@@ -30519,7 +30499,7 @@
         <v>45334</v>
       </c>
       <c r="D482" s="22" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E482" s="21">
         <v>840914</v>
@@ -30534,13 +30514,13 @@
         <v>31</v>
       </c>
       <c r="I482" s="23" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J482" s="68" t="s">
         <v>1908</v>
       </c>
-      <c r="J482" s="68" t="s">
+      <c r="K482" s="68" t="s">
         <v>1909</v>
-      </c>
-      <c r="K482" s="68" t="s">
-        <v>1910</v>
       </c>
       <c r="L482" s="22" t="s">
         <v>866</v>
@@ -30566,7 +30546,7 @@
         <v>45334</v>
       </c>
       <c r="D483" s="22" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E483" s="21">
         <v>872163</v>
@@ -30581,13 +30561,13 @@
         <v>31</v>
       </c>
       <c r="I483" s="23" t="s">
+        <v>1911</v>
+      </c>
+      <c r="J483" s="68" t="s">
         <v>1912</v>
       </c>
-      <c r="J483" s="68" t="s">
+      <c r="K483" s="68" t="s">
         <v>1913</v>
-      </c>
-      <c r="K483" s="68" t="s">
-        <v>1914</v>
       </c>
       <c r="L483" s="22" t="s">
         <v>866</v>
@@ -30613,7 +30593,7 @@
         <v>45334</v>
       </c>
       <c r="D484" s="22" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E484" s="21">
         <v>943025</v>
@@ -30628,13 +30608,13 @@
         <v>31</v>
       </c>
       <c r="I484" s="23" t="s">
+        <v>1915</v>
+      </c>
+      <c r="J484" s="68" t="s">
         <v>1916</v>
       </c>
-      <c r="J484" s="68" t="s">
+      <c r="K484" s="68" t="s">
         <v>1917</v>
-      </c>
-      <c r="K484" s="68" t="s">
-        <v>1918</v>
       </c>
       <c r="L484" s="22" t="s">
         <v>866</v>
@@ -30660,7 +30640,7 @@
         <v>45334</v>
       </c>
       <c r="D485" s="22" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E485" s="21">
         <v>870491</v>
@@ -30675,13 +30655,13 @@
         <v>31</v>
       </c>
       <c r="I485" s="23" t="s">
+        <v>1919</v>
+      </c>
+      <c r="J485" s="68" t="s">
         <v>1920</v>
       </c>
-      <c r="J485" s="68" t="s">
+      <c r="K485" s="68" t="s">
         <v>1921</v>
-      </c>
-      <c r="K485" s="68" t="s">
-        <v>1922</v>
       </c>
       <c r="L485" s="22" t="s">
         <v>866</v>
@@ -30707,7 +30687,7 @@
         <v>45334</v>
       </c>
       <c r="D486" s="22" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E486" s="21">
         <v>888839</v>
@@ -30722,13 +30702,13 @@
         <v>31</v>
       </c>
       <c r="I486" s="23" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J486" s="68" t="s">
         <v>1924</v>
       </c>
-      <c r="J486" s="68" t="s">
+      <c r="K486" s="68" t="s">
         <v>1925</v>
-      </c>
-      <c r="K486" s="68" t="s">
-        <v>1926</v>
       </c>
       <c r="L486" s="22" t="s">
         <v>866</v>
@@ -30748,13 +30728,13 @@
     </row>
     <row r="487" ht="15" customHeight="1">
       <c r="B487" s="22" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C487" s="24">
         <v>45334</v>
       </c>
       <c r="D487" s="22" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E487" s="22">
         <v>743506</v>
@@ -30769,13 +30749,13 @@
         <v>31</v>
       </c>
       <c r="I487" s="23" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J487" s="68" t="s">
         <v>1929</v>
       </c>
-      <c r="J487" s="68" t="s">
+      <c r="K487" s="68" t="s">
         <v>1930</v>
-      </c>
-      <c r="K487" s="68" t="s">
-        <v>1931</v>
       </c>
       <c r="L487" s="22" t="s">
         <v>866</v>
@@ -30784,26 +30764,67 @@
         <v>147</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" ht="31.5">
       <c r="A488" s="22">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B488" s="22" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C488" s="24">
+        <v>45334</v>
       </c>
       <c r="D488" s="22" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E488" s="22">
+        <v>743506</v>
+      </c>
+      <c r="F488" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G488" s="24">
+        <v>45335</v>
+      </c>
+      <c r="H488" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="489" ht="31.5">
+      <c r="A489" s="22">
+        <v>1</v>
+      </c>
+      <c r="B489" s="22" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C489" s="24">
+        <v>45334</v>
+      </c>
+      <c r="D489" s="22" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E489" s="22">
+        <v>743506</v>
+      </c>
+      <c r="F489" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G489" s="24">
+        <v>45335</v>
+      </c>
+      <c r="H489" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I489" s="23" t="s">
         <v>1803</v>
       </c>
-      <c r="E488" s="22">
-        <v>55555</v>
-      </c>
-      <c r="I488" s="23" t="s">
-        <v>1804</v>
-      </c>
-      <c r="J488" s="21" t="s">
-        <v>1803</v>
-      </c>
-      <c r="K488" s="22" t="s">
-        <v>1933</v>
-      </c>
-      <c r="M488" s="22" t="s">
+      <c r="J489" s="21" t="s">
+        <v>1931</v>
+      </c>
+      <c r="K489" s="22" t="s">
+        <v>1932</v>
+      </c>
+      <c r="M489" s="22" t="s">
         <v>147</v>
       </c>
     </row>
@@ -30823,7 +30844,7 @@
   <conditionalFormatting sqref="D4:D28 D30:D32 D34:D159">
     <cfRule type="duplicateValues" dxfId="39" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D488:D1048576 D375 D165:D206 D211 D213:D298 D343:D344 D377:D486">
+  <conditionalFormatting sqref="D375 D165:D206 D211 D213:D298 D343:D344 D377:D486 D488:D1048576">
     <cfRule type="duplicateValues" dxfId="39" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E160">
@@ -30831,8 +30852,8 @@
     <cfRule type="duplicateValues" dxfId="39" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165:E298 E1:E3 E343:E344 E375:E1048576">
+    <cfRule type="duplicateValues" dxfId="39" priority="91"/>
     <cfRule type="duplicateValues" dxfId="39" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
     <cfRule type="duplicateValues" dxfId="39" priority="74"/>
@@ -30922,7 +30943,7 @@
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;12&amp;K0078D7 OFFICIAL </oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30933,7 +30954,7 @@
       <selection sqref="A1:A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -30943,6 +30964,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="691f3940-da01-4610-8a13-7e6f036c2548" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dbb798-63e8-4411-94d7-398665c805e3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="691f3940-da01-4610-8a13-7e6f036c2548">
+      <UserInfo>
+        <DisplayName>Odunayo Olufemi</DisplayName>
+        <AccountId>340</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010035F00B5F6B81D145829BBB93F2043D07" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c024d4678e8ddd8c8a664f05a2d02ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74dbb798-63e8-4411-94d7-398665c805e3" xmlns:ns3="691f3940-da01-4610-8a13-7e6f036c2548" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee14520912c247aa9ad2f1820187504a" ns2:_="" ns3:_="">
     <xsd:import namespace="74dbb798-63e8-4411-94d7-398665c805e3"/>
@@ -31197,34 +31245,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD4AE5-A275-4710-96E6-3074C94F50BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="691f3940-da01-4610-8a13-7e6f036c2548"/>
+    <ds:schemaRef ds:uri="74dbb798-63e8-4411-94d7-398665c805e3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="691f3940-da01-4610-8a13-7e6f036c2548" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dbb798-63e8-4411-94d7-398665c805e3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="691f3940-da01-4610-8a13-7e6f036c2548">
-      <UserInfo>
-        <DisplayName>Odunayo Olufemi</DisplayName>
-        <AccountId>340</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD201087-7430-4DBC-91FB-E5375E0F53E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20E6ECBA-E825-4808-AC15-32F716C0C131}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31241,23 +31281,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD201087-7430-4DBC-91FB-E5375E0F53E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD4AE5-A275-4710-96E6-3074C94F50BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="691f3940-da01-4610-8a13-7e6f036c2548"/>
-    <ds:schemaRef ds:uri="74dbb798-63e8-4411-94d7-398665c805e3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LandRegistryProject/TestDatas/TittleNumer.xlsx
+++ b/LandRegistryProject/TestDatas/TittleNumer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amos.Awaghade\source\repos\LandRegistryBulk-Discharge-Automation\LandRegistryProject\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6333AA5-45F0-491B-811A-A21B03028194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B46BD15-A8D0-4F5A-9C22-A3D921DF8168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{400498CB-F334-4E68-B062-A427E2481F8E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="1934">
   <si>
     <t>Daily Download</t>
   </si>
@@ -5845,7 +5845,10 @@
     <t>31 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
   </si>
   <si>
-    <t>HD602384/L099LHT/221</t>
+    <t>31 Wallace Green Way, Walkern, Stevenage SG2 7FB</t>
+  </si>
+  <si>
+    <t>HD602384/M182MHT/221</t>
   </si>
 </sst>
 </file>
@@ -6912,7 +6915,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>3036</xdr:row>
       <xdr:rowOff>160602</xdr:rowOff>
     </xdr:to>
@@ -7307,7 +7310,7 @@
   <dimension ref="A1:R489"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A450" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K488" sqref="K488"/>
+      <selection activeCell="J489" sqref="J489:M489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -7328,8 +7331,8 @@
     <col min="15" max="15" width="14.42578125" customWidth="1" style="24"/>
     <col min="16" max="16" width="9.140625" customWidth="1" style="22"/>
     <col min="17" max="17" width="59" customWidth="1" style="22"/>
-    <col min="18" max="24" width="9.140625" customWidth="1" style="22"/>
-    <col min="25" max="16384" width="9.140625" customWidth="1" style="22"/>
+    <col min="18" max="25" width="9.140625" customWidth="1" style="22"/>
+    <col min="26" max="16384" width="9.140625" customWidth="1" style="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="6" customFormat="1">
@@ -30801,7 +30804,7 @@
         <v>45334</v>
       </c>
       <c r="D489" s="22" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E489" s="22">
         <v>743506</v>
@@ -30822,7 +30825,7 @@
         <v>1931</v>
       </c>
       <c r="K489" s="22" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="M489" s="22" t="s">
         <v>147</v>
@@ -30964,33 +30967,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="691f3940-da01-4610-8a13-7e6f036c2548" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dbb798-63e8-4411-94d7-398665c805e3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="691f3940-da01-4610-8a13-7e6f036c2548">
-      <UserInfo>
-        <DisplayName>Odunayo Olufemi</DisplayName>
-        <AccountId>340</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010035F00B5F6B81D145829BBB93F2043D07" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c024d4678e8ddd8c8a664f05a2d02ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74dbb798-63e8-4411-94d7-398665c805e3" xmlns:ns3="691f3940-da01-4610-8a13-7e6f036c2548" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee14520912c247aa9ad2f1820187504a" ns2:_="" ns3:_="">
     <xsd:import namespace="74dbb798-63e8-4411-94d7-398665c805e3"/>
@@ -31245,26 +31221,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD4AE5-A275-4710-96E6-3074C94F50BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="691f3940-da01-4610-8a13-7e6f036c2548"/>
-    <ds:schemaRef ds:uri="74dbb798-63e8-4411-94d7-398665c805e3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD201087-7430-4DBC-91FB-E5375E0F53E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="691f3940-da01-4610-8a13-7e6f036c2548" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dbb798-63e8-4411-94d7-398665c805e3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="691f3940-da01-4610-8a13-7e6f036c2548">
+      <UserInfo>
+        <DisplayName>Odunayo Olufemi</DisplayName>
+        <AccountId>340</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20E6ECBA-E825-4808-AC15-32F716C0C131}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31281,4 +31265,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD201087-7430-4DBC-91FB-E5375E0F53E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD4AE5-A275-4710-96E6-3074C94F50BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="691f3940-da01-4610-8a13-7e6f036c2548"/>
+    <ds:schemaRef ds:uri="74dbb798-63e8-4411-94d7-398665c805e3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LandRegistryProject/TestDatas/TittleNumer.xlsx
+++ b/LandRegistryProject/TestDatas/TittleNumer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amos.Awaghade\source\repos\LandRegistryBulk-Discharge-Automation\LandRegistryProject\TestDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HomesEnglandAutomation\Land_Registry\LandRegistryProject\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6333AA5-45F0-491B-811A-A21B03028194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F530D575-4E51-41A4-8585-870EBED52637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{400498CB-F334-4E68-B062-A427E2481F8E}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="22380" windowHeight="11270" xr2:uid="{400498CB-F334-4E68-B062-A427E2481F8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb 2024" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="1937">
   <si>
     <t>Daily Download</t>
   </si>
@@ -5845,7 +5845,19 @@
     <t>31 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
   </si>
   <si>
-    <t>HD602384/L099LHT/221</t>
+    <t>HD602384/C152MHT/221</t>
+  </si>
+  <si>
+    <t>Zk</t>
+  </si>
+  <si>
+    <t>HD602384/S872MHT/221</t>
+  </si>
+  <si>
+    <t>HD602384/U872MHT/221</t>
+  </si>
+  <si>
+    <t>HD602384/V872MHT/221</t>
   </si>
 </sst>
 </file>
@@ -6906,15 +6918,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>656872</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>31210</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>3036</xdr:row>
-      <xdr:rowOff>160602</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3038</xdr:row>
+      <xdr:rowOff>153131</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6934,8 +6946,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9381772" y="50632884"/>
-          <a:ext cx="333224" cy="577733152"/>
+          <a:off x="7823034" y="2039471"/>
+          <a:ext cx="198697" cy="589642307"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7008,9 +7020,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7048,7 +7060,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7154,7 +7166,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7296,7 +7308,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7304,32 +7316,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8018EBFC-BBDD-47D5-8A8F-DFE2D059D3E8}">
-  <dimension ref="A1:R489"/>
+  <dimension ref="A1:R493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K488" sqref="K488"/>
+    <sheetView tabSelected="1" topLeftCell="D479" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D488" sqref="D488"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1" style="22"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1" style="24"/>
-    <col min="4" max="4" width="44.28515625" customWidth="1" style="22"/>
+    <col min="1" max="2" width="9.1796875" customWidth="1" style="22"/>
+    <col min="3" max="3" width="13.453125" customWidth="1" style="24"/>
+    <col min="4" max="4" width="44.26953125" customWidth="1" style="22"/>
     <col min="5" max="5" width="11" customWidth="1" style="22"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="22"/>
-    <col min="7" max="7" bestFit="1" width="15.140625" customWidth="1" style="22"/>
-    <col min="8" max="8" width="6.140625" customWidth="1" style="25"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" style="23"/>
-    <col min="10" max="10" bestFit="1" width="52.7109375" customWidth="1" style="21"/>
+    <col min="6" max="6" width="9.1796875" customWidth="1" style="22"/>
+    <col min="7" max="7" bestFit="1" width="15.1796875" customWidth="1" style="22"/>
+    <col min="8" max="8" width="6.1796875" customWidth="1" style="25"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1" style="23"/>
+    <col min="10" max="10" bestFit="1" width="52.7265625" customWidth="1" style="21"/>
     <col min="11" max="11" width="29" customWidth="1" style="22"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1" style="22"/>
-    <col min="13" max="13" width="26.42578125" customWidth="1" style="22"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1" style="24"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1" style="24"/>
-    <col min="16" max="16" width="9.140625" customWidth="1" style="22"/>
+    <col min="12" max="12" width="9.54296875" customWidth="1" style="22"/>
+    <col min="13" max="13" width="26.453125" customWidth="1" style="22"/>
+    <col min="14" max="14" width="14.7265625" customWidth="1" style="24"/>
+    <col min="15" max="15" width="14.453125" customWidth="1" style="24"/>
+    <col min="16" max="16" width="9.1796875" customWidth="1" style="22"/>
     <col min="17" max="17" width="59" customWidth="1" style="22"/>
-    <col min="18" max="24" width="9.140625" customWidth="1" style="22"/>
-    <col min="25" max="16384" width="9.140625" customWidth="1" style="22"/>
+    <col min="18" max="30" width="9.1796875" customWidth="1" style="22"/>
+    <col min="31" max="16384" width="9.1796875" customWidth="1" style="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="6" customFormat="1">
@@ -7362,7 +7374,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" ht="47.85" customHeight="1" s="6" customFormat="1">
+    <row r="2" ht="47.9" customHeight="1" s="6" customFormat="1">
       <c r="A2" s="79" t="s">
         <v>5</v>
       </c>
@@ -29262,7 +29274,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="455" ht="15.75">
+    <row r="455" ht="15.5">
       <c r="C455" s="28"/>
       <c r="G455" s="24"/>
       <c r="I455" s="23" t="s">
@@ -30764,13 +30776,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="488" ht="31.5">
-      <c r="A488" s="22">
-        <v>1</v>
-      </c>
-      <c r="B488" s="22" t="s">
-        <v>1926</v>
-      </c>
+    <row r="488" ht="31">
       <c r="C488" s="24">
         <v>45334</v>
       </c>
@@ -30789,8 +30795,20 @@
       <c r="H488" s="25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="489" ht="31.5">
+      <c r="I488" s="23" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J488" s="21" t="s">
+        <v>1931</v>
+      </c>
+      <c r="K488" s="22" t="s">
+        <v>1934</v>
+      </c>
+      <c r="M488" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="489" ht="31">
       <c r="A489" s="22">
         <v>1</v>
       </c>
@@ -30818,13 +30836,153 @@
       <c r="I489" s="23" t="s">
         <v>1803</v>
       </c>
-      <c r="J489" s="21" t="s">
+      <c r="M489" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="490" ht="15" customHeight="1">
+      <c r="A490" s="22">
+        <v>1</v>
+      </c>
+      <c r="B490" s="22" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C490" s="24">
+        <v>45335</v>
+      </c>
+      <c r="D490" s="22" t="s">
         <v>1931</v>
       </c>
-      <c r="K489" s="22" t="s">
+      <c r="E490" s="22">
+        <v>743506</v>
+      </c>
+      <c r="F490" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G490" s="24">
+        <v>45335</v>
+      </c>
+      <c r="H490" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I490" s="23" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J490" s="21" t="s">
+        <v>1931</v>
+      </c>
+      <c r="K490" s="22" t="s">
         <v>1932</v>
       </c>
-      <c r="M489" s="22" t="s">
+      <c r="M490" s="22" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="491" ht="15" customHeight="1">
+      <c r="A491" s="22">
+        <v>1</v>
+      </c>
+      <c r="B491" s="22" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C491" s="24">
+        <v>45336</v>
+      </c>
+      <c r="D491" s="22" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E491" s="22">
+        <v>743506</v>
+      </c>
+      <c r="F491" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G491" s="24">
+        <v>45335</v>
+      </c>
+      <c r="H491" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I491" s="23" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J491" s="21" t="s">
+        <v>1931</v>
+      </c>
+      <c r="K491" s="22" t="s">
+        <v>1935</v>
+      </c>
+      <c r="M491" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="492" ht="15" customHeight="1">
+      <c r="A492" s="22">
+        <v>1</v>
+      </c>
+      <c r="B492" s="22" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C492" s="24">
+        <v>45337</v>
+      </c>
+      <c r="D492" s="22" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E492" s="22">
+        <v>743506</v>
+      </c>
+      <c r="F492" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G492" s="24">
+        <v>45335</v>
+      </c>
+      <c r="H492" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I492" s="23" t="s">
+        <v>1803</v>
+      </c>
+      <c r="M492" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="493" ht="15" customHeight="1">
+      <c r="A493" s="22">
+        <v>1</v>
+      </c>
+      <c r="B493" s="22" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C493" s="24">
+        <v>45338</v>
+      </c>
+      <c r="D493" s="22" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E493" s="22">
+        <v>743506</v>
+      </c>
+      <c r="F493" s="22" t="s">
+        <v>1933</v>
+      </c>
+      <c r="G493" s="24">
+        <v>45335</v>
+      </c>
+      <c r="H493" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I493" s="23" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J493" s="21" t="s">
+        <v>1931</v>
+      </c>
+      <c r="K493" s="22" t="s">
+        <v>1936</v>
+      </c>
+      <c r="M493" s="22" t="s">
         <v>147</v>
       </c>
     </row>
@@ -30954,7 +31112,7 @@
       <selection sqref="A1:A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -30964,33 +31122,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="691f3940-da01-4610-8a13-7e6f036c2548" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dbb798-63e8-4411-94d7-398665c805e3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="691f3940-da01-4610-8a13-7e6f036c2548">
-      <UserInfo>
-        <DisplayName>Odunayo Olufemi</DisplayName>
-        <AccountId>340</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010035F00B5F6B81D145829BBB93F2043D07" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c024d4678e8ddd8c8a664f05a2d02ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74dbb798-63e8-4411-94d7-398665c805e3" xmlns:ns3="691f3940-da01-4610-8a13-7e6f036c2548" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee14520912c247aa9ad2f1820187504a" ns2:_="" ns3:_="">
     <xsd:import namespace="74dbb798-63e8-4411-94d7-398665c805e3"/>
@@ -31245,26 +31376,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD4AE5-A275-4710-96E6-3074C94F50BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="691f3940-da01-4610-8a13-7e6f036c2548"/>
-    <ds:schemaRef ds:uri="74dbb798-63e8-4411-94d7-398665c805e3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD201087-7430-4DBC-91FB-E5375E0F53E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="691f3940-da01-4610-8a13-7e6f036c2548" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dbb798-63e8-4411-94d7-398665c805e3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="691f3940-da01-4610-8a13-7e6f036c2548">
+      <UserInfo>
+        <DisplayName>Odunayo Olufemi</DisplayName>
+        <AccountId>340</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20E6ECBA-E825-4808-AC15-32F716C0C131}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31281,4 +31420,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD201087-7430-4DBC-91FB-E5375E0F53E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD4AE5-A275-4710-96E6-3074C94F50BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="691f3940-da01-4610-8a13-7e6f036c2548"/>
+    <ds:schemaRef ds:uri="74dbb798-63e8-4411-94d7-398665c805e3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LandRegistryProject/TestDatas/TittleNumer.xlsx
+++ b/LandRegistryProject/TestDatas/TittleNumer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HomesEnglandAutomation\Land_Registry\LandRegistryProject\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F530D575-4E51-41A4-8585-870EBED52637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13663D26-135E-4EA0-B14C-AF525E41C785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1300" windowWidth="22380" windowHeight="11270" xr2:uid="{400498CB-F334-4E68-B062-A427E2481F8E}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="22380" windowHeight="12290" xr2:uid="{400498CB-F334-4E68-B062-A427E2481F8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb 2024" sheetId="2" r:id="rId1"/>
@@ -5845,19 +5845,19 @@
     <t>31 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
   </si>
   <si>
-    <t>HD602384/C152MHT/221</t>
+    <t>HD602384/U872MHT/221</t>
+  </si>
+  <si>
+    <t>31 Wallace Green Way, Walkern, Stevenage SG2 7FB</t>
   </si>
   <si>
     <t>Zk</t>
   </si>
   <si>
-    <t>HD602384/S872MHT/221</t>
-  </si>
-  <si>
-    <t>HD602384/U872MHT/221</t>
-  </si>
-  <si>
-    <t>HD602384/V872MHT/221</t>
+    <t>HD602384/E763MHT/221</t>
+  </si>
+  <si>
+    <t>HD602384/F763MHT/221</t>
   </si>
 </sst>
 </file>
@@ -7319,7 +7319,7 @@
   <dimension ref="A1:R493"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D479" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D488" sqref="D488"/>
+      <selection activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7340,8 +7340,8 @@
     <col min="15" max="15" width="14.453125" customWidth="1" style="24"/>
     <col min="16" max="16" width="9.1796875" customWidth="1" style="22"/>
     <col min="17" max="17" width="59" customWidth="1" style="22"/>
-    <col min="18" max="30" width="9.1796875" customWidth="1" style="22"/>
-    <col min="31" max="16384" width="9.1796875" customWidth="1" style="22"/>
+    <col min="18" max="31" width="9.1796875" customWidth="1" style="22"/>
+    <col min="32" max="16384" width="9.1796875" customWidth="1" style="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="6" customFormat="1">
@@ -30802,7 +30802,7 @@
         <v>1931</v>
       </c>
       <c r="K488" s="22" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="M488" s="22" t="s">
         <v>147</v>
@@ -30910,7 +30910,7 @@
         <v>1931</v>
       </c>
       <c r="K491" s="22" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="M491" s="22" t="s">
         <v>147</v>
@@ -30959,13 +30959,13 @@
         <v>45338</v>
       </c>
       <c r="D493" s="22" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="E493" s="22">
         <v>743506</v>
       </c>
       <c r="F493" s="22" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="G493" s="24">
         <v>45335</v>
@@ -31122,6 +31122,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="691f3940-da01-4610-8a13-7e6f036c2548" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dbb798-63e8-4411-94d7-398665c805e3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="691f3940-da01-4610-8a13-7e6f036c2548">
+      <UserInfo>
+        <DisplayName>Odunayo Olufemi</DisplayName>
+        <AccountId>340</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010035F00B5F6B81D145829BBB93F2043D07" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c024d4678e8ddd8c8a664f05a2d02ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74dbb798-63e8-4411-94d7-398665c805e3" xmlns:ns3="691f3940-da01-4610-8a13-7e6f036c2548" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee14520912c247aa9ad2f1820187504a" ns2:_="" ns3:_="">
     <xsd:import namespace="74dbb798-63e8-4411-94d7-398665c805e3"/>
@@ -31376,34 +31403,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD4AE5-A275-4710-96E6-3074C94F50BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="691f3940-da01-4610-8a13-7e6f036c2548"/>
+    <ds:schemaRef ds:uri="74dbb798-63e8-4411-94d7-398665c805e3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="691f3940-da01-4610-8a13-7e6f036c2548" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dbb798-63e8-4411-94d7-398665c805e3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="691f3940-da01-4610-8a13-7e6f036c2548">
-      <UserInfo>
-        <DisplayName>Odunayo Olufemi</DisplayName>
-        <AccountId>340</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD201087-7430-4DBC-91FB-E5375E0F53E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20E6ECBA-E825-4808-AC15-32F716C0C131}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31420,23 +31439,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD201087-7430-4DBC-91FB-E5375E0F53E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD4AE5-A275-4710-96E6-3074C94F50BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="691f3940-da01-4610-8a13-7e6f036c2548"/>
-    <ds:schemaRef ds:uri="74dbb798-63e8-4411-94d7-398665c805e3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LandRegistryProject/TestDatas/TittleNumer.xlsx
+++ b/LandRegistryProject/TestDatas/TittleNumer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HomesEnglandAutomation\Land_Registry\LandRegistryProject\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13663D26-135E-4EA0-B14C-AF525E41C785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7087FD-203E-4CDD-B58B-E489DFB38751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1300" windowWidth="22380" windowHeight="12290" xr2:uid="{400498CB-F334-4E68-B062-A427E2481F8E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="1937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1938">
   <si>
     <t>Daily Download</t>
   </si>
@@ -5854,10 +5854,13 @@
     <t>Zk</t>
   </si>
   <si>
-    <t>HD602384/E763MHT/221</t>
-  </si>
-  <si>
-    <t>HD602384/F763MHT/221</t>
+    <t>HD602384/T277MHT/222</t>
+  </si>
+  <si>
+    <t>HD602384/U277MHT/222</t>
+  </si>
+  <si>
+    <t>HD602384/V277MHT/222</t>
   </si>
 </sst>
 </file>
@@ -6381,7 +6384,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C6F7EBCA-3A22-4E3B-8547-D009BB113DE5}"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="39">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6769,36 +6772,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff9c0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="ffffc7ce"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff9c5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="ffffeb9c"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="ff006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="ffc6efce"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7319,7 +7292,7 @@
   <dimension ref="A1:R493"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D479" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D493" sqref="D493"/>
+      <selection activeCell="K494" sqref="K494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7340,8 +7313,8 @@
     <col min="15" max="15" width="14.453125" customWidth="1" style="24"/>
     <col min="16" max="16" width="9.1796875" customWidth="1" style="22"/>
     <col min="17" max="17" width="59" customWidth="1" style="22"/>
-    <col min="18" max="31" width="9.1796875" customWidth="1" style="22"/>
-    <col min="32" max="16384" width="9.1796875" customWidth="1" style="22"/>
+    <col min="18" max="32" width="9.1796875" customWidth="1" style="22"/>
+    <col min="33" max="16384" width="9.1796875" customWidth="1" style="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="6" customFormat="1">
@@ -30836,6 +30809,12 @@
       <c r="I489" s="23" t="s">
         <v>1803</v>
       </c>
+      <c r="J489" s="21" t="s">
+        <v>1931</v>
+      </c>
+      <c r="K489" s="22" t="s">
+        <v>1936</v>
+      </c>
       <c r="M489" s="22" t="s">
         <v>147</v>
       </c>
@@ -30871,9 +30850,6 @@
       <c r="J490" s="21" t="s">
         <v>1931</v>
       </c>
-      <c r="K490" s="22" t="s">
-        <v>1932</v>
-      </c>
       <c r="M490" s="22" t="s">
         <v>1452</v>
       </c>
@@ -30980,7 +30956,7 @@
         <v>1931</v>
       </c>
       <c r="K493" s="22" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="M493" s="22" t="s">
         <v>147</v>
@@ -30997,97 +30973,97 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="39" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D28 D30:D32 D34:D159">
-    <cfRule type="duplicateValues" dxfId="39" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375 D165:D206 D211 D213:D298 D343:D344 D377:D486 D488:D1048576">
-    <cfRule type="duplicateValues" dxfId="39" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E160">
-    <cfRule type="duplicateValues" dxfId="39" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165:E298 E1:E3 E343:E344 E375:E1048576">
-    <cfRule type="duplicateValues" dxfId="39" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="39" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:I3">
-    <cfRule type="duplicateValues" dxfId="39" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3 A2:C2">
-    <cfRule type="duplicateValues" dxfId="39" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="39" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="39" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I173">
-    <cfRule type="duplicateValues" dxfId="39" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="39" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="39" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81">
-    <cfRule type="duplicateValues" dxfId="39" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="duplicateValues" dxfId="39" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J202">
-    <cfRule type="duplicateValues" dxfId="39" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J203">
-    <cfRule type="duplicateValues" dxfId="39" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J204">
-    <cfRule type="duplicateValues" dxfId="39" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J205">
-    <cfRule type="duplicateValues" dxfId="39" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J206">
-    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78:K78">
-    <cfRule type="duplicateValues" dxfId="39" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K160">
-    <cfRule type="duplicateValues" dxfId="39" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="duplicateValues" dxfId="39" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="containsText" dxfId="40" priority="83" operator="containsText" text="incorrect">
+    <cfRule type="containsText" dxfId="1" priority="83" operator="containsText" text="incorrect">
       <formula>NOT(ISERROR(SEARCH("incorrect",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="84" operator="containsText" text="present">
+    <cfRule type="containsText" dxfId="0" priority="84" operator="containsText" text="present">
       <formula>NOT(ISERROR(SEARCH("present",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31122,33 +31098,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="691f3940-da01-4610-8a13-7e6f036c2548" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dbb798-63e8-4411-94d7-398665c805e3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="691f3940-da01-4610-8a13-7e6f036c2548">
-      <UserInfo>
-        <DisplayName>Odunayo Olufemi</DisplayName>
-        <AccountId>340</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010035F00B5F6B81D145829BBB93F2043D07" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c024d4678e8ddd8c8a664f05a2d02ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74dbb798-63e8-4411-94d7-398665c805e3" xmlns:ns3="691f3940-da01-4610-8a13-7e6f036c2548" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee14520912c247aa9ad2f1820187504a" ns2:_="" ns3:_="">
     <xsd:import namespace="74dbb798-63e8-4411-94d7-398665c805e3"/>
@@ -31403,26 +31352,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD4AE5-A275-4710-96E6-3074C94F50BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="691f3940-da01-4610-8a13-7e6f036c2548"/>
-    <ds:schemaRef ds:uri="74dbb798-63e8-4411-94d7-398665c805e3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD201087-7430-4DBC-91FB-E5375E0F53E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="691f3940-da01-4610-8a13-7e6f036c2548" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dbb798-63e8-4411-94d7-398665c805e3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="691f3940-da01-4610-8a13-7e6f036c2548">
+      <UserInfo>
+        <DisplayName>Odunayo Olufemi</DisplayName>
+        <AccountId>340</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20E6ECBA-E825-4808-AC15-32F716C0C131}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31439,4 +31396,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD201087-7430-4DBC-91FB-E5375E0F53E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD4AE5-A275-4710-96E6-3074C94F50BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="691f3940-da01-4610-8a13-7e6f036c2548"/>
+    <ds:schemaRef ds:uri="74dbb798-63e8-4411-94d7-398665c805e3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LandRegistryProject/TestDatas/TittleNumer.xlsx
+++ b/LandRegistryProject/TestDatas/TittleNumer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HomesEnglandAutomation\Land_Registry\LandRegistryProject\TestDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amos.Awaghade\source\repos\LandRegistryBulk-Discharge-Automation\LandRegistryProject\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7087FD-203E-4CDD-B58B-E489DFB38751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB16F74D-4940-4443-AED2-B4D94FA19F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1300" windowWidth="22380" windowHeight="12290" xr2:uid="{400498CB-F334-4E68-B062-A427E2481F8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{400498CB-F334-4E68-B062-A427E2481F8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feb 2024" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="Text1">'Feb 2024'!#REF!</definedName>
     <definedName name="Title_No">'Feb 2024'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5030" uniqueCount="1939">
   <si>
     <t>Daily Download</t>
   </si>
@@ -119,7 +119,7 @@
     <t>date submitted to LR</t>
   </si>
   <si>
-    <t xml:space="preserve">Date BB Task Closed by MAT  (Submitted/Referred)</t>
+    <t>Date BB Task Closed by MAT  (Submitted/Referred)</t>
   </si>
   <si>
     <t>Team Member 3</t>
@@ -311,7 +311,7 @@
     <t>ST357691/Y695CHT/210</t>
   </si>
   <si>
-    <t xml:space="preserve">Flat 25, Medway House, 7 Kidwells Close, Maidenhead
+    <t>Flat 25, Medway House, 7 Kidwells Close, Maidenhead
 SL6 8FZ_x000D_</t>
   </si>
   <si>
@@ -441,7 +441,7 @@
     <t>ND192410/C869CHT/211</t>
   </si>
   <si>
-    <t xml:space="preserve">Flat 5 Windsor Court, Corner Hall, Hemel Hempstead,
+    <t>Flat 5 Windsor Court, Corner Hall, Hemel Hempstead,
 Hertfordshire, HP3 9AW _x000D_</t>
   </si>
   <si>
@@ -496,7 +496,7 @@
     <t>33 Perrins Way Bevere WR3 7WB</t>
   </si>
   <si>
-    <t xml:space="preserve">WR193577_x000D_</t>
+    <t>WR193577_x000D_</t>
   </si>
   <si>
     <t>33 Perrins Way, Bevere, Worcester (WR3 7WB)</t>
@@ -520,7 +520,7 @@
     <t>19 The Foundry Dacorum Way Hemel Hempstead HP1 1BF</t>
   </si>
   <si>
-    <t xml:space="preserve">HD605954_x000D_</t>
+    <t>HD605954_x000D_</t>
   </si>
   <si>
     <t>19, The Foundry, Dacorum Way, Hemel Hempstead (HP1 1BF)</t>
@@ -532,7 +532,7 @@
     <t>27 Magdalene Close South Marston Swindon SN3 4FR</t>
   </si>
   <si>
-    <t xml:space="preserve">WT459858_x000D_</t>
+    <t>WT459858_x000D_</t>
   </si>
   <si>
     <t>27 Magdalene Close, South Marston, Swindon (SN3 4FR)</t>
@@ -625,7 +625,7 @@
     <t>27 Lime Kiln Coppice Felpham PO22 8FZ</t>
   </si>
   <si>
-    <t xml:space="preserve">WSX393009_x000D_</t>
+    <t>WSX393009_x000D_</t>
   </si>
   <si>
     <t>27 Lime Kiln Coppice, Felpham, Bognor Regis (PO22 8FZ)</t>
@@ -649,7 +649,7 @@
     <t>23 Potters Way Swadlincote DE12 7BU</t>
   </si>
   <si>
-    <t xml:space="preserve">LT503191_x000D_</t>
+    <t>LT503191_x000D_</t>
   </si>
   <si>
     <t xml:space="preserve"> 23 Potters Way, Measham, Swadlincote (DE12 7BU)</t>
@@ -709,7 +709,7 @@
     <t>68 Garratt Way Doncaster DN8 5EW</t>
   </si>
   <si>
-    <t xml:space="preserve">SYK667409_x000D_</t>
+    <t>SYK667409_x000D_</t>
   </si>
   <si>
     <t>4 Poole Place, Sheffield (S9 4JR)</t>
@@ -754,7 +754,7 @@
     <t>4 Flat 403 Iverson Point Harrison Walk Royal Greenwich SE10 0YN</t>
   </si>
   <si>
-    <t xml:space="preserve">TGL531852_x000D_</t>
+    <t>TGL531852_x000D_</t>
   </si>
   <si>
     <t>Flat 403, Iverson Point, 4 Harrison Walk, London (SE10 0YN)</t>
@@ -790,7 +790,7 @@
     <t>18 Cubitt Street Aylesbury Buckinghamshire HP19 8FT</t>
   </si>
   <si>
-    <t xml:space="preserve">BM414228_x000D_</t>
+    <t>BM414228_x000D_</t>
   </si>
   <si>
     <t>18 Cubitt Street, Aylesbury (HP19 8FT)</t>
@@ -802,7 +802,7 @@
     <t>95 Goodwood Drive Wolverhampton WV10 6GH</t>
   </si>
   <si>
-    <t xml:space="preserve">MM102481_x000D_</t>
+    <t>MM102481_x000D_</t>
   </si>
   <si>
     <t>95 Goodwood Drive, Wolverhampton (WV10 6GH)</t>
@@ -814,7 +814,7 @@
     <t>1 Grangewick Road Essex RM16 2DW Grays</t>
   </si>
   <si>
-    <t xml:space="preserve">EX935476 _x000D_</t>
+    <t>EX935476 _x000D_</t>
   </si>
   <si>
     <t>1 Grangewick Road, Grays (RM16 2DW)</t>
@@ -838,7 +838,7 @@
     <t>4 Anvil Court HD3 3GN Lindley</t>
   </si>
   <si>
-    <t xml:space="preserve">YY83962_x000D_</t>
+    <t>YY83962_x000D_</t>
   </si>
   <si>
     <t>4 Anvil Court, Lindley, Huddersfield (HD3 3GN)</t>
@@ -847,7 +847,7 @@
     <t>YY83962/I731DHT/211</t>
   </si>
   <si>
-    <t xml:space="preserve">Flat 20 Levett House  Holman Drive Southall UB2 4FT</t>
+    <t>Flat 20 Levett House  Holman Drive Southall UB2 4FT</t>
   </si>
   <si>
     <t>AGL433563</t>
@@ -958,7 +958,7 @@
     <t>35 Uplands Gardens Charminster BH8 9SU</t>
   </si>
   <si>
-    <t xml:space="preserve">DT445066_x000D_</t>
+    <t>DT445066_x000D_</t>
   </si>
   <si>
     <t>35 Uplands Gardens, Bournemouth (BH8 9SU)</t>
@@ -1045,7 +1045,7 @@
     <t>71 Boundary Close Kingswood GL12 8EN</t>
   </si>
   <si>
-    <t xml:space="preserve">GR435957 _x000D_</t>
+    <t>GR435957 _x000D_</t>
   </si>
   <si>
     <t>71 Boundary Close, Kingswood, Wotton-Under-Edge (GL12 8EN)</t>
@@ -3499,7 +3499,7 @@
     <t>21 Priory Park View, Barnsley (S71 5FW)</t>
   </si>
   <si>
-    <t xml:space="preserve">Flat 24, Plamer Court, 34 Charcot Road, London and parking
+    <t>Flat 24, Plamer Court, 34 Charcot Road, London and parking
 space NW9 5US_x000D_</t>
   </si>
   <si>
@@ -3521,7 +3521,7 @@
     <t>MAN257783/U103GHT/214</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Wheatsheaf Close North Waltham Basingstoke Hampshire
+    <t>1 Wheatsheaf Close North Waltham Basingstoke Hampshire
 RG25 2FH_x000D_</t>
   </si>
   <si>
@@ -3546,7 +3546,7 @@
     <t>TGL515689/T503GHT/214</t>
   </si>
   <si>
-    <t xml:space="preserve">33 Piebridge Way, Leeds,  LS12 6ES</t>
+    <t>33 Piebridge Way, Leeds,  LS12 6ES</t>
   </si>
   <si>
     <t>YY102120</t>
@@ -3579,7 +3579,7 @@
     <t xml:space="preserve"> WSX400336/P033GHT/214</t>
   </si>
   <si>
-    <t xml:space="preserve">24 Beauchamp Avenue, Midsomer Norton, Radstock,  BA3 4FX</t>
+    <t>24 Beauchamp Avenue, Midsomer Norton, Radstock,  BA3 4FX</t>
   </si>
   <si>
     <t>ST348002</t>
@@ -3591,7 +3591,7 @@
     <t>ST348002/G333GHT/214</t>
   </si>
   <si>
-    <t xml:space="preserve">Flat 3 4 Cicero Crescent, Fairfields, Milton Keynes,
+    <t>Flat 3 4 Cicero Crescent, Fairfields, Milton Keynes,
 Buckinghamshire, MK11 4AU_x000D_</t>
   </si>
   <si>
@@ -3631,7 +3631,7 @@
     <t>HD582998/D496GHT/215</t>
   </si>
   <si>
-    <t xml:space="preserve">Blossom Cottage Main Street  Melbourne York YO42 4QE</t>
+    <t>Blossom Cottage Main Street  Melbourne York YO42 4QE</t>
   </si>
   <si>
     <t>YEA88973</t>
@@ -3670,7 +3670,7 @@
     <t>14 John Sills Road Wednesfield Wolverhampton WV11 3EB</t>
   </si>
   <si>
-    <t xml:space="preserve">MM160391_x000D_</t>
+    <t>MM160391_x000D_</t>
   </si>
   <si>
     <t>14 John Sills Road, Wolverhampton (WV11 3EB)</t>
@@ -3682,7 +3682,7 @@
     <t>17 Rowan Road Leicestershire LE3 8FZ Leicester</t>
   </si>
   <si>
-    <t xml:space="preserve">LT477200_x000D_</t>
+    <t>LT477200_x000D_</t>
   </si>
   <si>
     <t>17 Rowan Road, Glenfield, Leicester (LE3 8FZ)</t>
@@ -3706,7 +3706,7 @@
     <t>6 Loom Close Manchester M24 6EZ Middleton</t>
   </si>
   <si>
-    <t xml:space="preserve">MAN352153_x000D_</t>
+    <t>MAN352153_x000D_</t>
   </si>
   <si>
     <t>6 Loom Close, Middleton, Manchester (M24 6EZ)</t>
@@ -3766,7 +3766,7 @@
     <t>6 Ariel Lane Brackley NN13 6FR</t>
   </si>
   <si>
-    <t xml:space="preserve">NN359262_x000D_</t>
+    <t>NN359262_x000D_</t>
   </si>
   <si>
     <t>6 Ariel Lane, Brackley (NN13 6FR)</t>
@@ -3778,7 +3778,7 @@
     <t>11 Buccas Way Callington PL17 7FN</t>
   </si>
   <si>
-    <t xml:space="preserve">CL364342_x000D_</t>
+    <t>CL364342_x000D_</t>
   </si>
   <si>
     <t>11 Buccas Way, Callington (PL17 7FN)</t>
@@ -3802,7 +3802,7 @@
     <t>5 Butchers Way Off Hands Road Heanor DE75 7WQ</t>
   </si>
   <si>
-    <t xml:space="preserve">DY528009_x000D_</t>
+    <t>DY528009_x000D_</t>
   </si>
   <si>
     <t>5 Butchers Way, Hands Road, Heanor (DE75 7WQ)</t>
@@ -3838,7 +3838,7 @@
     <t>8 Fortuna Road Blunsdon SN26 7AT</t>
   </si>
   <si>
-    <t xml:space="preserve">WT443094_x000D_</t>
+    <t>WT443094_x000D_</t>
   </si>
   <si>
     <t>8 Fortuna Road, Blunsdon, Swindon (SN26 7AT)</t>
@@ -5842,33 +5842,35 @@
     <t>WT464447/R527JHT/218</t>
   </si>
   <si>
+    <t>31 Wallace Green Way,  Stevenage (SG2 7FB)</t>
+  </si>
+  <si>
+    <t>31 Wallace Green Way, Walkern, Stevenage (SG2 7FA)</t>
+  </si>
+  <si>
     <t>31 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
   </si>
   <si>
-    <t>HD602384/U872MHT/221</t>
-  </si>
-  <si>
-    <t>31 Wallace Green Way, Walkern, Stevenage SG2 7FB</t>
-  </si>
-  <si>
     <t>Zk</t>
   </si>
   <si>
-    <t>HD602384/T277MHT/222</t>
-  </si>
-  <si>
-    <t>HD602384/U277MHT/222</t>
-  </si>
-  <si>
-    <t>HD602384/V277MHT/222</t>
+    <t>HD602384, 31 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
+  </si>
+  <si>
+    <t>HD602384/I821RHT/227</t>
+  </si>
+  <si>
+    <t>HD602384/K821RHT/227</t>
+  </si>
+  <si>
+    <t>HD602384/M821RHT/227</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6178,205 +6180,205 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="7" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="7" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="8" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="8" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="9" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="8" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="5" applyFont="1" fillId="9" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="5" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="5" applyFont="1" fillId="8" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="7" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="9" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="13" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="10" applyFill="1" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="7" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6800,8 +6802,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3037</xdr:row>
-      <xdr:rowOff>35221</xdr:rowOff>
+      <xdr:row>3041</xdr:row>
+      <xdr:rowOff>80044</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6898,8 +6900,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>3038</xdr:row>
-      <xdr:rowOff>153131</xdr:rowOff>
+      <xdr:row>3043</xdr:row>
+      <xdr:rowOff>7454</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6993,9 +6995,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7033,7 +7035,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7139,7 +7141,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7281,7 +7283,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7291,33 +7293,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8018EBFC-BBDD-47D5-8A8F-DFE2D059D3E8}">
   <dimension ref="A1:R493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D479" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K494" sqref="K494"/>
+    <sheetView tabSelected="1" topLeftCell="A437" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J470" sqref="J470"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" customWidth="1" style="22"/>
-    <col min="3" max="3" width="13.453125" customWidth="1" style="24"/>
-    <col min="4" max="4" width="44.26953125" customWidth="1" style="22"/>
-    <col min="5" max="5" width="11" customWidth="1" style="22"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1" style="22"/>
-    <col min="7" max="7" bestFit="1" width="15.1796875" customWidth="1" style="22"/>
-    <col min="8" max="8" width="6.1796875" customWidth="1" style="25"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1" style="23"/>
-    <col min="10" max="10" bestFit="1" width="52.7265625" customWidth="1" style="21"/>
-    <col min="11" max="11" width="29" customWidth="1" style="22"/>
-    <col min="12" max="12" width="9.54296875" customWidth="1" style="22"/>
-    <col min="13" max="13" width="26.453125" customWidth="1" style="22"/>
-    <col min="14" max="14" width="14.7265625" customWidth="1" style="24"/>
-    <col min="15" max="15" width="14.453125" customWidth="1" style="24"/>
-    <col min="16" max="16" width="9.1796875" customWidth="1" style="22"/>
-    <col min="17" max="17" width="59" customWidth="1" style="22"/>
-    <col min="18" max="32" width="9.1796875" customWidth="1" style="22"/>
-    <col min="33" max="16384" width="9.1796875" customWidth="1" style="22"/>
+    <col min="1" max="2" width="9.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11" style="22" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="52.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" style="22" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="22" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" style="22" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="24" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="22" customWidth="1"/>
+    <col min="17" max="17" width="59" style="22" customWidth="1"/>
+    <col min="18" max="40" width="9.140625" style="22" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="6" customFormat="1">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
@@ -7347,7 +7349,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" ht="47.9" customHeight="1" s="6" customFormat="1">
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>5</v>
       </c>
@@ -7379,7 +7381,7 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" ht="67.5" customHeight="1">
+    <row r="3" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -7433,7 +7435,7 @@
       </c>
       <c r="R3" s="21"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
@@ -7487,7 +7489,7 @@
       </c>
       <c r="R4" s="21"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>28</v>
       </c>
@@ -7538,7 +7540,7 @@
       </c>
       <c r="R5" s="21"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -7589,7 +7591,7 @@
       </c>
       <c r="R6" s="21"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>43</v>
       </c>
@@ -7640,7 +7642,7 @@
       </c>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>43</v>
       </c>
@@ -7691,7 +7693,7 @@
       </c>
       <c r="R8" s="21"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>43</v>
       </c>
@@ -7739,7 +7741,7 @@
       </c>
       <c r="R9" s="21"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>43</v>
       </c>
@@ -7790,7 +7792,7 @@
       </c>
       <c r="R10" s="21"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>43</v>
       </c>
@@ -7841,7 +7843,7 @@
       </c>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>43</v>
       </c>
@@ -7892,7 +7894,7 @@
       </c>
       <c r="R12" s="21"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>43</v>
       </c>
@@ -7943,7 +7945,7 @@
       </c>
       <c r="R13" s="21"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>43</v>
       </c>
@@ -7994,7 +7996,7 @@
       </c>
       <c r="R14" s="21"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>43</v>
       </c>
@@ -8045,7 +8047,7 @@
       </c>
       <c r="R15" s="21"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>43</v>
       </c>
@@ -8096,7 +8098,7 @@
       </c>
       <c r="R16" s="21"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>43</v>
       </c>
@@ -8147,7 +8149,7 @@
       </c>
       <c r="R17" s="21"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>43</v>
       </c>
@@ -8198,7 +8200,7 @@
       </c>
       <c r="R18" s="21"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>43</v>
       </c>
@@ -8249,7 +8251,7 @@
       </c>
       <c r="R19" s="21"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
@@ -8300,7 +8302,7 @@
       </c>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>43</v>
       </c>
@@ -8351,7 +8353,7 @@
       </c>
       <c r="R21" s="21"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>43</v>
       </c>
@@ -8402,7 +8404,7 @@
       </c>
       <c r="R22" s="21"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>43</v>
       </c>
@@ -8453,7 +8455,7 @@
       </c>
       <c r="R23" s="21"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>43</v>
       </c>
@@ -8504,7 +8506,7 @@
       </c>
       <c r="R24" s="21"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>43</v>
       </c>
@@ -8555,7 +8557,7 @@
       </c>
       <c r="R25" s="21"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>43</v>
       </c>
@@ -8606,7 +8608,7 @@
       </c>
       <c r="R26" s="21"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>43</v>
       </c>
@@ -8657,7 +8659,7 @@
       </c>
       <c r="R27" s="21"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>43</v>
       </c>
@@ -8708,7 +8710,7 @@
       </c>
       <c r="R28" s="21"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>43</v>
       </c>
@@ -8759,7 +8761,7 @@
       </c>
       <c r="R29" s="21"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>43</v>
       </c>
@@ -8810,7 +8812,7 @@
       </c>
       <c r="R30" s="21"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>43</v>
       </c>
@@ -8861,7 +8863,7 @@
       </c>
       <c r="R31" s="21"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>43</v>
       </c>
@@ -8912,7 +8914,7 @@
       </c>
       <c r="R32" s="21"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>43</v>
       </c>
@@ -8966,7 +8968,7 @@
       </c>
       <c r="R33" s="21"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>43</v>
       </c>
@@ -9017,7 +9019,7 @@
       </c>
       <c r="R34" s="21"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>43</v>
       </c>
@@ -9068,7 +9070,7 @@
       </c>
       <c r="R35" s="21"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>43</v>
       </c>
@@ -9119,7 +9121,7 @@
       </c>
       <c r="R36" s="21"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>43</v>
       </c>
@@ -9170,7 +9172,7 @@
       </c>
       <c r="R37" s="21"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>43</v>
       </c>
@@ -9221,7 +9223,7 @@
       </c>
       <c r="R38" s="21"/>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>43</v>
       </c>
@@ -9272,7 +9274,7 @@
       </c>
       <c r="R39" s="21"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>43</v>
       </c>
@@ -9323,7 +9325,7 @@
       </c>
       <c r="R40" s="21"/>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>43</v>
       </c>
@@ -9374,7 +9376,7 @@
       </c>
       <c r="R41" s="21"/>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>43</v>
       </c>
@@ -9425,7 +9427,7 @@
       </c>
       <c r="R42" s="21"/>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>43</v>
       </c>
@@ -9476,7 +9478,7 @@
       </c>
       <c r="R43" s="21"/>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>43</v>
       </c>
@@ -9527,7 +9529,7 @@
       </c>
       <c r="R44" s="21"/>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>43</v>
       </c>
@@ -9578,7 +9580,7 @@
       </c>
       <c r="R45" s="21"/>
     </row>
-    <row r="46" ht="15" customHeight="1">
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>43</v>
       </c>
@@ -9629,7 +9631,7 @@
       </c>
       <c r="R46" s="21"/>
     </row>
-    <row r="47" ht="15" customHeight="1">
+    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>43</v>
       </c>
@@ -9680,7 +9682,7 @@
       </c>
       <c r="R47" s="21"/>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>43</v>
       </c>
@@ -9731,7 +9733,7 @@
       </c>
       <c r="R48" s="21"/>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>43</v>
       </c>
@@ -9782,7 +9784,7 @@
       </c>
       <c r="R49" s="21"/>
     </row>
-    <row r="50" ht="15" customHeight="1">
+    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>43</v>
       </c>
@@ -9833,7 +9835,7 @@
       </c>
       <c r="R50" s="21"/>
     </row>
-    <row r="51" ht="15" customHeight="1">
+    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>43</v>
       </c>
@@ -9884,7 +9886,7 @@
       </c>
       <c r="R51" s="21"/>
     </row>
-    <row r="52" ht="15" customHeight="1">
+    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>43</v>
       </c>
@@ -9935,7 +9937,7 @@
       </c>
       <c r="R52" s="21"/>
     </row>
-    <row r="53" ht="15" customHeight="1">
+    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>43</v>
       </c>
@@ -9986,7 +9988,7 @@
       </c>
       <c r="R53" s="21"/>
     </row>
-    <row r="54" ht="15" customHeight="1">
+    <row r="54" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>43</v>
       </c>
@@ -10037,7 +10039,7 @@
       </c>
       <c r="R54" s="21"/>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>43</v>
       </c>
@@ -10088,7 +10090,7 @@
       </c>
       <c r="R55" s="21"/>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>43</v>
       </c>
@@ -10139,7 +10141,7 @@
       </c>
       <c r="R56" s="21"/>
     </row>
-    <row r="57" ht="15" customHeight="1">
+    <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>43</v>
       </c>
@@ -10190,7 +10192,7 @@
       </c>
       <c r="R57" s="21"/>
     </row>
-    <row r="58" ht="15" customHeight="1">
+    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>43</v>
       </c>
@@ -10241,7 +10243,7 @@
       </c>
       <c r="R58" s="21"/>
     </row>
-    <row r="59" ht="15" customHeight="1">
+    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>43</v>
       </c>
@@ -10292,7 +10294,7 @@
       </c>
       <c r="R59" s="21"/>
     </row>
-    <row r="60" ht="15" customHeight="1">
+    <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>43</v>
       </c>
@@ -10343,7 +10345,7 @@
       </c>
       <c r="R60" s="21"/>
     </row>
-    <row r="61" ht="15" customHeight="1">
+    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>43</v>
       </c>
@@ -10394,7 +10396,7 @@
       </c>
       <c r="R61" s="21"/>
     </row>
-    <row r="62" ht="15" customHeight="1">
+    <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>43</v>
       </c>
@@ -10445,7 +10447,7 @@
       </c>
       <c r="R62" s="21"/>
     </row>
-    <row r="63" ht="15" customHeight="1">
+    <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>43</v>
       </c>
@@ -10496,7 +10498,7 @@
       </c>
       <c r="R63" s="21"/>
     </row>
-    <row r="64" ht="15" customHeight="1">
+    <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>43</v>
       </c>
@@ -10547,7 +10549,7 @@
       </c>
       <c r="R64" s="21"/>
     </row>
-    <row r="65" ht="15" customHeight="1">
+    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>43</v>
       </c>
@@ -10598,7 +10600,7 @@
       </c>
       <c r="R65" s="21"/>
     </row>
-    <row r="66" ht="15" customHeight="1">
+    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>43</v>
       </c>
@@ -10649,7 +10651,7 @@
       </c>
       <c r="R66" s="21"/>
     </row>
-    <row r="67" ht="15" customHeight="1">
+    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>43</v>
       </c>
@@ -10700,7 +10702,7 @@
       </c>
       <c r="R67" s="21"/>
     </row>
-    <row r="68" ht="15" customHeight="1">
+    <row r="68" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>43</v>
       </c>
@@ -10742,7 +10744,7 @@
       </c>
       <c r="R68" s="21"/>
     </row>
-    <row r="69" ht="15" customHeight="1">
+    <row r="69" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>43</v>
       </c>
@@ -10793,7 +10795,7 @@
       </c>
       <c r="R69" s="21"/>
     </row>
-    <row r="70" ht="15" customHeight="1">
+    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>43</v>
       </c>
@@ -10844,7 +10846,7 @@
       </c>
       <c r="R70" s="21"/>
     </row>
-    <row r="71" ht="15" customHeight="1">
+    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>43</v>
       </c>
@@ -10895,7 +10897,7 @@
       </c>
       <c r="R71" s="21"/>
     </row>
-    <row r="72" ht="15" customHeight="1">
+    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>43</v>
       </c>
@@ -10946,7 +10948,7 @@
       </c>
       <c r="R72" s="21"/>
     </row>
-    <row r="73" ht="15" customHeight="1">
+    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>43</v>
       </c>
@@ -10997,7 +10999,7 @@
       </c>
       <c r="R73" s="21"/>
     </row>
-    <row r="74" ht="15" customHeight="1">
+    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>43</v>
       </c>
@@ -11048,7 +11050,7 @@
       </c>
       <c r="R74" s="21"/>
     </row>
-    <row r="75" ht="15" customHeight="1">
+    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>43</v>
       </c>
@@ -11099,7 +11101,7 @@
       </c>
       <c r="R75" s="21"/>
     </row>
-    <row r="76" ht="15" customHeight="1">
+    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>43</v>
       </c>
@@ -11150,7 +11152,7 @@
       </c>
       <c r="R76" s="21"/>
     </row>
-    <row r="77" ht="15" customHeight="1">
+    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>43</v>
       </c>
@@ -11201,7 +11203,7 @@
       </c>
       <c r="R77" s="21"/>
     </row>
-    <row r="78" ht="15" customHeight="1">
+    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>43</v>
       </c>
@@ -11255,7 +11257,7 @@
       </c>
       <c r="R78" s="21"/>
     </row>
-    <row r="79" ht="15" customHeight="1">
+    <row r="79" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>43</v>
       </c>
@@ -11306,7 +11308,7 @@
       </c>
       <c r="R79" s="21"/>
     </row>
-    <row r="80" ht="15" customHeight="1">
+    <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>43</v>
       </c>
@@ -11357,7 +11359,7 @@
       </c>
       <c r="R80" s="21"/>
     </row>
-    <row r="81" ht="15" customHeight="1">
+    <row r="81" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>43</v>
       </c>
@@ -11411,7 +11413,7 @@
       </c>
       <c r="R81" s="21"/>
     </row>
-    <row r="82" ht="15" customHeight="1">
+    <row r="82" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>43</v>
       </c>
@@ -11465,7 +11467,7 @@
       </c>
       <c r="R82" s="21"/>
     </row>
-    <row r="83" ht="15" customHeight="1">
+    <row r="83" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>43</v>
       </c>
@@ -11516,7 +11518,7 @@
       </c>
       <c r="R83" s="21"/>
     </row>
-    <row r="84" ht="15" customHeight="1">
+    <row r="84" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>43</v>
       </c>
@@ -11567,7 +11569,7 @@
       </c>
       <c r="R84" s="21"/>
     </row>
-    <row r="85" ht="15" customHeight="1">
+    <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>43</v>
       </c>
@@ -11618,7 +11620,7 @@
       </c>
       <c r="R85" s="21"/>
     </row>
-    <row r="86" ht="15" customHeight="1">
+    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>43</v>
       </c>
@@ -11669,7 +11671,7 @@
       </c>
       <c r="R86" s="21"/>
     </row>
-    <row r="87" ht="15" customHeight="1">
+    <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>43</v>
       </c>
@@ -11720,7 +11722,7 @@
       </c>
       <c r="R87" s="21"/>
     </row>
-    <row r="88" ht="15" customHeight="1">
+    <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>43</v>
       </c>
@@ -11771,7 +11773,7 @@
       </c>
       <c r="R88" s="21"/>
     </row>
-    <row r="89" ht="15" customHeight="1">
+    <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>43</v>
       </c>
@@ -11822,7 +11824,7 @@
       </c>
       <c r="R89" s="21"/>
     </row>
-    <row r="90" ht="15" customHeight="1">
+    <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>43</v>
       </c>
@@ -11873,7 +11875,7 @@
       </c>
       <c r="R90" s="21"/>
     </row>
-    <row r="91" ht="15" customHeight="1">
+    <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>43</v>
       </c>
@@ -11924,7 +11926,7 @@
       </c>
       <c r="R91" s="21"/>
     </row>
-    <row r="92" ht="15" customHeight="1">
+    <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>43</v>
       </c>
@@ -11975,7 +11977,7 @@
       </c>
       <c r="R92" s="21"/>
     </row>
-    <row r="93" ht="15" customHeight="1">
+    <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>43</v>
       </c>
@@ -12026,7 +12028,7 @@
       </c>
       <c r="R93" s="21"/>
     </row>
-    <row r="94" ht="15" customHeight="1">
+    <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>43</v>
       </c>
@@ -12074,7 +12076,7 @@
       </c>
       <c r="R94" s="21"/>
     </row>
-    <row r="95" ht="15" customHeight="1">
+    <row r="95" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>43</v>
       </c>
@@ -12125,7 +12127,7 @@
       </c>
       <c r="R95" s="21"/>
     </row>
-    <row r="96" ht="15" customHeight="1">
+    <row r="96" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>43</v>
       </c>
@@ -12176,7 +12178,7 @@
       </c>
       <c r="R96" s="21"/>
     </row>
-    <row r="97" ht="15" customHeight="1">
+    <row r="97" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>43</v>
       </c>
@@ -12227,7 +12229,7 @@
       </c>
       <c r="R97" s="21"/>
     </row>
-    <row r="98" ht="15" customHeight="1">
+    <row r="98" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>43</v>
       </c>
@@ -12278,7 +12280,7 @@
       </c>
       <c r="R98" s="21"/>
     </row>
-    <row r="99" ht="15" customHeight="1">
+    <row r="99" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>43</v>
       </c>
@@ -12329,7 +12331,7 @@
       </c>
       <c r="R99" s="21"/>
     </row>
-    <row r="100" ht="15" customHeight="1">
+    <row r="100" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
         <v>43</v>
       </c>
@@ -12380,7 +12382,7 @@
       </c>
       <c r="R100" s="21"/>
     </row>
-    <row r="101" ht="15" customHeight="1">
+    <row r="101" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
         <v>43</v>
       </c>
@@ -12431,7 +12433,7 @@
       </c>
       <c r="R101" s="21"/>
     </row>
-    <row r="102" ht="15" customHeight="1">
+    <row r="102" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>43</v>
       </c>
@@ -12482,7 +12484,7 @@
       </c>
       <c r="R102" s="21"/>
     </row>
-    <row r="103" ht="15" customHeight="1">
+    <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
         <v>43</v>
       </c>
@@ -12533,7 +12535,7 @@
       </c>
       <c r="R103" s="21"/>
     </row>
-    <row r="104" ht="15" customHeight="1">
+    <row r="104" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>43</v>
       </c>
@@ -12584,7 +12586,7 @@
       </c>
       <c r="R104" s="21"/>
     </row>
-    <row r="105" ht="15" customHeight="1">
+    <row r="105" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>43</v>
       </c>
@@ -12635,7 +12637,7 @@
       </c>
       <c r="R105" s="21"/>
     </row>
-    <row r="106" ht="15" customHeight="1">
+    <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>43</v>
       </c>
@@ -12686,7 +12688,7 @@
       </c>
       <c r="R106" s="21"/>
     </row>
-    <row r="107" ht="15" customHeight="1">
+    <row r="107" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>43</v>
       </c>
@@ -12737,7 +12739,7 @@
       </c>
       <c r="R107" s="21"/>
     </row>
-    <row r="108" ht="15" customHeight="1">
+    <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>43</v>
       </c>
@@ -12788,7 +12790,7 @@
       </c>
       <c r="R108" s="21"/>
     </row>
-    <row r="109" ht="15" customHeight="1">
+    <row r="109" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>43</v>
       </c>
@@ -12839,7 +12841,7 @@
       </c>
       <c r="R109" s="21"/>
     </row>
-    <row r="110" ht="15" customHeight="1">
+    <row r="110" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>43</v>
       </c>
@@ -12890,7 +12892,7 @@
       </c>
       <c r="R110" s="21"/>
     </row>
-    <row r="111" ht="15" customHeight="1">
+    <row r="111" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>43</v>
       </c>
@@ -12941,7 +12943,7 @@
       </c>
       <c r="R111" s="21"/>
     </row>
-    <row r="112" ht="15" customHeight="1">
+    <row r="112" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>43</v>
       </c>
@@ -12992,7 +12994,7 @@
       </c>
       <c r="R112" s="21"/>
     </row>
-    <row r="113" ht="15" customHeight="1">
+    <row r="113" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>43</v>
       </c>
@@ -13043,7 +13045,7 @@
       </c>
       <c r="R113" s="21"/>
     </row>
-    <row r="114" ht="15" customHeight="1">
+    <row r="114" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>43</v>
       </c>
@@ -13094,7 +13096,7 @@
       </c>
       <c r="R114" s="21"/>
     </row>
-    <row r="115" ht="15" customHeight="1">
+    <row r="115" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>43</v>
       </c>
@@ -13145,7 +13147,7 @@
       </c>
       <c r="R115" s="21"/>
     </row>
-    <row r="116" ht="15" customHeight="1">
+    <row r="116" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>43</v>
       </c>
@@ -13196,7 +13198,7 @@
       </c>
       <c r="R116" s="21"/>
     </row>
-    <row r="117" ht="15" customHeight="1">
+    <row r="117" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>43</v>
       </c>
@@ -13247,7 +13249,7 @@
       </c>
       <c r="R117" s="21"/>
     </row>
-    <row r="118" ht="15" customHeight="1">
+    <row r="118" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>43</v>
       </c>
@@ -13298,7 +13300,7 @@
       </c>
       <c r="R118" s="21"/>
     </row>
-    <row r="119" ht="15" customHeight="1">
+    <row r="119" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>43</v>
       </c>
@@ -13349,7 +13351,7 @@
       </c>
       <c r="R119" s="21"/>
     </row>
-    <row r="120" ht="15" customHeight="1">
+    <row r="120" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>43</v>
       </c>
@@ -13400,7 +13402,7 @@
       </c>
       <c r="R120" s="21"/>
     </row>
-    <row r="121" ht="15" customHeight="1">
+    <row r="121" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>43</v>
       </c>
@@ -13451,7 +13453,7 @@
       </c>
       <c r="R121" s="21"/>
     </row>
-    <row r="122" ht="15" customHeight="1">
+    <row r="122" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>43</v>
       </c>
@@ -13502,7 +13504,7 @@
       </c>
       <c r="R122" s="21"/>
     </row>
-    <row r="123" ht="15" customHeight="1">
+    <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>43</v>
       </c>
@@ -13553,7 +13555,7 @@
       </c>
       <c r="R123" s="21"/>
     </row>
-    <row r="124" ht="15" customHeight="1">
+    <row r="124" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>43</v>
       </c>
@@ -13604,7 +13606,7 @@
       </c>
       <c r="R124" s="21"/>
     </row>
-    <row r="125" ht="15" customHeight="1">
+    <row r="125" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>43</v>
       </c>
@@ -13655,7 +13657,7 @@
       </c>
       <c r="R125" s="21"/>
     </row>
-    <row r="126" ht="15" customHeight="1">
+    <row r="126" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>43</v>
       </c>
@@ -13706,7 +13708,7 @@
       </c>
       <c r="R126" s="21"/>
     </row>
-    <row r="127" ht="15" customHeight="1">
+    <row r="127" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>43</v>
       </c>
@@ -13757,7 +13759,7 @@
       </c>
       <c r="R127" s="21"/>
     </row>
-    <row r="128" ht="15" customHeight="1">
+    <row r="128" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>43</v>
       </c>
@@ -13808,7 +13810,7 @@
       </c>
       <c r="R128" s="21"/>
     </row>
-    <row r="129" ht="15" customHeight="1">
+    <row r="129" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>43</v>
       </c>
@@ -13859,7 +13861,7 @@
       </c>
       <c r="R129" s="21"/>
     </row>
-    <row r="130" ht="15" customHeight="1">
+    <row r="130" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>28</v>
       </c>
@@ -13910,7 +13912,7 @@
       </c>
       <c r="R130" s="21"/>
     </row>
-    <row r="131" ht="15" customHeight="1">
+    <row r="131" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
         <v>28</v>
       </c>
@@ -13961,7 +13963,7 @@
       </c>
       <c r="R131" s="21"/>
     </row>
-    <row r="132" ht="15" customHeight="1">
+    <row r="132" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
         <v>28</v>
       </c>
@@ -14012,7 +14014,7 @@
       </c>
       <c r="R132" s="21"/>
     </row>
-    <row r="133" ht="15" customHeight="1">
+    <row r="133" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22" t="s">
         <v>28</v>
       </c>
@@ -14063,7 +14065,7 @@
       </c>
       <c r="R133" s="21"/>
     </row>
-    <row r="134" ht="15" customHeight="1">
+    <row r="134" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="22" t="s">
         <v>28</v>
       </c>
@@ -14114,7 +14116,7 @@
       </c>
       <c r="R134" s="21"/>
     </row>
-    <row r="135" ht="15" customHeight="1">
+    <row r="135" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30"/>
       <c r="B135" s="25" t="s">
         <v>43</v>
@@ -14163,7 +14165,7 @@
       </c>
       <c r="Q135" s="30"/>
     </row>
-    <row r="136" ht="15" customHeight="1">
+    <row r="136" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="25" t="s">
         <v>43</v>
       </c>
@@ -14210,7 +14212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" ht="15" customHeight="1">
+    <row r="137" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="25" t="s">
         <v>43</v>
       </c>
@@ -14257,7 +14259,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" ht="15" customHeight="1">
+    <row r="138" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="25" t="s">
         <v>43</v>
       </c>
@@ -14304,7 +14306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" ht="15" customHeight="1">
+    <row r="139" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="25" t="s">
         <v>43</v>
       </c>
@@ -14351,7 +14353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" ht="15" customHeight="1">
+    <row r="140" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="25" t="s">
         <v>43</v>
       </c>
@@ -14398,7 +14400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" ht="15" customHeight="1">
+    <row r="141" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="25" t="s">
         <v>43</v>
       </c>
@@ -14445,7 +14447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" ht="15" customHeight="1">
+    <row r="142" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="25" t="s">
         <v>43</v>
       </c>
@@ -14492,7 +14494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" ht="15" customHeight="1">
+    <row r="143" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="25" t="s">
         <v>43</v>
       </c>
@@ -14539,7 +14541,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" ht="15" customHeight="1">
+    <row r="144" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="25" t="s">
         <v>43</v>
       </c>
@@ -14586,7 +14588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" ht="15" customHeight="1">
+    <row r="145" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="25" t="s">
         <v>43</v>
       </c>
@@ -14633,7 +14635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" ht="15" customHeight="1">
+    <row r="146" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="25" t="s">
         <v>43</v>
       </c>
@@ -14680,7 +14682,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" ht="15" customHeight="1">
+    <row r="147" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="25" t="s">
         <v>43</v>
       </c>
@@ -14727,7 +14729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="25" t="s">
         <v>43</v>
       </c>
@@ -14774,7 +14776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" ht="15" customHeight="1">
+    <row r="149" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="25" t="s">
         <v>43</v>
       </c>
@@ -14821,7 +14823,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" ht="15" customHeight="1">
+    <row r="150" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="25" t="s">
         <v>43</v>
       </c>
@@ -14868,7 +14870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" ht="15" customHeight="1">
+    <row r="151" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="25" t="s">
         <v>43</v>
       </c>
@@ -14915,7 +14917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" ht="15" customHeight="1">
+    <row r="152" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="25" t="s">
         <v>43</v>
       </c>
@@ -14962,7 +14964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" ht="15" customHeight="1">
+    <row r="153" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="25" t="s">
         <v>43</v>
       </c>
@@ -15009,7 +15011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" ht="15" customHeight="1">
+    <row r="154" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="25" t="s">
         <v>43</v>
       </c>
@@ -15056,7 +15058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" ht="15" customHeight="1">
+    <row r="155" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="25" t="s">
         <v>43</v>
       </c>
@@ -15103,7 +15105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" ht="15" customHeight="1">
+    <row r="156" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="25" t="s">
         <v>43</v>
       </c>
@@ -15150,7 +15152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" ht="15" customHeight="1">
+    <row r="157" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="25" t="s">
         <v>43</v>
       </c>
@@ -15197,7 +15199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" ht="15" customHeight="1">
+    <row r="158" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="25" t="s">
         <v>43</v>
       </c>
@@ -15244,7 +15246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" ht="15" customHeight="1">
+    <row r="159" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="25" t="s">
         <v>43</v>
       </c>
@@ -15291,7 +15293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" ht="15" customHeight="1">
+    <row r="160" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="25" t="s">
         <v>43</v>
       </c>
@@ -15338,7 +15340,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" ht="15" customHeight="1">
+    <row r="161" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="25" t="s">
         <v>43</v>
       </c>
@@ -15385,7 +15387,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" ht="15" customHeight="1">
+    <row r="162" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="25" t="s">
         <v>43</v>
       </c>
@@ -15432,7 +15434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" ht="15" customHeight="1">
+    <row r="163" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="22" t="s">
         <v>28</v>
       </c>
@@ -15482,7 +15484,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="164" ht="15" customHeight="1">
+    <row r="164" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="33" t="s">
         <v>28</v>
       </c>
@@ -15532,7 +15534,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="165" ht="15" customHeight="1">
+    <row r="165" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="25"/>
       <c r="B165" s="22" t="s">
         <v>43</v>
@@ -15580,7 +15582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" ht="15" customHeight="1">
+    <row r="166" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="25"/>
       <c r="B166" s="22" t="s">
         <v>43</v>
@@ -15628,7 +15630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" ht="15" customHeight="1">
+    <row r="167" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="B167" s="22" t="s">
         <v>43</v>
@@ -15676,7 +15678,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" ht="15" customHeight="1">
+    <row r="168" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="25"/>
       <c r="B168" s="22" t="s">
         <v>43</v>
@@ -15724,7 +15726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" ht="15" customHeight="1">
+    <row r="169" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="22" t="s">
         <v>43</v>
@@ -15772,7 +15774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" ht="15" customHeight="1">
+    <row r="170" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="B170" s="22" t="s">
         <v>43</v>
@@ -15820,7 +15822,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" ht="15" customHeight="1">
+    <row r="171" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="22" t="s">
         <v>43</v>
@@ -15868,7 +15870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" ht="15" customHeight="1">
+    <row r="172" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="25"/>
       <c r="B172" s="22" t="s">
         <v>43</v>
@@ -15916,7 +15918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" ht="15" customHeight="1">
+    <row r="173" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="B173" s="22" t="s">
         <v>43</v>
@@ -15964,7 +15966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" ht="15" customHeight="1">
+    <row r="174" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="22" t="s">
         <v>43</v>
@@ -16012,7 +16014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" ht="15" customHeight="1">
+    <row r="175" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="22" t="s">
         <v>43</v>
@@ -16060,7 +16062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" ht="15" customHeight="1">
+    <row r="176" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="22" t="s">
         <v>43</v>
@@ -16108,7 +16110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" ht="15" customHeight="1">
+    <row r="177" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="22" t="s">
         <v>43</v>
@@ -16156,7 +16158,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" ht="15" customHeight="1">
+    <row r="178" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="22" t="s">
         <v>43</v>
@@ -16204,7 +16206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="179" ht="15" customHeight="1">
+    <row r="179" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="25"/>
       <c r="B179" s="22" t="s">
         <v>43</v>
@@ -16252,7 +16254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" ht="15" customHeight="1">
+    <row r="180" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="25"/>
       <c r="B180" s="22" t="s">
         <v>43</v>
@@ -16300,7 +16302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" ht="15" customHeight="1">
+    <row r="181" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="B181" s="22" t="s">
         <v>43</v>
@@ -16348,7 +16350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" ht="15" customHeight="1">
+    <row r="182" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="22" t="s">
         <v>43</v>
@@ -16396,7 +16398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" ht="15" customHeight="1">
+    <row r="183" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="22" t="s">
         <v>43</v>
@@ -16444,7 +16446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" ht="15" customHeight="1">
+    <row r="184" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="22" t="s">
         <v>43</v>
@@ -16492,7 +16494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" ht="15" customHeight="1">
+    <row r="185" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="25"/>
       <c r="B185" s="22" t="s">
         <v>43</v>
@@ -16540,7 +16542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" ht="15" customHeight="1">
+    <row r="186" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="25"/>
       <c r="B186" s="22" t="s">
         <v>43</v>
@@ -16588,7 +16590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" ht="15" customHeight="1">
+    <row r="187" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="25"/>
       <c r="B187" s="22" t="s">
         <v>43</v>
@@ -16636,7 +16638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" ht="15" customHeight="1">
+    <row r="188" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="22" t="s">
         <v>43</v>
@@ -16684,7 +16686,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" ht="15" customHeight="1">
+    <row r="189" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="22" t="s">
         <v>43</v>
@@ -16732,7 +16734,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" ht="15" customHeight="1">
+    <row r="190" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="22" t="s">
         <v>43</v>
@@ -16780,7 +16782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" ht="15" customHeight="1">
+    <row r="191" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="22" t="s">
         <v>43</v>
@@ -16828,7 +16830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" ht="15" customHeight="1">
+    <row r="192" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="22" t="s">
         <v>43</v>
@@ -16876,7 +16878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" ht="15" customHeight="1">
+    <row r="193" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
       <c r="B193" s="22" t="s">
         <v>43</v>
@@ -16924,7 +16926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" ht="15" customHeight="1">
+    <row r="194" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="B194" s="22" t="s">
         <v>43</v>
@@ -16972,7 +16974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" ht="15" customHeight="1">
+    <row r="195" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="22" t="s">
         <v>43</v>
@@ -17020,7 +17022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" ht="15" customHeight="1">
+    <row r="196" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="22" t="s">
         <v>43</v>
@@ -17068,7 +17070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" ht="15" customHeight="1">
+    <row r="197" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="22" t="s">
         <v>43</v>
@@ -17116,7 +17118,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" ht="15" customHeight="1">
+    <row r="198" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="22" t="s">
         <v>43</v>
@@ -17164,7 +17166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" ht="15" customHeight="1">
+    <row r="199" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="B199" s="22" t="s">
         <v>43</v>
@@ -17212,7 +17214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" ht="15" customHeight="1">
+    <row r="200" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="25"/>
       <c r="B200" s="22" t="s">
         <v>43</v>
@@ -17260,7 +17262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="201" ht="15" customHeight="1">
+    <row r="201" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="25"/>
       <c r="B201" s="22" t="s">
         <v>43</v>
@@ -17308,7 +17310,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" ht="15" customHeight="1">
+    <row r="202" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="30" t="s">
         <v>28</v>
       </c>
@@ -17358,7 +17360,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="203" ht="15" customHeight="1">
+    <row r="203" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="22" t="s">
         <v>28</v>
       </c>
@@ -17408,7 +17410,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="204" ht="15" customHeight="1">
+    <row r="204" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="22" t="s">
         <v>28</v>
       </c>
@@ -17458,7 +17460,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="205" ht="15" customHeight="1">
+    <row r="205" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="22" t="s">
         <v>28</v>
       </c>
@@ -17508,7 +17510,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="206" ht="15" customHeight="1">
+    <row r="206" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="22" t="s">
         <v>28</v>
       </c>
@@ -17558,7 +17560,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="207" ht="15" customHeight="1">
+    <row r="207" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="22" t="s">
         <v>28</v>
       </c>
@@ -17605,7 +17607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" ht="15" customHeight="1">
+    <row r="208" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="22" t="s">
         <v>28</v>
       </c>
@@ -17652,7 +17654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" ht="15" customHeight="1">
+    <row r="209" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="22" t="s">
         <v>28</v>
       </c>
@@ -17699,7 +17701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" ht="15" customHeight="1">
+    <row r="210" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="22" t="s">
         <v>28</v>
       </c>
@@ -17746,7 +17748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" ht="15" customHeight="1">
+    <row r="211" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="22" t="s">
         <v>28</v>
       </c>
@@ -17793,7 +17795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" ht="15" customHeight="1">
+    <row r="212" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="22" t="s">
         <v>28</v>
       </c>
@@ -17840,7 +17842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" ht="15" customHeight="1">
+    <row r="213" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="22" t="s">
         <v>28</v>
       </c>
@@ -17887,7 +17889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" ht="15" customHeight="1">
+    <row r="214" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="22" t="s">
         <v>28</v>
       </c>
@@ -17934,7 +17936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" ht="15" customHeight="1">
+    <row r="215" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="22" t="s">
         <v>28</v>
       </c>
@@ -17981,7 +17983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" ht="15" customHeight="1">
+    <row r="216" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="22" t="s">
         <v>43</v>
       </c>
@@ -18028,7 +18030,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="217" ht="15" customHeight="1">
+    <row r="217" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="22" t="s">
         <v>43</v>
       </c>
@@ -18075,7 +18077,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="218" ht="15" customHeight="1">
+    <row r="218" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="22" t="s">
         <v>43</v>
       </c>
@@ -18122,7 +18124,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="219" ht="15" customHeight="1">
+    <row r="219" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="22" t="s">
         <v>43</v>
       </c>
@@ -18169,7 +18171,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="220" ht="15" customHeight="1">
+    <row r="220" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="22" t="s">
         <v>43</v>
       </c>
@@ -18216,7 +18218,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="221" ht="15" customHeight="1">
+    <row r="221" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="22" t="s">
         <v>43</v>
       </c>
@@ -18263,7 +18265,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="222" ht="15" customHeight="1">
+    <row r="222" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="22" t="s">
         <v>43</v>
       </c>
@@ -18310,7 +18312,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="223" ht="15" customHeight="1">
+    <row r="223" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="22" t="s">
         <v>43</v>
       </c>
@@ -18357,7 +18359,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="224" ht="15" customHeight="1">
+    <row r="224" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="22" t="s">
         <v>43</v>
       </c>
@@ -18404,7 +18406,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="225" ht="15" customHeight="1">
+    <row r="225" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="22" t="s">
         <v>43</v>
       </c>
@@ -18451,7 +18453,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="226" ht="15" customHeight="1">
+    <row r="226" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="22" t="s">
         <v>43</v>
       </c>
@@ -18498,7 +18500,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="227" ht="15" customHeight="1">
+    <row r="227" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="22" t="s">
         <v>43</v>
       </c>
@@ -18545,7 +18547,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="228" ht="15" customHeight="1">
+    <row r="228" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="22" t="s">
         <v>43</v>
       </c>
@@ -18592,7 +18594,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="229" ht="15" customHeight="1">
+    <row r="229" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="22" t="s">
         <v>43</v>
       </c>
@@ -18639,7 +18641,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="230" ht="15" customHeight="1">
+    <row r="230" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="22" t="s">
         <v>43</v>
       </c>
@@ -18686,7 +18688,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="231" ht="15" customHeight="1">
+    <row r="231" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="22" t="s">
         <v>43</v>
       </c>
@@ -18733,7 +18735,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="232" ht="15" customHeight="1">
+    <row r="232" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="22" t="s">
         <v>43</v>
       </c>
@@ -18780,7 +18782,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="233" ht="15" customHeight="1">
+    <row r="233" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="22" t="s">
         <v>43</v>
       </c>
@@ -18827,7 +18829,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="234" ht="15" customHeight="1">
+    <row r="234" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="22" t="s">
         <v>43</v>
       </c>
@@ -18874,7 +18876,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="235" ht="15" customHeight="1">
+    <row r="235" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="22" t="s">
         <v>43</v>
       </c>
@@ -18921,7 +18923,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="236" ht="15" customHeight="1">
+    <row r="236" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="22" t="s">
         <v>43</v>
       </c>
@@ -18968,7 +18970,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="237" ht="15" customHeight="1">
+    <row r="237" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="22" t="s">
         <v>43</v>
       </c>
@@ -19015,7 +19017,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="238" ht="15" customHeight="1">
+    <row r="238" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="22" t="s">
         <v>43</v>
       </c>
@@ -19062,7 +19064,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="239" ht="15" customHeight="1">
+    <row r="239" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="22" t="s">
         <v>43</v>
       </c>
@@ -19109,7 +19111,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="240" ht="15" customHeight="1">
+    <row r="240" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="22" t="s">
         <v>43</v>
       </c>
@@ -19156,7 +19158,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="241" ht="15" customHeight="1">
+    <row r="241" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="22" t="s">
         <v>43</v>
       </c>
@@ -19203,7 +19205,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="242" ht="15" customHeight="1">
+    <row r="242" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="22" t="s">
         <v>43</v>
       </c>
@@ -19250,7 +19252,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="243" ht="15" customHeight="1">
+    <row r="243" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="22" t="s">
         <v>43</v>
       </c>
@@ -19297,7 +19299,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="244" ht="15" customHeight="1">
+    <row r="244" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="22" t="s">
         <v>43</v>
       </c>
@@ -19344,7 +19346,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="245" ht="15" customHeight="1">
+    <row r="245" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="22" t="s">
         <v>43</v>
       </c>
@@ -19391,7 +19393,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="246" ht="15" customHeight="1">
+    <row r="246" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="22" t="s">
         <v>43</v>
       </c>
@@ -19438,7 +19440,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="247" ht="15" customHeight="1">
+    <row r="247" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="22" t="s">
         <v>43</v>
       </c>
@@ -19485,7 +19487,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="248" ht="15" customHeight="1">
+    <row r="248" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="22" t="s">
         <v>43</v>
       </c>
@@ -19529,7 +19531,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="249" ht="15" customHeight="1">
+    <row r="249" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="22" t="s">
         <v>43</v>
       </c>
@@ -19576,7 +19578,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="250" ht="15" customHeight="1">
+    <row r="250" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="22" t="s">
         <v>43</v>
       </c>
@@ -19623,7 +19625,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="251" ht="15" customHeight="1">
+    <row r="251" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="22" t="s">
         <v>43</v>
       </c>
@@ -19670,7 +19672,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="252" ht="15" customHeight="1">
+    <row r="252" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="22" t="s">
         <v>43</v>
       </c>
@@ -19717,7 +19719,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="253" ht="15" customHeight="1">
+    <row r="253" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="22" t="s">
         <v>43</v>
       </c>
@@ -19764,7 +19766,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="254" ht="15" customHeight="1">
+    <row r="254" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="22" t="s">
         <v>43</v>
       </c>
@@ -19811,7 +19813,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="255" ht="15" customHeight="1">
+    <row r="255" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="22" t="s">
         <v>43</v>
       </c>
@@ -19858,7 +19860,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="256" ht="15" customHeight="1">
+    <row r="256" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="22" t="s">
         <v>43</v>
       </c>
@@ -19905,7 +19907,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="257" ht="15" customHeight="1">
+    <row r="257" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="22" t="s">
         <v>43</v>
       </c>
@@ -19952,7 +19954,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="258" ht="15" customHeight="1">
+    <row r="258" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="22" t="s">
         <v>43</v>
       </c>
@@ -19999,7 +20001,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="259" ht="15" customHeight="1">
+    <row r="259" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="22" t="s">
         <v>43</v>
       </c>
@@ -20046,7 +20048,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="260" ht="15" customHeight="1">
+    <row r="260" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="22" t="s">
         <v>43</v>
       </c>
@@ -20093,7 +20095,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="261" ht="15" customHeight="1">
+    <row r="261" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="22" t="s">
         <v>43</v>
       </c>
@@ -20140,7 +20142,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="262" ht="15" customHeight="1">
+    <row r="262" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="22" t="s">
         <v>43</v>
       </c>
@@ -20187,7 +20189,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="263" ht="15" customHeight="1">
+    <row r="263" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="22" t="s">
         <v>43</v>
       </c>
@@ -20234,7 +20236,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="264" ht="15" customHeight="1">
+    <row r="264" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="22" t="s">
         <v>43</v>
       </c>
@@ -20281,7 +20283,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="265" ht="15" customHeight="1">
+    <row r="265" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="22" t="s">
         <v>43</v>
       </c>
@@ -20328,7 +20330,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="266" ht="15" customHeight="1">
+    <row r="266" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="22" t="s">
         <v>43</v>
       </c>
@@ -20375,7 +20377,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="267" ht="15" customHeight="1">
+    <row r="267" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="22" t="s">
         <v>43</v>
       </c>
@@ -20422,7 +20424,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="268" ht="15" customHeight="1">
+    <row r="268" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="22" t="s">
         <v>43</v>
       </c>
@@ -20469,7 +20471,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="269" ht="15" customHeight="1">
+    <row r="269" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="22" t="s">
         <v>43</v>
       </c>
@@ -20516,7 +20518,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="270" ht="15" customHeight="1">
+    <row r="270" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="22" t="s">
         <v>43</v>
       </c>
@@ -20563,7 +20565,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="271" ht="15" customHeight="1">
+    <row r="271" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="22" t="s">
         <v>43</v>
       </c>
@@ -20610,7 +20612,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="272" ht="15" customHeight="1">
+    <row r="272" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="22" t="s">
         <v>43</v>
       </c>
@@ -20657,7 +20659,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="273" ht="15" customHeight="1">
+    <row r="273" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="22" t="s">
         <v>43</v>
       </c>
@@ -20704,7 +20706,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="274" ht="15" customHeight="1">
+    <row r="274" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="22" t="s">
         <v>43</v>
       </c>
@@ -20751,7 +20753,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="275" ht="15" customHeight="1">
+    <row r="275" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="22" t="s">
         <v>43</v>
       </c>
@@ -20798,7 +20800,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="276" ht="15" customHeight="1">
+    <row r="276" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="22" t="s">
         <v>43</v>
       </c>
@@ -20845,7 +20847,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="277" ht="15" customHeight="1">
+    <row r="277" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="22" t="s">
         <v>43</v>
       </c>
@@ -20892,7 +20894,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="278" ht="15" customHeight="1">
+    <row r="278" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="22" t="s">
         <v>43</v>
       </c>
@@ -20939,7 +20941,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="279" ht="15" customHeight="1">
+    <row r="279" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="22" t="s">
         <v>43</v>
       </c>
@@ -20986,7 +20988,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="280" ht="15" customHeight="1">
+    <row r="280" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="22" t="s">
         <v>43</v>
       </c>
@@ -21033,7 +21035,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="281" ht="15" customHeight="1">
+    <row r="281" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21080,7 +21082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="282" ht="15" customHeight="1">
+    <row r="282" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21127,7 +21129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="283" ht="15" customHeight="1">
+    <row r="283" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21174,7 +21176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="284" ht="15" customHeight="1">
+    <row r="284" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21221,7 +21223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="285" ht="15" customHeight="1">
+    <row r="285" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21268,7 +21270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="286" ht="15" customHeight="1">
+    <row r="286" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21315,7 +21317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="287" ht="15" customHeight="1">
+    <row r="287" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21362,7 +21364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="288" ht="15" customHeight="1">
+    <row r="288" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21409,7 +21411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="289" ht="15" customHeight="1">
+    <row r="289" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21456,7 +21458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="290" ht="15" customHeight="1">
+    <row r="290" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21503,7 +21505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="291" ht="15" customHeight="1">
+    <row r="291" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21550,7 +21552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" ht="15" customHeight="1">
+    <row r="292" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21597,7 +21599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="293" ht="15" customHeight="1">
+    <row r="293" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21644,7 +21646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="294" ht="15" customHeight="1">
+    <row r="294" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21691,7 +21693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" ht="15" customHeight="1">
+    <row r="295" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21738,7 +21740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="296" ht="15" customHeight="1">
+    <row r="296" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21785,7 +21787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="297" ht="15" customHeight="1">
+    <row r="297" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21832,7 +21834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" ht="15" customHeight="1">
+    <row r="298" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21879,7 +21881,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="299" ht="15" customHeight="1">
+    <row r="299" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="22" t="s">
         <v>43</v>
       </c>
@@ -21926,7 +21928,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="300" ht="15" customHeight="1">
+    <row r="300" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="22" t="s">
         <v>43</v>
       </c>
@@ -21973,7 +21975,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="301" ht="15" customHeight="1">
+    <row r="301" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="22" t="s">
         <v>43</v>
       </c>
@@ -22020,7 +22022,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="302" ht="15" customHeight="1">
+    <row r="302" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="22" t="s">
         <v>43</v>
       </c>
@@ -22067,7 +22069,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="303" ht="15" customHeight="1">
+    <row r="303" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="22" t="s">
         <v>43</v>
       </c>
@@ -22114,7 +22116,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="304" ht="15" customHeight="1">
+    <row r="304" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="22" t="s">
         <v>43</v>
       </c>
@@ -22161,7 +22163,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="305" ht="15" customHeight="1">
+    <row r="305" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="22" t="s">
         <v>43</v>
       </c>
@@ -22208,7 +22210,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="306" ht="15" customHeight="1">
+    <row r="306" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="22" t="s">
         <v>43</v>
       </c>
@@ -22255,7 +22257,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="307" ht="15" customHeight="1">
+    <row r="307" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="22" t="s">
         <v>43</v>
       </c>
@@ -22302,7 +22304,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="308" ht="15" customHeight="1">
+    <row r="308" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="22" t="s">
         <v>43</v>
       </c>
@@ -22349,7 +22351,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="309" ht="15" customHeight="1">
+    <row r="309" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="22" t="s">
         <v>43</v>
       </c>
@@ -22396,7 +22398,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="310" ht="15" customHeight="1">
+    <row r="310" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="22" t="s">
         <v>43</v>
       </c>
@@ -22443,7 +22445,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="311" ht="15" customHeight="1">
+    <row r="311" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="22" t="s">
         <v>43</v>
       </c>
@@ -22490,7 +22492,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="312" ht="15" customHeight="1">
+    <row r="312" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="22" t="s">
         <v>43</v>
       </c>
@@ -22537,7 +22539,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="313" ht="15" customHeight="1">
+    <row r="313" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="22" t="s">
         <v>43</v>
       </c>
@@ -22584,7 +22586,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="314" ht="15" customHeight="1">
+    <row r="314" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="22" t="s">
         <v>43</v>
       </c>
@@ -22631,7 +22633,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="315" ht="15" customHeight="1">
+    <row r="315" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="22" t="s">
         <v>43</v>
       </c>
@@ -22678,7 +22680,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="316" ht="15" customHeight="1">
+    <row r="316" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="22" t="s">
         <v>43</v>
       </c>
@@ -22725,7 +22727,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="317" ht="15" customHeight="1">
+    <row r="317" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="22" t="s">
         <v>43</v>
       </c>
@@ -22772,7 +22774,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="318" ht="15" customHeight="1">
+    <row r="318" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="22" t="s">
         <v>43</v>
       </c>
@@ -22819,7 +22821,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="319" ht="15" customHeight="1">
+    <row r="319" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="22" t="s">
         <v>43</v>
       </c>
@@ -22866,7 +22868,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="320" ht="15" customHeight="1">
+    <row r="320" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="22" t="s">
         <v>43</v>
       </c>
@@ -22913,7 +22915,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="321" ht="15" customHeight="1">
+    <row r="321" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="22" t="s">
         <v>43</v>
       </c>
@@ -22960,7 +22962,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="322" ht="15" customHeight="1">
+    <row r="322" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="22" t="s">
         <v>43</v>
       </c>
@@ -23007,7 +23009,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="323" ht="15" customHeight="1">
+    <row r="323" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="22" t="s">
         <v>43</v>
       </c>
@@ -23054,7 +23056,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="324" ht="15" customHeight="1">
+    <row r="324" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="22" t="s">
         <v>43</v>
       </c>
@@ -23101,7 +23103,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="325" ht="15" customHeight="1">
+    <row r="325" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="22" t="s">
         <v>43</v>
       </c>
@@ -23148,7 +23150,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="326" ht="15" customHeight="1">
+    <row r="326" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="22" t="s">
         <v>43</v>
       </c>
@@ -23195,7 +23197,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="327" ht="15" customHeight="1">
+    <row r="327" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="22" t="s">
         <v>43</v>
       </c>
@@ -23242,7 +23244,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="328" ht="15" customHeight="1">
+    <row r="328" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="22" t="s">
         <v>43</v>
       </c>
@@ -23289,7 +23291,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="329" ht="15" customHeight="1">
+    <row r="329" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="22" t="s">
         <v>43</v>
       </c>
@@ -23336,7 +23338,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="330" ht="15" customHeight="1">
+    <row r="330" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="22" t="s">
         <v>43</v>
       </c>
@@ -23383,7 +23385,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="331" ht="15" customHeight="1">
+    <row r="331" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="22" t="s">
         <v>43</v>
       </c>
@@ -23430,7 +23432,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="332" ht="15" customHeight="1">
+    <row r="332" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="22" t="s">
         <v>43</v>
       </c>
@@ -23477,7 +23479,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="333" ht="15" customHeight="1">
+    <row r="333" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="22" t="s">
         <v>43</v>
       </c>
@@ -23524,7 +23526,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="334" ht="15" customHeight="1">
+    <row r="334" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="22" t="s">
         <v>43</v>
       </c>
@@ -23571,7 +23573,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="335" ht="15" customHeight="1">
+    <row r="335" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="22" t="s">
         <v>43</v>
       </c>
@@ -23618,7 +23620,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="336" ht="15" customHeight="1">
+    <row r="336" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="22" t="s">
         <v>43</v>
       </c>
@@ -23665,7 +23667,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="337" ht="15" customHeight="1">
+    <row r="337" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="22" t="s">
         <v>43</v>
       </c>
@@ -23712,7 +23714,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="338" ht="15" customHeight="1">
+    <row r="338" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="22" t="s">
         <v>43</v>
       </c>
@@ -23759,7 +23761,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="339" ht="15" customHeight="1">
+    <row r="339" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="22" t="s">
         <v>43</v>
       </c>
@@ -23806,7 +23808,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="340" ht="15" customHeight="1">
+    <row r="340" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="22" t="s">
         <v>43</v>
       </c>
@@ -23853,7 +23855,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="341" ht="15" customHeight="1">
+    <row r="341" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="22" t="s">
         <v>43</v>
       </c>
@@ -23900,7 +23902,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="342" ht="15" customHeight="1">
+    <row r="342" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="22" t="s">
         <v>43</v>
       </c>
@@ -23947,7 +23949,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="343" ht="15" customHeight="1">
+    <row r="343" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="22" t="s">
         <v>1118</v>
       </c>
@@ -23994,7 +23996,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="344" ht="15" customHeight="1">
+    <row r="344" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="22" t="s">
         <v>1118</v>
       </c>
@@ -24041,7 +24043,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="345" ht="15" customHeight="1">
+    <row r="345" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="22" t="s">
         <v>43</v>
       </c>
@@ -24088,7 +24090,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="346" ht="15" customHeight="1">
+    <row r="346" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="22" t="s">
         <v>43</v>
       </c>
@@ -24135,7 +24137,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="347" ht="15" customHeight="1">
+    <row r="347" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="22" t="s">
         <v>43</v>
       </c>
@@ -24182,7 +24184,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="348" ht="15" customHeight="1">
+    <row r="348" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="22" t="s">
         <v>43</v>
       </c>
@@ -24229,7 +24231,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="349" ht="15" customHeight="1">
+    <row r="349" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="22" t="s">
         <v>43</v>
       </c>
@@ -24276,7 +24278,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="350" ht="15" customHeight="1">
+    <row r="350" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="22" t="s">
         <v>43</v>
       </c>
@@ -24323,7 +24325,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="351" ht="15" customHeight="1">
+    <row r="351" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="22" t="s">
         <v>43</v>
       </c>
@@ -24370,7 +24372,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="352" ht="15" customHeight="1">
+    <row r="352" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="22" t="s">
         <v>43</v>
       </c>
@@ -24417,7 +24419,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="353" ht="15" customHeight="1">
+    <row r="353" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="22" t="s">
         <v>43</v>
       </c>
@@ -24464,7 +24466,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="354" ht="15" customHeight="1">
+    <row r="354" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="22" t="s">
         <v>43</v>
       </c>
@@ -24511,7 +24513,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="355" ht="15" customHeight="1">
+    <row r="355" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="22" t="s">
         <v>43</v>
       </c>
@@ -24558,7 +24560,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="356" ht="15" customHeight="1">
+    <row r="356" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="22" t="s">
         <v>43</v>
       </c>
@@ -24605,7 +24607,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="357" ht="15" customHeight="1">
+    <row r="357" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="22" t="s">
         <v>43</v>
       </c>
@@ -24652,7 +24654,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="358" ht="15" customHeight="1">
+    <row r="358" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="22" t="s">
         <v>43</v>
       </c>
@@ -24699,7 +24701,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="359" ht="15" customHeight="1">
+    <row r="359" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="22" t="s">
         <v>43</v>
       </c>
@@ -24746,7 +24748,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="360" ht="15" customHeight="1">
+    <row r="360" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="22" t="s">
         <v>43</v>
       </c>
@@ -24793,7 +24795,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="361" ht="15" customHeight="1">
+    <row r="361" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="22" t="s">
         <v>43</v>
       </c>
@@ -24840,7 +24842,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="362" ht="15" customHeight="1">
+    <row r="362" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="22" t="s">
         <v>43</v>
       </c>
@@ -24887,7 +24889,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="363" ht="15" customHeight="1">
+    <row r="363" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="22" t="s">
         <v>43</v>
       </c>
@@ -24934,7 +24936,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="364" ht="13.5" customHeight="1">
+    <row r="364" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="22" t="s">
         <v>43</v>
       </c>
@@ -24981,7 +24983,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="365" ht="15" customHeight="1">
+    <row r="365" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="22" t="s">
         <v>43</v>
       </c>
@@ -25025,7 +25027,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="366" ht="15" customHeight="1">
+    <row r="366" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="22" t="s">
         <v>43</v>
       </c>
@@ -25072,7 +25074,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="367" ht="15" customHeight="1">
+    <row r="367" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="22" t="s">
         <v>43</v>
       </c>
@@ -25119,7 +25121,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="368" ht="15" customHeight="1">
+    <row r="368" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="22" t="s">
         <v>43</v>
       </c>
@@ -25166,7 +25168,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="369" ht="15" customHeight="1">
+    <row r="369" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="22" t="s">
         <v>43</v>
       </c>
@@ -25213,7 +25215,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="370" ht="15" customHeight="1">
+    <row r="370" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="22" t="s">
         <v>43</v>
       </c>
@@ -25260,7 +25262,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="371" ht="15" customHeight="1">
+    <row r="371" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="22" t="s">
         <v>43</v>
       </c>
@@ -25307,7 +25309,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="372" ht="15" customHeight="1">
+    <row r="372" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="22" t="s">
         <v>43</v>
       </c>
@@ -25354,7 +25356,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="373" ht="15" customHeight="1">
+    <row r="373" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="22" t="s">
         <v>43</v>
       </c>
@@ -25401,7 +25403,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="374" ht="15" customHeight="1">
+    <row r="374" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="22" t="s">
         <v>43</v>
       </c>
@@ -25448,7 +25450,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="375" ht="15" customHeight="1">
+    <row r="375" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25498,7 +25500,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="376" ht="15" customHeight="1">
+    <row r="376" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25536,7 +25538,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="377" ht="15" customHeight="1">
+    <row r="377" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25574,7 +25576,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="378" ht="15" customHeight="1">
+    <row r="378" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25621,7 +25623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="379" ht="15" customHeight="1">
+    <row r="379" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25662,7 +25664,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="380" ht="15" customHeight="1">
+    <row r="380" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25709,7 +25711,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="381" ht="15" customHeight="1">
+    <row r="381" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25756,7 +25758,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="382" ht="15" customHeight="1">
+    <row r="382" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="66" t="s">
         <v>1118</v>
       </c>
@@ -25803,7 +25805,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="383" ht="15" customHeight="1">
+    <row r="383" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="25"/>
       <c r="B383" s="22" t="s">
         <v>43</v>
@@ -25851,7 +25853,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="384" ht="15" customHeight="1">
+    <row r="384" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="25"/>
       <c r="B384" s="22" t="s">
         <v>43</v>
@@ -25899,7 +25901,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="385" ht="15" customHeight="1">
+    <row r="385" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="25"/>
       <c r="B385" s="22" t="s">
         <v>43</v>
@@ -25947,7 +25949,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="386" ht="15" customHeight="1">
+    <row r="386" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="25"/>
       <c r="B386" s="22" t="s">
         <v>43</v>
@@ -25995,7 +25997,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="387" ht="15" customHeight="1">
+    <row r="387" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="25"/>
       <c r="B387" s="22" t="s">
         <v>43</v>
@@ -26043,7 +26045,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="388" ht="15" customHeight="1">
+    <row r="388" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="25"/>
       <c r="B388" s="22" t="s">
         <v>43</v>
@@ -26091,7 +26093,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="389" ht="15" customHeight="1">
+    <row r="389" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="25"/>
       <c r="B389" s="22" t="s">
         <v>43</v>
@@ -26139,7 +26141,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="390" ht="15" customHeight="1">
+    <row r="390" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="25"/>
       <c r="B390" s="22" t="s">
         <v>43</v>
@@ -26187,7 +26189,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="391" ht="15" customHeight="1">
+    <row r="391" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="25"/>
       <c r="B391" s="22" t="s">
         <v>43</v>
@@ -26235,7 +26237,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="392" ht="15" customHeight="1">
+    <row r="392" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="25"/>
       <c r="B392" s="22" t="s">
         <v>43</v>
@@ -26283,7 +26285,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="393" ht="15" customHeight="1">
+    <row r="393" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="25"/>
       <c r="B393" s="22" t="s">
         <v>43</v>
@@ -26331,7 +26333,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="394" ht="15" customHeight="1">
+    <row r="394" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="25"/>
       <c r="B394" s="22" t="s">
         <v>43</v>
@@ -26379,7 +26381,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="395" ht="15" customHeight="1">
+    <row r="395" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="25"/>
       <c r="B395" s="22" t="s">
         <v>43</v>
@@ -26427,7 +26429,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="396" ht="15" customHeight="1">
+    <row r="396" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="25"/>
       <c r="B396" s="22" t="s">
         <v>43</v>
@@ -26475,7 +26477,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="397" ht="15" customHeight="1">
+    <row r="397" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="25"/>
       <c r="B397" s="22" t="s">
         <v>43</v>
@@ -26523,7 +26525,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="398" ht="15" customHeight="1">
+    <row r="398" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="25"/>
       <c r="B398" s="22" t="s">
         <v>43</v>
@@ -26571,7 +26573,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="399" ht="15" customHeight="1">
+    <row r="399" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="25"/>
       <c r="B399" s="22" t="s">
         <v>43</v>
@@ -26619,7 +26621,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="400" ht="15" customHeight="1">
+    <row r="400" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="25"/>
       <c r="B400" s="22" t="s">
         <v>43</v>
@@ -26667,7 +26669,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="401" ht="15" customHeight="1">
+    <row r="401" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="25"/>
       <c r="B401" s="22" t="s">
         <v>43</v>
@@ -26715,7 +26717,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="402" ht="15" customHeight="1">
+    <row r="402" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="25"/>
       <c r="B402" s="22" t="s">
         <v>43</v>
@@ -26763,7 +26765,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="403" ht="15" customHeight="1">
+    <row r="403" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="25"/>
       <c r="B403" s="22" t="s">
         <v>43</v>
@@ -26811,7 +26813,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="404" ht="15" customHeight="1">
+    <row r="404" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="25"/>
       <c r="B404" s="22" t="s">
         <v>43</v>
@@ -26859,7 +26861,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="405" ht="15" customHeight="1">
+    <row r="405" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="25"/>
       <c r="B405" s="22" t="s">
         <v>43</v>
@@ -26907,7 +26909,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="406" ht="15" customHeight="1">
+    <row r="406" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="25"/>
       <c r="B406" s="22" t="s">
         <v>43</v>
@@ -26955,7 +26957,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="407" ht="15" customHeight="1">
+    <row r="407" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="25"/>
       <c r="B407" s="22" t="s">
         <v>43</v>
@@ -27003,7 +27005,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="408" ht="15" customHeight="1">
+    <row r="408" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="25"/>
       <c r="B408" s="22" t="s">
         <v>43</v>
@@ -27051,7 +27053,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="409" ht="15" customHeight="1">
+    <row r="409" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="25"/>
       <c r="B409" s="22" t="s">
         <v>43</v>
@@ -27099,7 +27101,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="410" ht="15" customHeight="1">
+    <row r="410" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="25"/>
       <c r="B410" s="22" t="s">
         <v>43</v>
@@ -27147,7 +27149,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="411" ht="15" customHeight="1">
+    <row r="411" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="25"/>
       <c r="B411" s="22" t="s">
         <v>43</v>
@@ -27195,7 +27197,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="412" ht="15" customHeight="1">
+    <row r="412" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="25"/>
       <c r="B412" s="22" t="s">
         <v>43</v>
@@ -27243,7 +27245,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="413" ht="15" customHeight="1">
+    <row r="413" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="25"/>
       <c r="B413" s="22" t="s">
         <v>43</v>
@@ -27291,7 +27293,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="414" ht="15" customHeight="1">
+    <row r="414" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="25"/>
       <c r="B414" s="22" t="s">
         <v>43</v>
@@ -27339,7 +27341,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="415" ht="15" customHeight="1">
+    <row r="415" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="25"/>
       <c r="B415" s="22" t="s">
         <v>43</v>
@@ -27387,7 +27389,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="416" ht="15" customHeight="1">
+    <row r="416" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="25"/>
       <c r="B416" s="22" t="s">
         <v>43</v>
@@ -27435,7 +27437,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="417" ht="15" customHeight="1">
+    <row r="417" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="25"/>
       <c r="B417" s="22" t="s">
         <v>43</v>
@@ -27483,7 +27485,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="418" ht="15" customHeight="1">
+    <row r="418" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="25"/>
       <c r="B418" s="22" t="s">
         <v>43</v>
@@ -27531,7 +27533,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="419" ht="15" customHeight="1">
+    <row r="419" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="25"/>
       <c r="B419" s="22" t="s">
         <v>43</v>
@@ -27579,7 +27581,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="420" ht="15" customHeight="1">
+    <row r="420" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="25"/>
       <c r="B420" s="22" t="s">
         <v>43</v>
@@ -27627,7 +27629,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="421" ht="15" customHeight="1">
+    <row r="421" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="25"/>
       <c r="B421" s="22" t="s">
         <v>43</v>
@@ -27675,7 +27677,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="422" ht="15" customHeight="1">
+    <row r="422" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="25"/>
       <c r="B422" s="22" t="s">
         <v>43</v>
@@ -27723,7 +27725,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="423" ht="15" customHeight="1">
+    <row r="423" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="25"/>
       <c r="B423" s="22" t="s">
         <v>43</v>
@@ -27771,7 +27773,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="424" ht="15" customHeight="1">
+    <row r="424" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="25"/>
       <c r="B424" s="22" t="s">
         <v>43</v>
@@ -27819,7 +27821,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="425" ht="15" customHeight="1">
+    <row r="425" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="25"/>
       <c r="B425" s="22" t="s">
         <v>43</v>
@@ -27867,7 +27869,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="426" ht="15" customHeight="1">
+    <row r="426" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="25"/>
       <c r="B426" s="22" t="s">
         <v>43</v>
@@ -27915,7 +27917,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="427" ht="15" customHeight="1">
+    <row r="427" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="25"/>
       <c r="B427" s="22" t="s">
         <v>43</v>
@@ -27963,7 +27965,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="428" ht="15" customHeight="1">
+    <row r="428" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="25"/>
       <c r="B428" s="22" t="s">
         <v>43</v>
@@ -28011,7 +28013,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="429" ht="15" customHeight="1">
+    <row r="429" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="25"/>
       <c r="B429" s="22" t="s">
         <v>43</v>
@@ -28059,7 +28061,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="430" ht="15" customHeight="1">
+    <row r="430" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="25"/>
       <c r="B430" s="22" t="s">
         <v>43</v>
@@ -28107,7 +28109,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="431" ht="15" customHeight="1">
+    <row r="431" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="25"/>
       <c r="B431" s="22" t="s">
         <v>43</v>
@@ -28155,7 +28157,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="432" ht="15" customHeight="1">
+    <row r="432" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="25"/>
       <c r="B432" s="22" t="s">
         <v>43</v>
@@ -28203,7 +28205,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="433" ht="15" customHeight="1">
+    <row r="433" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="25"/>
       <c r="B433" s="22" t="s">
         <v>43</v>
@@ -28251,7 +28253,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="434" ht="15" customHeight="1">
+    <row r="434" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="25"/>
       <c r="B434" s="22" t="s">
         <v>43</v>
@@ -28299,7 +28301,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="435" ht="15" customHeight="1">
+    <row r="435" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="25"/>
       <c r="B435" s="22" t="s">
         <v>43</v>
@@ -28344,7 +28346,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="436" ht="15" customHeight="1">
+    <row r="436" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="25"/>
       <c r="B436" s="22" t="s">
         <v>43</v>
@@ -28392,7 +28394,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="437" ht="15" customHeight="1">
+    <row r="437" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="25"/>
       <c r="B437" s="22" t="s">
         <v>43</v>
@@ -28440,7 +28442,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="438" ht="15" customHeight="1">
+    <row r="438" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="25"/>
       <c r="B438" s="22" t="s">
         <v>43</v>
@@ -28488,7 +28490,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="439" ht="15" customHeight="1">
+    <row r="439" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="25"/>
       <c r="B439" s="22" t="s">
         <v>43</v>
@@ -28536,7 +28538,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="440" ht="15" customHeight="1">
+    <row r="440" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="25"/>
       <c r="B440" s="22" t="s">
         <v>43</v>
@@ -28584,7 +28586,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="441" ht="15" customHeight="1">
+    <row r="441" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="25"/>
       <c r="B441" s="22" t="s">
         <v>43</v>
@@ -28632,7 +28634,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="442" ht="15" customHeight="1">
+    <row r="442" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="25"/>
       <c r="B442" s="22" t="s">
         <v>43</v>
@@ -28680,7 +28682,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="443" ht="15" customHeight="1">
+    <row r="443" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="25"/>
       <c r="B443" s="22" t="s">
         <v>43</v>
@@ -28728,7 +28730,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="444" ht="15" customHeight="1">
+    <row r="444" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="25"/>
       <c r="B444" s="22" t="s">
         <v>43</v>
@@ -28773,7 +28775,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="445" ht="15" customHeight="1">
+    <row r="445" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="25"/>
       <c r="B445" s="22" t="s">
         <v>43</v>
@@ -28821,7 +28823,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="446" ht="15" customHeight="1">
+    <row r="446" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="25"/>
       <c r="B446" s="22" t="s">
         <v>43</v>
@@ -28869,7 +28871,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="447" ht="15" customHeight="1">
+    <row r="447" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="25"/>
       <c r="B447" s="22" t="s">
         <v>43</v>
@@ -28917,7 +28919,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="448" ht="15" customHeight="1">
+    <row r="448" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="25"/>
       <c r="B448" s="22" t="s">
         <v>43</v>
@@ -28965,7 +28967,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="449" ht="15" customHeight="1">
+    <row r="449" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="22" t="s">
         <v>43</v>
       </c>
@@ -29012,7 +29014,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="450" ht="15" customHeight="1">
+    <row r="450" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="22" t="s">
         <v>43</v>
       </c>
@@ -29059,7 +29061,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="451" ht="15" customHeight="1">
+    <row r="451" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="22" t="s">
         <v>43</v>
       </c>
@@ -29106,7 +29108,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="452" ht="15" customHeight="1">
+    <row r="452" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="22" t="s">
         <v>43</v>
       </c>
@@ -29153,7 +29155,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="453" ht="15" customHeight="1">
+    <row r="453" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="22" t="s">
         <v>43</v>
       </c>
@@ -29200,7 +29202,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="454" ht="15" customHeight="1">
+    <row r="454" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="22" t="s">
         <v>43</v>
       </c>
@@ -29247,14 +29249,14 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="455" ht="15.5">
+    <row r="455" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C455" s="28"/>
       <c r="G455" s="24"/>
       <c r="I455" s="23" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="456" ht="15" customHeight="1">
+    <row r="456" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B456" s="22" t="s">
         <v>43</v>
       </c>
@@ -29301,7 +29303,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="457" ht="15" customHeight="1">
+    <row r="457" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B457" s="22" t="s">
         <v>43</v>
       </c>
@@ -29348,7 +29350,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="458" ht="15" customHeight="1">
+    <row r="458" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B458" s="22" t="s">
         <v>43</v>
       </c>
@@ -29395,7 +29397,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="459" ht="15" customHeight="1">
+    <row r="459" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B459" s="22" t="s">
         <v>43</v>
       </c>
@@ -29442,7 +29444,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="460" ht="15" customHeight="1">
+    <row r="460" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B460" s="22" t="s">
         <v>43</v>
       </c>
@@ -29489,7 +29491,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="461" ht="15" customHeight="1">
+    <row r="461" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B461" s="22" t="s">
         <v>43</v>
       </c>
@@ -29536,7 +29538,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="462" ht="15" customHeight="1">
+    <row r="462" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="22" t="s">
         <v>43</v>
       </c>
@@ -29583,7 +29585,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="463" ht="15" customHeight="1">
+    <row r="463" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="22" t="s">
         <v>43</v>
       </c>
@@ -29630,7 +29632,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="464" ht="15" customHeight="1">
+    <row r="464" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="22" t="s">
         <v>43</v>
       </c>
@@ -29677,7 +29679,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="465" ht="15" customHeight="1">
+    <row r="465" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="22" t="s">
         <v>43</v>
       </c>
@@ -29724,7 +29726,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="466" ht="15" customHeight="1">
+    <row r="466" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="22" t="s">
         <v>43</v>
       </c>
@@ -29771,7 +29773,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="467" ht="15" customHeight="1">
+    <row r="467" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="22" t="s">
         <v>43</v>
       </c>
@@ -29818,7 +29820,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="468" ht="15" customHeight="1">
+    <row r="468" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="22" t="s">
         <v>43</v>
       </c>
@@ -29865,7 +29867,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="469" ht="15" customHeight="1">
+    <row r="469" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="22" t="s">
         <v>43</v>
       </c>
@@ -29912,7 +29914,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="470" ht="15" customHeight="1">
+    <row r="470" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="22" t="s">
         <v>43</v>
       </c>
@@ -29959,7 +29961,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="471" ht="15" customHeight="1">
+    <row r="471" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="22" t="s">
         <v>43</v>
       </c>
@@ -30006,7 +30008,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="472" ht="15" customHeight="1">
+    <row r="472" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B472" s="22" t="s">
         <v>43</v>
       </c>
@@ -30053,7 +30055,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="473" ht="15" customHeight="1">
+    <row r="473" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B473" s="22" t="s">
         <v>43</v>
       </c>
@@ -30100,7 +30102,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="474" ht="15" customHeight="1">
+    <row r="474" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="22" t="s">
         <v>43</v>
       </c>
@@ -30147,7 +30149,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="475" ht="15" customHeight="1">
+    <row r="475" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B475" s="22" t="s">
         <v>43</v>
       </c>
@@ -30194,7 +30196,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="476" ht="15" customHeight="1">
+    <row r="476" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B476" s="22" t="s">
         <v>43</v>
       </c>
@@ -30241,7 +30243,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="477" ht="15" customHeight="1">
+    <row r="477" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="22" t="s">
         <v>43</v>
       </c>
@@ -30288,7 +30290,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="478" ht="15" customHeight="1">
+    <row r="478" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B478" s="22" t="s">
         <v>43</v>
       </c>
@@ -30335,7 +30337,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="479" ht="15" customHeight="1">
+    <row r="479" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="22" t="s">
         <v>43</v>
       </c>
@@ -30382,7 +30384,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="480" ht="15" customHeight="1">
+    <row r="480" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="22" t="s">
         <v>43</v>
       </c>
@@ -30429,7 +30431,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="481" ht="15" customHeight="1">
+    <row r="481" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="22" t="s">
         <v>43</v>
       </c>
@@ -30476,7 +30478,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="482" ht="15" customHeight="1">
+    <row r="482" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B482" s="22" t="s">
         <v>43</v>
       </c>
@@ -30523,7 +30525,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="483" ht="15" customHeight="1">
+    <row r="483" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="22" t="s">
         <v>43</v>
       </c>
@@ -30570,7 +30572,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="484" ht="15" customHeight="1">
+    <row r="484" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B484" s="22" t="s">
         <v>43</v>
       </c>
@@ -30617,7 +30619,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="485" ht="15" customHeight="1">
+    <row r="485" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="22" t="s">
         <v>43</v>
       </c>
@@ -30664,7 +30666,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="486" ht="15" customHeight="1">
+    <row r="486" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="22" t="s">
         <v>43</v>
       </c>
@@ -30711,7 +30713,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="487" ht="15" customHeight="1">
+    <row r="487" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="22" t="s">
         <v>1926</v>
       </c>
@@ -30749,7 +30751,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="488" ht="31">
+    <row r="488" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C488" s="24">
         <v>45334</v>
       </c>
@@ -30772,16 +30774,13 @@
         <v>1803</v>
       </c>
       <c r="J488" s="21" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="K488" s="22" t="s">
-        <v>1935</v>
-      </c>
-      <c r="M488" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="489" ht="31">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A489" s="22">
         <v>1</v>
       </c>
@@ -30792,7 +30791,7 @@
         <v>45334</v>
       </c>
       <c r="D489" s="22" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E489" s="22">
         <v>743506</v>
@@ -30809,17 +30808,8 @@
       <c r="I489" s="23" t="s">
         <v>1803</v>
       </c>
-      <c r="J489" s="21" t="s">
-        <v>1931</v>
-      </c>
-      <c r="K489" s="22" t="s">
-        <v>1936</v>
-      </c>
-      <c r="M489" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="490" ht="15" customHeight="1">
+    </row>
+    <row r="490" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="22">
         <v>1</v>
       </c>
@@ -30829,9 +30819,6 @@
       <c r="C490" s="24">
         <v>45335</v>
       </c>
-      <c r="D490" s="22" t="s">
-        <v>1931</v>
-      </c>
       <c r="E490" s="22">
         <v>743506</v>
       </c>
@@ -30847,14 +30834,8 @@
       <c r="I490" s="23" t="s">
         <v>1803</v>
       </c>
-      <c r="J490" s="21" t="s">
-        <v>1931</v>
-      </c>
-      <c r="M490" s="22" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="491" ht="15" customHeight="1">
+    </row>
+    <row r="491" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="22">
         <v>1</v>
       </c>
@@ -30865,7 +30846,7 @@
         <v>45336</v>
       </c>
       <c r="D491" s="22" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="E491" s="22">
         <v>743506</v>
@@ -30879,20 +30860,8 @@
       <c r="H491" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I491" s="23" t="s">
-        <v>1803</v>
-      </c>
-      <c r="J491" s="21" t="s">
-        <v>1931</v>
-      </c>
-      <c r="K491" s="22" t="s">
-        <v>1932</v>
-      </c>
-      <c r="M491" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="492" ht="15" customHeight="1">
+    </row>
+    <row r="492" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="22">
         <v>1</v>
       </c>
@@ -30903,7 +30872,7 @@
         <v>45337</v>
       </c>
       <c r="D492" s="22" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="E492" s="22">
         <v>743506</v>
@@ -30920,11 +30889,14 @@
       <c r="I492" s="23" t="s">
         <v>1803</v>
       </c>
-      <c r="M492" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="493" ht="15" customHeight="1">
+      <c r="J492" s="21" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K492" s="22" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="22">
         <v>1</v>
       </c>
@@ -30953,18 +30925,15 @@
         <v>1803</v>
       </c>
       <c r="J493" s="21" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="K493" s="22" t="s">
-        <v>1937</v>
-      </c>
-      <c r="M493" s="22" t="s">
-        <v>147</v>
+        <v>1938</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:Q164" xr:uid="{47BC2855-8022-416F-91A2-3AC429B35897}"/>
-  <mergeCells>
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:L1"/>
@@ -30973,90 +30942,90 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="2" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D28 D30:D32 D34:D159">
-    <cfRule type="duplicateValues" dxfId="2" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375 D165:D206 D211 D213:D298 D343:D344 D377:D486 D488:D1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E160">
-    <cfRule type="duplicateValues" dxfId="2" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165:E298 E1:E3 E343:E344 E375:E1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="2" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:I3">
-    <cfRule type="duplicateValues" dxfId="2" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3 A2:C2">
-    <cfRule type="duplicateValues" dxfId="2" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="2" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="2" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="duplicateValues" dxfId="2" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I173">
-    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="2" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="2" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81">
-    <cfRule type="duplicateValues" dxfId="2" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="duplicateValues" dxfId="2" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J202">
-    <cfRule type="duplicateValues" dxfId="2" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J203">
-    <cfRule type="duplicateValues" dxfId="2" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J204">
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J205">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J206">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78:K78">
-    <cfRule type="duplicateValues" dxfId="2" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="duplicateValues" dxfId="2" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K160">
-    <cfRule type="duplicateValues" dxfId="2" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="duplicateValues" dxfId="2" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="88"/>
     <cfRule type="duplicateValues" dxfId="2" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q3">
@@ -31083,12 +31052,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8A7D1B-1B83-4C70-97BE-F9B2DE0C1986}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
       <selection sqref="A1:A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -31098,6 +31068,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="691f3940-da01-4610-8a13-7e6f036c2548" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dbb798-63e8-4411-94d7-398665c805e3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="691f3940-da01-4610-8a13-7e6f036c2548">
+      <UserInfo>
+        <DisplayName>Odunayo Olufemi</DisplayName>
+        <AccountId>340</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010035F00B5F6B81D145829BBB93F2043D07" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c024d4678e8ddd8c8a664f05a2d02ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74dbb798-63e8-4411-94d7-398665c805e3" xmlns:ns3="691f3940-da01-4610-8a13-7e6f036c2548" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee14520912c247aa9ad2f1820187504a" ns2:_="" ns3:_="">
     <xsd:import namespace="74dbb798-63e8-4411-94d7-398665c805e3"/>
@@ -31352,34 +31349,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD4AE5-A275-4710-96E6-3074C94F50BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="691f3940-da01-4610-8a13-7e6f036c2548"/>
+    <ds:schemaRef ds:uri="74dbb798-63e8-4411-94d7-398665c805e3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="691f3940-da01-4610-8a13-7e6f036c2548" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dbb798-63e8-4411-94d7-398665c805e3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="691f3940-da01-4610-8a13-7e6f036c2548">
-      <UserInfo>
-        <DisplayName>Odunayo Olufemi</DisplayName>
-        <AccountId>340</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD201087-7430-4DBC-91FB-E5375E0F53E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20E6ECBA-E825-4808-AC15-32F716C0C131}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31396,23 +31385,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD201087-7430-4DBC-91FB-E5375E0F53E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD4AE5-A275-4710-96E6-3074C94F50BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="691f3940-da01-4610-8a13-7e6f036c2548"/>
-    <ds:schemaRef ds:uri="74dbb798-63e8-4411-94d7-398665c805e3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LandRegistryProject/TestDatas/TittleNumer.xlsx
+++ b/LandRegistryProject/TestDatas/TittleNumer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amos.Awaghade\source\repos\LandRegistryBulk-Discharge-Automation\LandRegistryProject\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB16F74D-4940-4443-AED2-B4D94FA19F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85AB906-ED2E-4ADD-A096-AF4000A7C10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{400498CB-F334-4E68-B062-A427E2481F8E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5030" uniqueCount="1939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5031" uniqueCount="1940">
   <si>
     <t>Daily Download</t>
   </si>
@@ -5461,6 +5461,9 @@
     <t>HD602384</t>
   </si>
   <si>
+    <t>No value in Field 'HMLR Title No' or 'Full Asset Address'.</t>
+  </si>
+  <si>
     <t>1 Slater Way Ilkeston DE7 4SL</t>
   </si>
   <si>
@@ -5845,6 +5848,9 @@
     <t>31 Wallace Green Way,  Stevenage (SG2 7FB)</t>
   </si>
   <si>
+    <t>HD602384, 31 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
+  </si>
+  <si>
     <t>31 Wallace Green Way, Walkern, Stevenage (SG2 7FA)</t>
   </si>
   <si>
@@ -5854,23 +5860,20 @@
     <t>Zk</t>
   </si>
   <si>
-    <t>HD602384, 31 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
-  </si>
-  <si>
-    <t>HD602384/I821RHT/227</t>
-  </si>
-  <si>
-    <t>HD602384/K821RHT/227</t>
-  </si>
-  <si>
-    <t>HD602384/M821RHT/227</t>
+    <t>HD602384/Z085RHT/228</t>
+  </si>
+  <si>
+    <t>HD602384/D185RHT/228</t>
+  </si>
+  <si>
+    <t>HD602384/H185RHT/228</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6803,7 +6806,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>3041</xdr:row>
-      <xdr:rowOff>80044</xdr:rowOff>
+      <xdr:rowOff>80043</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6901,7 +6904,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>3043</xdr:row>
-      <xdr:rowOff>7454</xdr:rowOff>
+      <xdr:rowOff>7453</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7293,11 +7296,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8018EBFC-BBDD-47D5-8A8F-DFE2D059D3E8}">
   <dimension ref="A1:R493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J470" sqref="J470"/>
+    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M488" sqref="M488:M493"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="22" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="24" customWidth="1"/>
@@ -7315,11 +7318,11 @@
     <col min="15" max="15" width="14.42578125" style="24" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="22" customWidth="1"/>
     <col min="17" max="17" width="59" style="22" customWidth="1"/>
-    <col min="18" max="40" width="9.140625" style="22" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="22"/>
+    <col min="18" max="41" width="9.140625" style="22" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
@@ -7349,7 +7352,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="48" customHeight="1">
       <c r="A2" s="79" t="s">
         <v>5</v>
       </c>
@@ -7381,7 +7384,7 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="67.5" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -7435,7 +7438,7 @@
       </c>
       <c r="R3" s="21"/>
     </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
@@ -7489,7 +7492,7 @@
       </c>
       <c r="R4" s="21"/>
     </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>28</v>
       </c>
@@ -7540,7 +7543,7 @@
       </c>
       <c r="R5" s="21"/>
     </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -7591,7 +7594,7 @@
       </c>
       <c r="R6" s="21"/>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>43</v>
       </c>
@@ -7642,7 +7645,7 @@
       </c>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>43</v>
       </c>
@@ -7693,7 +7696,7 @@
       </c>
       <c r="R8" s="21"/>
     </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>43</v>
       </c>
@@ -7741,7 +7744,7 @@
       </c>
       <c r="R9" s="21"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>43</v>
       </c>
@@ -7792,7 +7795,7 @@
       </c>
       <c r="R10" s="21"/>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" customHeight="1">
       <c r="A11" s="22" t="s">
         <v>43</v>
       </c>
@@ -7843,7 +7846,7 @@
       </c>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>43</v>
       </c>
@@ -7894,7 +7897,7 @@
       </c>
       <c r="R12" s="21"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" customHeight="1">
       <c r="A13" s="22" t="s">
         <v>43</v>
       </c>
@@ -7945,7 +7948,7 @@
       </c>
       <c r="R13" s="21"/>
     </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15" customHeight="1">
       <c r="A14" s="22" t="s">
         <v>43</v>
       </c>
@@ -7996,7 +7999,7 @@
       </c>
       <c r="R14" s="21"/>
     </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" customHeight="1">
       <c r="A15" s="22" t="s">
         <v>43</v>
       </c>
@@ -8047,7 +8050,7 @@
       </c>
       <c r="R15" s="21"/>
     </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15" customHeight="1">
       <c r="A16" s="22" t="s">
         <v>43</v>
       </c>
@@ -8098,7 +8101,7 @@
       </c>
       <c r="R16" s="21"/>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15" customHeight="1">
       <c r="A17" s="22" t="s">
         <v>43</v>
       </c>
@@ -8149,7 +8152,7 @@
       </c>
       <c r="R17" s="21"/>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15" customHeight="1">
       <c r="A18" s="22" t="s">
         <v>43</v>
       </c>
@@ -8200,7 +8203,7 @@
       </c>
       <c r="R18" s="21"/>
     </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15" customHeight="1">
       <c r="A19" s="22" t="s">
         <v>43</v>
       </c>
@@ -8251,7 +8254,7 @@
       </c>
       <c r="R19" s="21"/>
     </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15" customHeight="1">
       <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
@@ -8302,7 +8305,7 @@
       </c>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15" customHeight="1">
       <c r="A21" s="22" t="s">
         <v>43</v>
       </c>
@@ -8353,7 +8356,7 @@
       </c>
       <c r="R21" s="21"/>
     </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="15" customHeight="1">
       <c r="A22" s="22" t="s">
         <v>43</v>
       </c>
@@ -8404,7 +8407,7 @@
       </c>
       <c r="R22" s="21"/>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15" customHeight="1">
       <c r="A23" s="22" t="s">
         <v>43</v>
       </c>
@@ -8455,7 +8458,7 @@
       </c>
       <c r="R23" s="21"/>
     </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15" customHeight="1">
       <c r="A24" s="22" t="s">
         <v>43</v>
       </c>
@@ -8506,7 +8509,7 @@
       </c>
       <c r="R24" s="21"/>
     </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="15" customHeight="1">
       <c r="A25" s="22" t="s">
         <v>43</v>
       </c>
@@ -8557,7 +8560,7 @@
       </c>
       <c r="R25" s="21"/>
     </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15" customHeight="1">
       <c r="A26" s="22" t="s">
         <v>43</v>
       </c>
@@ -8608,7 +8611,7 @@
       </c>
       <c r="R26" s="21"/>
     </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15" customHeight="1">
       <c r="A27" s="22" t="s">
         <v>43</v>
       </c>
@@ -8659,7 +8662,7 @@
       </c>
       <c r="R27" s="21"/>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15" customHeight="1">
       <c r="A28" s="22" t="s">
         <v>43</v>
       </c>
@@ -8710,7 +8713,7 @@
       </c>
       <c r="R28" s="21"/>
     </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15" customHeight="1">
       <c r="A29" s="22" t="s">
         <v>43</v>
       </c>
@@ -8761,7 +8764,7 @@
       </c>
       <c r="R29" s="21"/>
     </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="15" customHeight="1">
       <c r="A30" s="22" t="s">
         <v>43</v>
       </c>
@@ -8812,7 +8815,7 @@
       </c>
       <c r="R30" s="21"/>
     </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15" customHeight="1">
       <c r="A31" s="22" t="s">
         <v>43</v>
       </c>
@@ -8863,7 +8866,7 @@
       </c>
       <c r="R31" s="21"/>
     </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15" customHeight="1">
       <c r="A32" s="22" t="s">
         <v>43</v>
       </c>
@@ -8914,7 +8917,7 @@
       </c>
       <c r="R32" s="21"/>
     </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15" customHeight="1">
       <c r="A33" s="22" t="s">
         <v>43</v>
       </c>
@@ -8968,7 +8971,7 @@
       </c>
       <c r="R33" s="21"/>
     </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15" customHeight="1">
       <c r="A34" s="22" t="s">
         <v>43</v>
       </c>
@@ -9019,7 +9022,7 @@
       </c>
       <c r="R34" s="21"/>
     </row>
-    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15" customHeight="1">
       <c r="A35" s="22" t="s">
         <v>43</v>
       </c>
@@ -9070,7 +9073,7 @@
       </c>
       <c r="R35" s="21"/>
     </row>
-    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15" customHeight="1">
       <c r="A36" s="22" t="s">
         <v>43</v>
       </c>
@@ -9121,7 +9124,7 @@
       </c>
       <c r="R36" s="21"/>
     </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="15" customHeight="1">
       <c r="A37" s="22" t="s">
         <v>43</v>
       </c>
@@ -9172,7 +9175,7 @@
       </c>
       <c r="R37" s="21"/>
     </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15" customHeight="1">
       <c r="A38" s="22" t="s">
         <v>43</v>
       </c>
@@ -9223,7 +9226,7 @@
       </c>
       <c r="R38" s="21"/>
     </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="15" customHeight="1">
       <c r="A39" s="22" t="s">
         <v>43</v>
       </c>
@@ -9274,7 +9277,7 @@
       </c>
       <c r="R39" s="21"/>
     </row>
-    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="15" customHeight="1">
       <c r="A40" s="22" t="s">
         <v>43</v>
       </c>
@@ -9325,7 +9328,7 @@
       </c>
       <c r="R40" s="21"/>
     </row>
-    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="15" customHeight="1">
       <c r="A41" s="22" t="s">
         <v>43</v>
       </c>
@@ -9376,7 +9379,7 @@
       </c>
       <c r="R41" s="21"/>
     </row>
-    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="15" customHeight="1">
       <c r="A42" s="22" t="s">
         <v>43</v>
       </c>
@@ -9427,7 +9430,7 @@
       </c>
       <c r="R42" s="21"/>
     </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="15" customHeight="1">
       <c r="A43" s="22" t="s">
         <v>43</v>
       </c>
@@ -9478,7 +9481,7 @@
       </c>
       <c r="R43" s="21"/>
     </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="15" customHeight="1">
       <c r="A44" s="22" t="s">
         <v>43</v>
       </c>
@@ -9529,7 +9532,7 @@
       </c>
       <c r="R44" s="21"/>
     </row>
-    <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="15" customHeight="1">
       <c r="A45" s="22" t="s">
         <v>43</v>
       </c>
@@ -9580,7 +9583,7 @@
       </c>
       <c r="R45" s="21"/>
     </row>
-    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="15" customHeight="1">
       <c r="A46" s="22" t="s">
         <v>43</v>
       </c>
@@ -9631,7 +9634,7 @@
       </c>
       <c r="R46" s="21"/>
     </row>
-    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="15" customHeight="1">
       <c r="A47" s="22" t="s">
         <v>43</v>
       </c>
@@ -9682,7 +9685,7 @@
       </c>
       <c r="R47" s="21"/>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="15" customHeight="1">
       <c r="A48" s="22" t="s">
         <v>43</v>
       </c>
@@ -9733,7 +9736,7 @@
       </c>
       <c r="R48" s="21"/>
     </row>
-    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="15" customHeight="1">
       <c r="A49" s="22" t="s">
         <v>43</v>
       </c>
@@ -9784,7 +9787,7 @@
       </c>
       <c r="R49" s="21"/>
     </row>
-    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="15" customHeight="1">
       <c r="A50" s="22" t="s">
         <v>43</v>
       </c>
@@ -9835,7 +9838,7 @@
       </c>
       <c r="R50" s="21"/>
     </row>
-    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="15" customHeight="1">
       <c r="A51" s="22" t="s">
         <v>43</v>
       </c>
@@ -9886,7 +9889,7 @@
       </c>
       <c r="R51" s="21"/>
     </row>
-    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="15" customHeight="1">
       <c r="A52" s="22" t="s">
         <v>43</v>
       </c>
@@ -9937,7 +9940,7 @@
       </c>
       <c r="R52" s="21"/>
     </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="15" customHeight="1">
       <c r="A53" s="22" t="s">
         <v>43</v>
       </c>
@@ -9988,7 +9991,7 @@
       </c>
       <c r="R53" s="21"/>
     </row>
-    <row r="54" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="15" customHeight="1">
       <c r="A54" s="22" t="s">
         <v>43</v>
       </c>
@@ -10039,7 +10042,7 @@
       </c>
       <c r="R54" s="21"/>
     </row>
-    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="15" customHeight="1">
       <c r="A55" s="22" t="s">
         <v>43</v>
       </c>
@@ -10090,7 +10093,7 @@
       </c>
       <c r="R55" s="21"/>
     </row>
-    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="15" customHeight="1">
       <c r="A56" s="22" t="s">
         <v>43</v>
       </c>
@@ -10141,7 +10144,7 @@
       </c>
       <c r="R56" s="21"/>
     </row>
-    <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="15" customHeight="1">
       <c r="A57" s="22" t="s">
         <v>43</v>
       </c>
@@ -10192,7 +10195,7 @@
       </c>
       <c r="R57" s="21"/>
     </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="15" customHeight="1">
       <c r="A58" s="22" t="s">
         <v>43</v>
       </c>
@@ -10243,7 +10246,7 @@
       </c>
       <c r="R58" s="21"/>
     </row>
-    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="15" customHeight="1">
       <c r="A59" s="22" t="s">
         <v>43</v>
       </c>
@@ -10294,7 +10297,7 @@
       </c>
       <c r="R59" s="21"/>
     </row>
-    <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="15" customHeight="1">
       <c r="A60" s="22" t="s">
         <v>43</v>
       </c>
@@ -10345,7 +10348,7 @@
       </c>
       <c r="R60" s="21"/>
     </row>
-    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="15" customHeight="1">
       <c r="A61" s="22" t="s">
         <v>43</v>
       </c>
@@ -10396,7 +10399,7 @@
       </c>
       <c r="R61" s="21"/>
     </row>
-    <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15" customHeight="1">
       <c r="A62" s="22" t="s">
         <v>43</v>
       </c>
@@ -10447,7 +10450,7 @@
       </c>
       <c r="R62" s="21"/>
     </row>
-    <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15" customHeight="1">
       <c r="A63" s="22" t="s">
         <v>43</v>
       </c>
@@ -10498,7 +10501,7 @@
       </c>
       <c r="R63" s="21"/>
     </row>
-    <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="15" customHeight="1">
       <c r="A64" s="22" t="s">
         <v>43</v>
       </c>
@@ -10549,7 +10552,7 @@
       </c>
       <c r="R64" s="21"/>
     </row>
-    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="15" customHeight="1">
       <c r="A65" s="22" t="s">
         <v>43</v>
       </c>
@@ -10600,7 +10603,7 @@
       </c>
       <c r="R65" s="21"/>
     </row>
-    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="15" customHeight="1">
       <c r="A66" s="22" t="s">
         <v>43</v>
       </c>
@@ -10651,7 +10654,7 @@
       </c>
       <c r="R66" s="21"/>
     </row>
-    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="15" customHeight="1">
       <c r="A67" s="22" t="s">
         <v>43</v>
       </c>
@@ -10702,7 +10705,7 @@
       </c>
       <c r="R67" s="21"/>
     </row>
-    <row r="68" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="15" customHeight="1">
       <c r="A68" s="22" t="s">
         <v>43</v>
       </c>
@@ -10744,7 +10747,7 @@
       </c>
       <c r="R68" s="21"/>
     </row>
-    <row r="69" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="15" customHeight="1">
       <c r="A69" s="22" t="s">
         <v>43</v>
       </c>
@@ -10795,7 +10798,7 @@
       </c>
       <c r="R69" s="21"/>
     </row>
-    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="15" customHeight="1">
       <c r="A70" s="22" t="s">
         <v>43</v>
       </c>
@@ -10846,7 +10849,7 @@
       </c>
       <c r="R70" s="21"/>
     </row>
-    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="15" customHeight="1">
       <c r="A71" s="22" t="s">
         <v>43</v>
       </c>
@@ -10897,7 +10900,7 @@
       </c>
       <c r="R71" s="21"/>
     </row>
-    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="15" customHeight="1">
       <c r="A72" s="22" t="s">
         <v>43</v>
       </c>
@@ -10948,7 +10951,7 @@
       </c>
       <c r="R72" s="21"/>
     </row>
-    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15" customHeight="1">
       <c r="A73" s="22" t="s">
         <v>43</v>
       </c>
@@ -10999,7 +11002,7 @@
       </c>
       <c r="R73" s="21"/>
     </row>
-    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15" customHeight="1">
       <c r="A74" s="22" t="s">
         <v>43</v>
       </c>
@@ -11050,7 +11053,7 @@
       </c>
       <c r="R74" s="21"/>
     </row>
-    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15" customHeight="1">
       <c r="A75" s="22" t="s">
         <v>43</v>
       </c>
@@ -11101,7 +11104,7 @@
       </c>
       <c r="R75" s="21"/>
     </row>
-    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15" customHeight="1">
       <c r="A76" s="22" t="s">
         <v>43</v>
       </c>
@@ -11152,7 +11155,7 @@
       </c>
       <c r="R76" s="21"/>
     </row>
-    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="15" customHeight="1">
       <c r="A77" s="22" t="s">
         <v>43</v>
       </c>
@@ -11203,7 +11206,7 @@
       </c>
       <c r="R77" s="21"/>
     </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="15" customHeight="1">
       <c r="A78" s="22" t="s">
         <v>43</v>
       </c>
@@ -11257,7 +11260,7 @@
       </c>
       <c r="R78" s="21"/>
     </row>
-    <row r="79" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="15" customHeight="1">
       <c r="A79" s="22" t="s">
         <v>43</v>
       </c>
@@ -11308,7 +11311,7 @@
       </c>
       <c r="R79" s="21"/>
     </row>
-    <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="15" customHeight="1">
       <c r="A80" s="22" t="s">
         <v>43</v>
       </c>
@@ -11359,7 +11362,7 @@
       </c>
       <c r="R80" s="21"/>
     </row>
-    <row r="81" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="15" customHeight="1">
       <c r="A81" s="22" t="s">
         <v>43</v>
       </c>
@@ -11413,7 +11416,7 @@
       </c>
       <c r="R81" s="21"/>
     </row>
-    <row r="82" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="15" customHeight="1">
       <c r="A82" s="22" t="s">
         <v>43</v>
       </c>
@@ -11467,7 +11470,7 @@
       </c>
       <c r="R82" s="21"/>
     </row>
-    <row r="83" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="15" customHeight="1">
       <c r="A83" s="22" t="s">
         <v>43</v>
       </c>
@@ -11518,7 +11521,7 @@
       </c>
       <c r="R83" s="21"/>
     </row>
-    <row r="84" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="15" customHeight="1">
       <c r="A84" s="22" t="s">
         <v>43</v>
       </c>
@@ -11569,7 +11572,7 @@
       </c>
       <c r="R84" s="21"/>
     </row>
-    <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="15" customHeight="1">
       <c r="A85" s="22" t="s">
         <v>43</v>
       </c>
@@ -11620,7 +11623,7 @@
       </c>
       <c r="R85" s="21"/>
     </row>
-    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="15" customHeight="1">
       <c r="A86" s="22" t="s">
         <v>43</v>
       </c>
@@ -11671,7 +11674,7 @@
       </c>
       <c r="R86" s="21"/>
     </row>
-    <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="15" customHeight="1">
       <c r="A87" s="22" t="s">
         <v>43</v>
       </c>
@@ -11722,7 +11725,7 @@
       </c>
       <c r="R87" s="21"/>
     </row>
-    <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="15" customHeight="1">
       <c r="A88" s="22" t="s">
         <v>43</v>
       </c>
@@ -11773,7 +11776,7 @@
       </c>
       <c r="R88" s="21"/>
     </row>
-    <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="15" customHeight="1">
       <c r="A89" s="22" t="s">
         <v>43</v>
       </c>
@@ -11824,7 +11827,7 @@
       </c>
       <c r="R89" s="21"/>
     </row>
-    <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="15" customHeight="1">
       <c r="A90" s="22" t="s">
         <v>43</v>
       </c>
@@ -11875,7 +11878,7 @@
       </c>
       <c r="R90" s="21"/>
     </row>
-    <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="15" customHeight="1">
       <c r="A91" s="22" t="s">
         <v>43</v>
       </c>
@@ -11926,7 +11929,7 @@
       </c>
       <c r="R91" s="21"/>
     </row>
-    <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="15" customHeight="1">
       <c r="A92" s="22" t="s">
         <v>43</v>
       </c>
@@ -11977,7 +11980,7 @@
       </c>
       <c r="R92" s="21"/>
     </row>
-    <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="15" customHeight="1">
       <c r="A93" s="22" t="s">
         <v>43</v>
       </c>
@@ -12028,7 +12031,7 @@
       </c>
       <c r="R93" s="21"/>
     </row>
-    <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="15" customHeight="1">
       <c r="A94" s="22" t="s">
         <v>43</v>
       </c>
@@ -12076,7 +12079,7 @@
       </c>
       <c r="R94" s="21"/>
     </row>
-    <row r="95" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="15" customHeight="1">
       <c r="A95" s="22" t="s">
         <v>43</v>
       </c>
@@ -12127,7 +12130,7 @@
       </c>
       <c r="R95" s="21"/>
     </row>
-    <row r="96" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="15" customHeight="1">
       <c r="A96" s="22" t="s">
         <v>43</v>
       </c>
@@ -12178,7 +12181,7 @@
       </c>
       <c r="R96" s="21"/>
     </row>
-    <row r="97" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="15" customHeight="1">
       <c r="A97" s="22" t="s">
         <v>43</v>
       </c>
@@ -12229,7 +12232,7 @@
       </c>
       <c r="R97" s="21"/>
     </row>
-    <row r="98" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="15" customHeight="1">
       <c r="A98" s="22" t="s">
         <v>43</v>
       </c>
@@ -12280,7 +12283,7 @@
       </c>
       <c r="R98" s="21"/>
     </row>
-    <row r="99" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="15" customHeight="1">
       <c r="A99" s="22" t="s">
         <v>43</v>
       </c>
@@ -12331,7 +12334,7 @@
       </c>
       <c r="R99" s="21"/>
     </row>
-    <row r="100" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="15" customHeight="1">
       <c r="A100" s="22" t="s">
         <v>43</v>
       </c>
@@ -12382,7 +12385,7 @@
       </c>
       <c r="R100" s="21"/>
     </row>
-    <row r="101" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="15" customHeight="1">
       <c r="A101" s="22" t="s">
         <v>43</v>
       </c>
@@ -12433,7 +12436,7 @@
       </c>
       <c r="R101" s="21"/>
     </row>
-    <row r="102" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="15" customHeight="1">
       <c r="A102" s="22" t="s">
         <v>43</v>
       </c>
@@ -12484,7 +12487,7 @@
       </c>
       <c r="R102" s="21"/>
     </row>
-    <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="15" customHeight="1">
       <c r="A103" s="22" t="s">
         <v>43</v>
       </c>
@@ -12535,7 +12538,7 @@
       </c>
       <c r="R103" s="21"/>
     </row>
-    <row r="104" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="15" customHeight="1">
       <c r="A104" s="22" t="s">
         <v>43</v>
       </c>
@@ -12586,7 +12589,7 @@
       </c>
       <c r="R104" s="21"/>
     </row>
-    <row r="105" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="15" customHeight="1">
       <c r="A105" s="22" t="s">
         <v>43</v>
       </c>
@@ -12637,7 +12640,7 @@
       </c>
       <c r="R105" s="21"/>
     </row>
-    <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="15" customHeight="1">
       <c r="A106" s="22" t="s">
         <v>43</v>
       </c>
@@ -12688,7 +12691,7 @@
       </c>
       <c r="R106" s="21"/>
     </row>
-    <row r="107" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="15" customHeight="1">
       <c r="A107" s="22" t="s">
         <v>43</v>
       </c>
@@ -12739,7 +12742,7 @@
       </c>
       <c r="R107" s="21"/>
     </row>
-    <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" ht="15" customHeight="1">
       <c r="A108" s="22" t="s">
         <v>43</v>
       </c>
@@ -12790,7 +12793,7 @@
       </c>
       <c r="R108" s="21"/>
     </row>
-    <row r="109" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="15" customHeight="1">
       <c r="A109" s="22" t="s">
         <v>43</v>
       </c>
@@ -12841,7 +12844,7 @@
       </c>
       <c r="R109" s="21"/>
     </row>
-    <row r="110" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="15" customHeight="1">
       <c r="A110" s="22" t="s">
         <v>43</v>
       </c>
@@ -12892,7 +12895,7 @@
       </c>
       <c r="R110" s="21"/>
     </row>
-    <row r="111" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" ht="15" customHeight="1">
       <c r="A111" s="22" t="s">
         <v>43</v>
       </c>
@@ -12943,7 +12946,7 @@
       </c>
       <c r="R111" s="21"/>
     </row>
-    <row r="112" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" ht="15" customHeight="1">
       <c r="A112" s="22" t="s">
         <v>43</v>
       </c>
@@ -12994,7 +12997,7 @@
       </c>
       <c r="R112" s="21"/>
     </row>
-    <row r="113" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" ht="15" customHeight="1">
       <c r="A113" s="22" t="s">
         <v>43</v>
       </c>
@@ -13045,7 +13048,7 @@
       </c>
       <c r="R113" s="21"/>
     </row>
-    <row r="114" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="15" customHeight="1">
       <c r="A114" s="22" t="s">
         <v>43</v>
       </c>
@@ -13096,7 +13099,7 @@
       </c>
       <c r="R114" s="21"/>
     </row>
-    <row r="115" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="15" customHeight="1">
       <c r="A115" s="22" t="s">
         <v>43</v>
       </c>
@@ -13147,7 +13150,7 @@
       </c>
       <c r="R115" s="21"/>
     </row>
-    <row r="116" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="15" customHeight="1">
       <c r="A116" s="22" t="s">
         <v>43</v>
       </c>
@@ -13198,7 +13201,7 @@
       </c>
       <c r="R116" s="21"/>
     </row>
-    <row r="117" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" ht="15" customHeight="1">
       <c r="A117" s="22" t="s">
         <v>43</v>
       </c>
@@ -13249,7 +13252,7 @@
       </c>
       <c r="R117" s="21"/>
     </row>
-    <row r="118" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="15" customHeight="1">
       <c r="A118" s="22" t="s">
         <v>43</v>
       </c>
@@ -13300,7 +13303,7 @@
       </c>
       <c r="R118" s="21"/>
     </row>
-    <row r="119" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="15" customHeight="1">
       <c r="A119" s="22" t="s">
         <v>43</v>
       </c>
@@ -13351,7 +13354,7 @@
       </c>
       <c r="R119" s="21"/>
     </row>
-    <row r="120" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" ht="15" customHeight="1">
       <c r="A120" s="22" t="s">
         <v>43</v>
       </c>
@@ -13402,7 +13405,7 @@
       </c>
       <c r="R120" s="21"/>
     </row>
-    <row r="121" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" ht="15" customHeight="1">
       <c r="A121" s="22" t="s">
         <v>43</v>
       </c>
@@ -13453,7 +13456,7 @@
       </c>
       <c r="R121" s="21"/>
     </row>
-    <row r="122" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" ht="15" customHeight="1">
       <c r="A122" s="22" t="s">
         <v>43</v>
       </c>
@@ -13504,7 +13507,7 @@
       </c>
       <c r="R122" s="21"/>
     </row>
-    <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="15" customHeight="1">
       <c r="A123" s="22" t="s">
         <v>43</v>
       </c>
@@ -13555,7 +13558,7 @@
       </c>
       <c r="R123" s="21"/>
     </row>
-    <row r="124" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" ht="15" customHeight="1">
       <c r="A124" s="22" t="s">
         <v>43</v>
       </c>
@@ -13606,7 +13609,7 @@
       </c>
       <c r="R124" s="21"/>
     </row>
-    <row r="125" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" ht="15" customHeight="1">
       <c r="A125" s="22" t="s">
         <v>43</v>
       </c>
@@ -13657,7 +13660,7 @@
       </c>
       <c r="R125" s="21"/>
     </row>
-    <row r="126" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="15" customHeight="1">
       <c r="A126" s="22" t="s">
         <v>43</v>
       </c>
@@ -13708,7 +13711,7 @@
       </c>
       <c r="R126" s="21"/>
     </row>
-    <row r="127" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" ht="15" customHeight="1">
       <c r="A127" s="22" t="s">
         <v>43</v>
       </c>
@@ -13759,7 +13762,7 @@
       </c>
       <c r="R127" s="21"/>
     </row>
-    <row r="128" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="15" customHeight="1">
       <c r="A128" s="22" t="s">
         <v>43</v>
       </c>
@@ -13810,7 +13813,7 @@
       </c>
       <c r="R128" s="21"/>
     </row>
-    <row r="129" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="15" customHeight="1">
       <c r="A129" s="22" t="s">
         <v>43</v>
       </c>
@@ -13861,7 +13864,7 @@
       </c>
       <c r="R129" s="21"/>
     </row>
-    <row r="130" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="15" customHeight="1">
       <c r="A130" s="22" t="s">
         <v>28</v>
       </c>
@@ -13912,7 +13915,7 @@
       </c>
       <c r="R130" s="21"/>
     </row>
-    <row r="131" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="15" customHeight="1">
       <c r="A131" s="22" t="s">
         <v>28</v>
       </c>
@@ -13963,7 +13966,7 @@
       </c>
       <c r="R131" s="21"/>
     </row>
-    <row r="132" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="15" customHeight="1">
       <c r="A132" s="22" t="s">
         <v>28</v>
       </c>
@@ -14014,7 +14017,7 @@
       </c>
       <c r="R132" s="21"/>
     </row>
-    <row r="133" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" ht="15" customHeight="1">
       <c r="A133" s="22" t="s">
         <v>28</v>
       </c>
@@ -14065,7 +14068,7 @@
       </c>
       <c r="R133" s="21"/>
     </row>
-    <row r="134" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" ht="15" customHeight="1">
       <c r="A134" s="22" t="s">
         <v>28</v>
       </c>
@@ -14116,7 +14119,7 @@
       </c>
       <c r="R134" s="21"/>
     </row>
-    <row r="135" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" ht="15" customHeight="1">
       <c r="A135" s="30"/>
       <c r="B135" s="25" t="s">
         <v>43</v>
@@ -14165,7 +14168,7 @@
       </c>
       <c r="Q135" s="30"/>
     </row>
-    <row r="136" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" ht="15" customHeight="1">
       <c r="B136" s="25" t="s">
         <v>43</v>
       </c>
@@ -14212,7 +14215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="15" customHeight="1">
       <c r="B137" s="25" t="s">
         <v>43</v>
       </c>
@@ -14259,7 +14262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="15" customHeight="1">
       <c r="B138" s="25" t="s">
         <v>43</v>
       </c>
@@ -14306,7 +14309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="15" customHeight="1">
       <c r="B139" s="25" t="s">
         <v>43</v>
       </c>
@@ -14353,7 +14356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="15" customHeight="1">
       <c r="B140" s="25" t="s">
         <v>43</v>
       </c>
@@ -14400,7 +14403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="15" customHeight="1">
       <c r="B141" s="25" t="s">
         <v>43</v>
       </c>
@@ -14447,7 +14450,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="15" customHeight="1">
       <c r="B142" s="25" t="s">
         <v>43</v>
       </c>
@@ -14494,7 +14497,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" ht="15" customHeight="1">
       <c r="B143" s="25" t="s">
         <v>43</v>
       </c>
@@ -14541,7 +14544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="15" customHeight="1">
       <c r="B144" s="25" t="s">
         <v>43</v>
       </c>
@@ -14588,7 +14591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:16" ht="15" customHeight="1">
       <c r="B145" s="25" t="s">
         <v>43</v>
       </c>
@@ -14635,7 +14638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" ht="15" customHeight="1">
       <c r="B146" s="25" t="s">
         <v>43</v>
       </c>
@@ -14682,7 +14685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" ht="15" customHeight="1">
       <c r="B147" s="25" t="s">
         <v>43</v>
       </c>
@@ -14729,7 +14732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" ht="14.25" customHeight="1">
       <c r="B148" s="25" t="s">
         <v>43</v>
       </c>
@@ -14776,7 +14779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" ht="15" customHeight="1">
       <c r="B149" s="25" t="s">
         <v>43</v>
       </c>
@@ -14823,7 +14826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:16" ht="15" customHeight="1">
       <c r="B150" s="25" t="s">
         <v>43</v>
       </c>
@@ -14870,7 +14873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" ht="15" customHeight="1">
       <c r="B151" s="25" t="s">
         <v>43</v>
       </c>
@@ -14917,7 +14920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" ht="15" customHeight="1">
       <c r="B152" s="25" t="s">
         <v>43</v>
       </c>
@@ -14964,7 +14967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:16" ht="15" customHeight="1">
       <c r="B153" s="25" t="s">
         <v>43</v>
       </c>
@@ -15011,7 +15014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" ht="15" customHeight="1">
       <c r="B154" s="25" t="s">
         <v>43</v>
       </c>
@@ -15058,7 +15061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:16" ht="15" customHeight="1">
       <c r="B155" s="25" t="s">
         <v>43</v>
       </c>
@@ -15105,7 +15108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" ht="15" customHeight="1">
       <c r="B156" s="25" t="s">
         <v>43</v>
       </c>
@@ -15152,7 +15155,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" ht="15" customHeight="1">
       <c r="B157" s="25" t="s">
         <v>43</v>
       </c>
@@ -15199,7 +15202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" ht="15" customHeight="1">
       <c r="B158" s="25" t="s">
         <v>43</v>
       </c>
@@ -15246,7 +15249,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" ht="15" customHeight="1">
       <c r="B159" s="25" t="s">
         <v>43</v>
       </c>
@@ -15293,7 +15296,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" ht="15" customHeight="1">
       <c r="B160" s="25" t="s">
         <v>43</v>
       </c>
@@ -15340,7 +15343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" ht="15" customHeight="1">
       <c r="B161" s="25" t="s">
         <v>43</v>
       </c>
@@ -15387,7 +15390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" ht="15" customHeight="1">
       <c r="B162" s="25" t="s">
         <v>43</v>
       </c>
@@ -15434,7 +15437,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" ht="15" customHeight="1">
       <c r="B163" s="22" t="s">
         <v>28</v>
       </c>
@@ -15484,7 +15487,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" ht="15" customHeight="1">
       <c r="B164" s="33" t="s">
         <v>28</v>
       </c>
@@ -15534,7 +15537,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" ht="15" customHeight="1">
       <c r="A165" s="25"/>
       <c r="B165" s="22" t="s">
         <v>43</v>
@@ -15582,7 +15585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" ht="15" customHeight="1">
       <c r="A166" s="25"/>
       <c r="B166" s="22" t="s">
         <v>43</v>
@@ -15630,7 +15633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" ht="15" customHeight="1">
       <c r="A167" s="25"/>
       <c r="B167" s="22" t="s">
         <v>43</v>
@@ -15678,7 +15681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" ht="15" customHeight="1">
       <c r="A168" s="25"/>
       <c r="B168" s="22" t="s">
         <v>43</v>
@@ -15726,7 +15729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" ht="15" customHeight="1">
       <c r="A169" s="25"/>
       <c r="B169" s="22" t="s">
         <v>43</v>
@@ -15774,7 +15777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" ht="15" customHeight="1">
       <c r="A170" s="25"/>
       <c r="B170" s="22" t="s">
         <v>43</v>
@@ -15822,7 +15825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" ht="15" customHeight="1">
       <c r="A171" s="25"/>
       <c r="B171" s="22" t="s">
         <v>43</v>
@@ -15870,7 +15873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" ht="15" customHeight="1">
       <c r="A172" s="25"/>
       <c r="B172" s="22" t="s">
         <v>43</v>
@@ -15918,7 +15921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" ht="15" customHeight="1">
       <c r="A173" s="25"/>
       <c r="B173" s="22" t="s">
         <v>43</v>
@@ -15966,7 +15969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" ht="15" customHeight="1">
       <c r="A174" s="25"/>
       <c r="B174" s="22" t="s">
         <v>43</v>
@@ -16014,7 +16017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" ht="15" customHeight="1">
       <c r="A175" s="25"/>
       <c r="B175" s="22" t="s">
         <v>43</v>
@@ -16062,7 +16065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" ht="15" customHeight="1">
       <c r="A176" s="25"/>
       <c r="B176" s="22" t="s">
         <v>43</v>
@@ -16110,7 +16113,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" ht="15" customHeight="1">
       <c r="A177" s="25"/>
       <c r="B177" s="22" t="s">
         <v>43</v>
@@ -16158,7 +16161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" ht="15" customHeight="1">
       <c r="A178" s="25"/>
       <c r="B178" s="22" t="s">
         <v>43</v>
@@ -16206,7 +16209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" ht="15" customHeight="1">
       <c r="A179" s="25"/>
       <c r="B179" s="22" t="s">
         <v>43</v>
@@ -16254,7 +16257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="15" customHeight="1">
       <c r="A180" s="25"/>
       <c r="B180" s="22" t="s">
         <v>43</v>
@@ -16302,7 +16305,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" ht="15" customHeight="1">
       <c r="A181" s="25"/>
       <c r="B181" s="22" t="s">
         <v>43</v>
@@ -16350,7 +16353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="15" customHeight="1">
       <c r="A182" s="25"/>
       <c r="B182" s="22" t="s">
         <v>43</v>
@@ -16398,7 +16401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="15" customHeight="1">
       <c r="A183" s="25"/>
       <c r="B183" s="22" t="s">
         <v>43</v>
@@ -16446,7 +16449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" ht="15" customHeight="1">
       <c r="A184" s="25"/>
       <c r="B184" s="22" t="s">
         <v>43</v>
@@ -16494,7 +16497,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="15" customHeight="1">
       <c r="A185" s="25"/>
       <c r="B185" s="22" t="s">
         <v>43</v>
@@ -16542,7 +16545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" ht="15" customHeight="1">
       <c r="A186" s="25"/>
       <c r="B186" s="22" t="s">
         <v>43</v>
@@ -16590,7 +16593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" ht="15" customHeight="1">
       <c r="A187" s="25"/>
       <c r="B187" s="22" t="s">
         <v>43</v>
@@ -16638,7 +16641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" ht="15" customHeight="1">
       <c r="A188" s="25"/>
       <c r="B188" s="22" t="s">
         <v>43</v>
@@ -16686,7 +16689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" ht="15" customHeight="1">
       <c r="A189" s="25"/>
       <c r="B189" s="22" t="s">
         <v>43</v>
@@ -16734,7 +16737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" ht="15" customHeight="1">
       <c r="A190" s="25"/>
       <c r="B190" s="22" t="s">
         <v>43</v>
@@ -16782,7 +16785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" ht="15" customHeight="1">
       <c r="A191" s="25"/>
       <c r="B191" s="22" t="s">
         <v>43</v>
@@ -16830,7 +16833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" ht="15" customHeight="1">
       <c r="A192" s="25"/>
       <c r="B192" s="22" t="s">
         <v>43</v>
@@ -16878,7 +16881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" ht="15" customHeight="1">
       <c r="A193" s="25"/>
       <c r="B193" s="22" t="s">
         <v>43</v>
@@ -16926,7 +16929,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" ht="15" customHeight="1">
       <c r="A194" s="25"/>
       <c r="B194" s="22" t="s">
         <v>43</v>
@@ -16974,7 +16977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" ht="15" customHeight="1">
       <c r="A195" s="25"/>
       <c r="B195" s="22" t="s">
         <v>43</v>
@@ -17022,7 +17025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" ht="15" customHeight="1">
       <c r="A196" s="25"/>
       <c r="B196" s="22" t="s">
         <v>43</v>
@@ -17070,7 +17073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" ht="15" customHeight="1">
       <c r="A197" s="25"/>
       <c r="B197" s="22" t="s">
         <v>43</v>
@@ -17118,7 +17121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" ht="15" customHeight="1">
       <c r="A198" s="25"/>
       <c r="B198" s="22" t="s">
         <v>43</v>
@@ -17166,7 +17169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" ht="15" customHeight="1">
       <c r="A199" s="25"/>
       <c r="B199" s="22" t="s">
         <v>43</v>
@@ -17214,7 +17217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" ht="15" customHeight="1">
       <c r="A200" s="25"/>
       <c r="B200" s="22" t="s">
         <v>43</v>
@@ -17262,7 +17265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" ht="15" customHeight="1">
       <c r="A201" s="25"/>
       <c r="B201" s="22" t="s">
         <v>43</v>
@@ -17310,7 +17313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" ht="15" customHeight="1">
       <c r="B202" s="30" t="s">
         <v>28</v>
       </c>
@@ -17360,7 +17363,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" ht="15" customHeight="1">
       <c r="B203" s="22" t="s">
         <v>28</v>
       </c>
@@ -17410,7 +17413,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" ht="15" customHeight="1">
       <c r="B204" s="22" t="s">
         <v>28</v>
       </c>
@@ -17460,7 +17463,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" ht="15" customHeight="1">
       <c r="B205" s="22" t="s">
         <v>28</v>
       </c>
@@ -17510,7 +17513,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" ht="15" customHeight="1">
       <c r="B206" s="22" t="s">
         <v>28</v>
       </c>
@@ -17560,7 +17563,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" ht="15" customHeight="1">
       <c r="B207" s="22" t="s">
         <v>28</v>
       </c>
@@ -17607,7 +17610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" ht="15" customHeight="1">
       <c r="B208" s="22" t="s">
         <v>28</v>
       </c>
@@ -17654,7 +17657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:16" ht="15" customHeight="1">
       <c r="B209" s="22" t="s">
         <v>28</v>
       </c>
@@ -17701,7 +17704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:16" ht="15" customHeight="1">
       <c r="B210" s="22" t="s">
         <v>28</v>
       </c>
@@ -17748,7 +17751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:16" ht="15" customHeight="1">
       <c r="B211" s="22" t="s">
         <v>28</v>
       </c>
@@ -17795,7 +17798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:16" ht="15" customHeight="1">
       <c r="B212" s="22" t="s">
         <v>28</v>
       </c>
@@ -17842,7 +17845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:16" ht="15" customHeight="1">
       <c r="B213" s="22" t="s">
         <v>28</v>
       </c>
@@ -17889,7 +17892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:16" ht="15" customHeight="1">
       <c r="B214" s="22" t="s">
         <v>28</v>
       </c>
@@ -17936,7 +17939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:16" ht="15" customHeight="1">
       <c r="B215" s="22" t="s">
         <v>28</v>
       </c>
@@ -17983,7 +17986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:16" ht="15" customHeight="1">
       <c r="B216" s="22" t="s">
         <v>43</v>
       </c>
@@ -18030,7 +18033,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="217" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:16" ht="15" customHeight="1">
       <c r="B217" s="22" t="s">
         <v>43</v>
       </c>
@@ -18077,7 +18080,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="218" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:16" ht="15" customHeight="1">
       <c r="B218" s="22" t="s">
         <v>43</v>
       </c>
@@ -18124,7 +18127,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="219" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:16" ht="15" customHeight="1">
       <c r="B219" s="22" t="s">
         <v>43</v>
       </c>
@@ -18171,7 +18174,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="220" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:16" ht="15" customHeight="1">
       <c r="B220" s="22" t="s">
         <v>43</v>
       </c>
@@ -18218,7 +18221,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="221" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:16" ht="15" customHeight="1">
       <c r="B221" s="22" t="s">
         <v>43</v>
       </c>
@@ -18265,7 +18268,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="222" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:16" ht="15" customHeight="1">
       <c r="B222" s="22" t="s">
         <v>43</v>
       </c>
@@ -18312,7 +18315,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="223" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:16" ht="15" customHeight="1">
       <c r="B223" s="22" t="s">
         <v>43</v>
       </c>
@@ -18359,7 +18362,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="224" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:16" ht="15" customHeight="1">
       <c r="B224" s="22" t="s">
         <v>43</v>
       </c>
@@ -18406,7 +18409,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="225" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:16" ht="15" customHeight="1">
       <c r="B225" s="22" t="s">
         <v>43</v>
       </c>
@@ -18453,7 +18456,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="226" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:16" ht="15" customHeight="1">
       <c r="B226" s="22" t="s">
         <v>43</v>
       </c>
@@ -18500,7 +18503,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="227" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:16" ht="15" customHeight="1">
       <c r="B227" s="22" t="s">
         <v>43</v>
       </c>
@@ -18547,7 +18550,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="228" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:16" ht="15" customHeight="1">
       <c r="B228" s="22" t="s">
         <v>43</v>
       </c>
@@ -18594,7 +18597,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="229" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:16" ht="15" customHeight="1">
       <c r="B229" s="22" t="s">
         <v>43</v>
       </c>
@@ -18641,7 +18644,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="230" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:16" ht="15" customHeight="1">
       <c r="B230" s="22" t="s">
         <v>43</v>
       </c>
@@ -18688,7 +18691,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="231" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:16" ht="15" customHeight="1">
       <c r="B231" s="22" t="s">
         <v>43</v>
       </c>
@@ -18735,7 +18738,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="232" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:16" ht="15" customHeight="1">
       <c r="B232" s="22" t="s">
         <v>43</v>
       </c>
@@ -18782,7 +18785,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="233" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:16" ht="15" customHeight="1">
       <c r="B233" s="22" t="s">
         <v>43</v>
       </c>
@@ -18829,7 +18832,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="234" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:16" ht="15" customHeight="1">
       <c r="B234" s="22" t="s">
         <v>43</v>
       </c>
@@ -18876,7 +18879,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="235" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:16" ht="15" customHeight="1">
       <c r="B235" s="22" t="s">
         <v>43</v>
       </c>
@@ -18923,7 +18926,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="236" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:16" ht="15" customHeight="1">
       <c r="B236" s="22" t="s">
         <v>43</v>
       </c>
@@ -18970,7 +18973,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="237" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:16" ht="15" customHeight="1">
       <c r="B237" s="22" t="s">
         <v>43</v>
       </c>
@@ -19017,7 +19020,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="238" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:16" ht="15" customHeight="1">
       <c r="B238" s="22" t="s">
         <v>43</v>
       </c>
@@ -19064,7 +19067,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="239" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:16" ht="15" customHeight="1">
       <c r="B239" s="22" t="s">
         <v>43</v>
       </c>
@@ -19111,7 +19114,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="240" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:16" ht="15" customHeight="1">
       <c r="B240" s="22" t="s">
         <v>43</v>
       </c>
@@ -19158,7 +19161,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="241" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:16" ht="15" customHeight="1">
       <c r="B241" s="22" t="s">
         <v>43</v>
       </c>
@@ -19205,7 +19208,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="242" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:16" ht="15" customHeight="1">
       <c r="B242" s="22" t="s">
         <v>43</v>
       </c>
@@ -19252,7 +19255,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="243" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:16" ht="15" customHeight="1">
       <c r="B243" s="22" t="s">
         <v>43</v>
       </c>
@@ -19299,7 +19302,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="244" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:16" ht="15" customHeight="1">
       <c r="B244" s="22" t="s">
         <v>43</v>
       </c>
@@ -19346,7 +19349,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="245" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:16" ht="15" customHeight="1">
       <c r="B245" s="22" t="s">
         <v>43</v>
       </c>
@@ -19393,7 +19396,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="246" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:16" ht="15" customHeight="1">
       <c r="B246" s="22" t="s">
         <v>43</v>
       </c>
@@ -19440,7 +19443,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="247" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:16" ht="15" customHeight="1">
       <c r="B247" s="22" t="s">
         <v>43</v>
       </c>
@@ -19487,7 +19490,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="248" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:16" ht="15" customHeight="1">
       <c r="B248" s="22" t="s">
         <v>43</v>
       </c>
@@ -19531,7 +19534,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="249" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:16" ht="15" customHeight="1">
       <c r="B249" s="22" t="s">
         <v>43</v>
       </c>
@@ -19578,7 +19581,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="250" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:16" ht="15" customHeight="1">
       <c r="B250" s="22" t="s">
         <v>43</v>
       </c>
@@ -19625,7 +19628,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="251" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:16" ht="15" customHeight="1">
       <c r="B251" s="22" t="s">
         <v>43</v>
       </c>
@@ -19672,7 +19675,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="252" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:16" ht="15" customHeight="1">
       <c r="B252" s="22" t="s">
         <v>43</v>
       </c>
@@ -19719,7 +19722,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="253" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:16" ht="15" customHeight="1">
       <c r="B253" s="22" t="s">
         <v>43</v>
       </c>
@@ -19766,7 +19769,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="254" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:16" ht="15" customHeight="1">
       <c r="B254" s="22" t="s">
         <v>43</v>
       </c>
@@ -19813,7 +19816,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="255" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:16" ht="15" customHeight="1">
       <c r="B255" s="22" t="s">
         <v>43</v>
       </c>
@@ -19860,7 +19863,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="256" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:16" ht="15" customHeight="1">
       <c r="B256" s="22" t="s">
         <v>43</v>
       </c>
@@ -19907,7 +19910,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="257" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:16" ht="15" customHeight="1">
       <c r="B257" s="22" t="s">
         <v>43</v>
       </c>
@@ -19954,7 +19957,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="258" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:16" ht="15" customHeight="1">
       <c r="B258" s="22" t="s">
         <v>43</v>
       </c>
@@ -20001,7 +20004,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="259" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:16" ht="15" customHeight="1">
       <c r="B259" s="22" t="s">
         <v>43</v>
       </c>
@@ -20048,7 +20051,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="260" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:16" ht="15" customHeight="1">
       <c r="B260" s="22" t="s">
         <v>43</v>
       </c>
@@ -20095,7 +20098,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="261" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:16" ht="15" customHeight="1">
       <c r="B261" s="22" t="s">
         <v>43</v>
       </c>
@@ -20142,7 +20145,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="262" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:16" ht="15" customHeight="1">
       <c r="B262" s="22" t="s">
         <v>43</v>
       </c>
@@ -20189,7 +20192,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="263" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:16" ht="15" customHeight="1">
       <c r="B263" s="22" t="s">
         <v>43</v>
       </c>
@@ -20236,7 +20239,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="264" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:16" ht="15" customHeight="1">
       <c r="B264" s="22" t="s">
         <v>43</v>
       </c>
@@ -20283,7 +20286,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="265" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:16" ht="15" customHeight="1">
       <c r="B265" s="22" t="s">
         <v>43</v>
       </c>
@@ -20330,7 +20333,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="266" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:16" ht="15" customHeight="1">
       <c r="B266" s="22" t="s">
         <v>43</v>
       </c>
@@ -20377,7 +20380,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="267" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:16" ht="15" customHeight="1">
       <c r="B267" s="22" t="s">
         <v>43</v>
       </c>
@@ -20424,7 +20427,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="268" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:16" ht="15" customHeight="1">
       <c r="B268" s="22" t="s">
         <v>43</v>
       </c>
@@ -20471,7 +20474,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="269" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:16" ht="15" customHeight="1">
       <c r="B269" s="22" t="s">
         <v>43</v>
       </c>
@@ -20518,7 +20521,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="270" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:16" ht="15" customHeight="1">
       <c r="B270" s="22" t="s">
         <v>43</v>
       </c>
@@ -20565,7 +20568,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="271" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:16" ht="15" customHeight="1">
       <c r="B271" s="22" t="s">
         <v>43</v>
       </c>
@@ -20612,7 +20615,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="272" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:16" ht="15" customHeight="1">
       <c r="B272" s="22" t="s">
         <v>43</v>
       </c>
@@ -20659,7 +20662,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="273" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:16" ht="15" customHeight="1">
       <c r="B273" s="22" t="s">
         <v>43</v>
       </c>
@@ -20706,7 +20709,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="274" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:16" ht="15" customHeight="1">
       <c r="B274" s="22" t="s">
         <v>43</v>
       </c>
@@ -20753,7 +20756,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="275" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:16" ht="15" customHeight="1">
       <c r="B275" s="22" t="s">
         <v>43</v>
       </c>
@@ -20800,7 +20803,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="276" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:16" ht="15" customHeight="1">
       <c r="B276" s="22" t="s">
         <v>43</v>
       </c>
@@ -20847,7 +20850,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="277" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:16" ht="15" customHeight="1">
       <c r="B277" s="22" t="s">
         <v>43</v>
       </c>
@@ -20894,7 +20897,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="278" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:16" ht="15" customHeight="1">
       <c r="B278" s="22" t="s">
         <v>43</v>
       </c>
@@ -20941,7 +20944,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="279" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:16" ht="15" customHeight="1">
       <c r="B279" s="22" t="s">
         <v>43</v>
       </c>
@@ -20988,7 +20991,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="280" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:16" ht="15" customHeight="1">
       <c r="B280" s="22" t="s">
         <v>43</v>
       </c>
@@ -21035,7 +21038,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="281" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:16" ht="15" customHeight="1">
       <c r="B281" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21082,7 +21085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="282" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:16" ht="15" customHeight="1">
       <c r="B282" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21129,7 +21132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="283" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:16" ht="15" customHeight="1">
       <c r="B283" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21176,7 +21179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="284" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:16" ht="15" customHeight="1">
       <c r="B284" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21223,7 +21226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="285" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:16" ht="15" customHeight="1">
       <c r="B285" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21270,7 +21273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="286" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:16" ht="15" customHeight="1">
       <c r="B286" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21317,7 +21320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="287" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:16" ht="15" customHeight="1">
       <c r="B287" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21364,7 +21367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="288" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:16" ht="15" customHeight="1">
       <c r="B288" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21411,7 +21414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="289" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:16" ht="15" customHeight="1">
       <c r="B289" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21458,7 +21461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="290" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:16" ht="15" customHeight="1">
       <c r="B290" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21505,7 +21508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="291" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:16" ht="15" customHeight="1">
       <c r="B291" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21552,7 +21555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:16" ht="15" customHeight="1">
       <c r="B292" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21599,7 +21602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="293" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:16" ht="15" customHeight="1">
       <c r="B293" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21646,7 +21649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="294" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:16" ht="15" customHeight="1">
       <c r="B294" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21693,7 +21696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:16" ht="15" customHeight="1">
       <c r="B295" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21740,7 +21743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="296" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:16" ht="15" customHeight="1">
       <c r="B296" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21787,7 +21790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="297" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:16" ht="15" customHeight="1">
       <c r="B297" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21834,7 +21837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:16" ht="15" customHeight="1">
       <c r="B298" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21881,7 +21884,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="299" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:16" ht="15" customHeight="1">
       <c r="B299" s="22" t="s">
         <v>43</v>
       </c>
@@ -21928,7 +21931,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="300" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:16" ht="15" customHeight="1">
       <c r="B300" s="22" t="s">
         <v>43</v>
       </c>
@@ -21975,7 +21978,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="301" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:16" ht="15" customHeight="1">
       <c r="B301" s="22" t="s">
         <v>43</v>
       </c>
@@ -22022,7 +22025,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="302" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:16" ht="15" customHeight="1">
       <c r="B302" s="22" t="s">
         <v>43</v>
       </c>
@@ -22069,7 +22072,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="303" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:16" ht="15" customHeight="1">
       <c r="B303" s="22" t="s">
         <v>43</v>
       </c>
@@ -22116,7 +22119,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="304" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:16" ht="15" customHeight="1">
       <c r="B304" s="22" t="s">
         <v>43</v>
       </c>
@@ -22163,7 +22166,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="305" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:16" ht="15" customHeight="1">
       <c r="B305" s="22" t="s">
         <v>43</v>
       </c>
@@ -22210,7 +22213,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="306" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:16" ht="15" customHeight="1">
       <c r="B306" s="22" t="s">
         <v>43</v>
       </c>
@@ -22257,7 +22260,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="307" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:16" ht="15" customHeight="1">
       <c r="B307" s="22" t="s">
         <v>43</v>
       </c>
@@ -22304,7 +22307,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="308" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:16" ht="15" customHeight="1">
       <c r="B308" s="22" t="s">
         <v>43</v>
       </c>
@@ -22351,7 +22354,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="309" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:16" ht="15" customHeight="1">
       <c r="B309" s="22" t="s">
         <v>43</v>
       </c>
@@ -22398,7 +22401,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="310" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:16" ht="15" customHeight="1">
       <c r="B310" s="22" t="s">
         <v>43</v>
       </c>
@@ -22445,7 +22448,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="311" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:16" ht="15" customHeight="1">
       <c r="B311" s="22" t="s">
         <v>43</v>
       </c>
@@ -22492,7 +22495,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="312" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:16" ht="15" customHeight="1">
       <c r="B312" s="22" t="s">
         <v>43</v>
       </c>
@@ -22539,7 +22542,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="313" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:16" ht="15" customHeight="1">
       <c r="B313" s="22" t="s">
         <v>43</v>
       </c>
@@ -22586,7 +22589,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="314" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:16" ht="15" customHeight="1">
       <c r="B314" s="22" t="s">
         <v>43</v>
       </c>
@@ -22633,7 +22636,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="315" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:16" ht="15" customHeight="1">
       <c r="B315" s="22" t="s">
         <v>43</v>
       </c>
@@ -22680,7 +22683,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="316" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:16" ht="15" customHeight="1">
       <c r="B316" s="22" t="s">
         <v>43</v>
       </c>
@@ -22727,7 +22730,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="317" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:16" ht="15" customHeight="1">
       <c r="B317" s="22" t="s">
         <v>43</v>
       </c>
@@ -22774,7 +22777,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="318" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:16" ht="15" customHeight="1">
       <c r="B318" s="22" t="s">
         <v>43</v>
       </c>
@@ -22821,7 +22824,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="319" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:16" ht="15" customHeight="1">
       <c r="B319" s="22" t="s">
         <v>43</v>
       </c>
@@ -22868,7 +22871,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="320" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:16" ht="15" customHeight="1">
       <c r="B320" s="22" t="s">
         <v>43</v>
       </c>
@@ -22915,7 +22918,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="321" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:16" ht="15" customHeight="1">
       <c r="B321" s="22" t="s">
         <v>43</v>
       </c>
@@ -22962,7 +22965,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="322" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:16" ht="15" customHeight="1">
       <c r="B322" s="22" t="s">
         <v>43</v>
       </c>
@@ -23009,7 +23012,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="323" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:16" ht="15" customHeight="1">
       <c r="B323" s="22" t="s">
         <v>43</v>
       </c>
@@ -23056,7 +23059,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="324" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:16" ht="15" customHeight="1">
       <c r="B324" s="22" t="s">
         <v>43</v>
       </c>
@@ -23103,7 +23106,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="325" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:16" ht="15" customHeight="1">
       <c r="B325" s="22" t="s">
         <v>43</v>
       </c>
@@ -23150,7 +23153,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="326" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:16" ht="15" customHeight="1">
       <c r="B326" s="22" t="s">
         <v>43</v>
       </c>
@@ -23197,7 +23200,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="327" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:16" ht="15" customHeight="1">
       <c r="B327" s="22" t="s">
         <v>43</v>
       </c>
@@ -23244,7 +23247,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="328" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:16" ht="15" customHeight="1">
       <c r="B328" s="22" t="s">
         <v>43</v>
       </c>
@@ -23291,7 +23294,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="329" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:16" ht="15" customHeight="1">
       <c r="B329" s="22" t="s">
         <v>43</v>
       </c>
@@ -23338,7 +23341,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="330" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:16" ht="15" customHeight="1">
       <c r="B330" s="22" t="s">
         <v>43</v>
       </c>
@@ -23385,7 +23388,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="331" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:16" ht="15" customHeight="1">
       <c r="B331" s="22" t="s">
         <v>43</v>
       </c>
@@ -23432,7 +23435,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="332" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:16" ht="15" customHeight="1">
       <c r="B332" s="22" t="s">
         <v>43</v>
       </c>
@@ -23479,7 +23482,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="333" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:16" ht="15" customHeight="1">
       <c r="B333" s="22" t="s">
         <v>43</v>
       </c>
@@ -23526,7 +23529,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="334" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:16" ht="15" customHeight="1">
       <c r="B334" s="22" t="s">
         <v>43</v>
       </c>
@@ -23573,7 +23576,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="335" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:16" ht="15" customHeight="1">
       <c r="B335" s="22" t="s">
         <v>43</v>
       </c>
@@ -23620,7 +23623,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="336" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:16" ht="15" customHeight="1">
       <c r="B336" s="22" t="s">
         <v>43</v>
       </c>
@@ -23667,7 +23670,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="337" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:16" ht="15" customHeight="1">
       <c r="B337" s="22" t="s">
         <v>43</v>
       </c>
@@ -23714,7 +23717,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="338" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:16" ht="15" customHeight="1">
       <c r="B338" s="22" t="s">
         <v>43</v>
       </c>
@@ -23761,7 +23764,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="339" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:16" ht="15" customHeight="1">
       <c r="B339" s="22" t="s">
         <v>43</v>
       </c>
@@ -23808,7 +23811,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="340" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:16" ht="15" customHeight="1">
       <c r="B340" s="22" t="s">
         <v>43</v>
       </c>
@@ -23855,7 +23858,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="341" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:16" ht="15" customHeight="1">
       <c r="B341" s="22" t="s">
         <v>43</v>
       </c>
@@ -23902,7 +23905,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="342" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:16" ht="15" customHeight="1">
       <c r="B342" s="22" t="s">
         <v>43</v>
       </c>
@@ -23949,7 +23952,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="343" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:16" ht="15" customHeight="1">
       <c r="B343" s="22" t="s">
         <v>1118</v>
       </c>
@@ -23996,7 +23999,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="344" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:16" ht="15" customHeight="1">
       <c r="B344" s="22" t="s">
         <v>1118</v>
       </c>
@@ -24043,7 +24046,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="345" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:16" ht="15" customHeight="1">
       <c r="B345" s="22" t="s">
         <v>43</v>
       </c>
@@ -24090,7 +24093,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="346" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:16" ht="15" customHeight="1">
       <c r="B346" s="22" t="s">
         <v>43</v>
       </c>
@@ -24137,7 +24140,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="347" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:16" ht="15" customHeight="1">
       <c r="B347" s="22" t="s">
         <v>43</v>
       </c>
@@ -24184,7 +24187,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="348" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:16" ht="15" customHeight="1">
       <c r="B348" s="22" t="s">
         <v>43</v>
       </c>
@@ -24231,7 +24234,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="349" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:16" ht="15" customHeight="1">
       <c r="B349" s="22" t="s">
         <v>43</v>
       </c>
@@ -24278,7 +24281,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="350" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:16" ht="15" customHeight="1">
       <c r="B350" s="22" t="s">
         <v>43</v>
       </c>
@@ -24325,7 +24328,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="351" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:16" ht="15" customHeight="1">
       <c r="B351" s="22" t="s">
         <v>43</v>
       </c>
@@ -24372,7 +24375,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="352" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:16" ht="15" customHeight="1">
       <c r="B352" s="22" t="s">
         <v>43</v>
       </c>
@@ -24419,7 +24422,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="353" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:16" ht="15" customHeight="1">
       <c r="B353" s="22" t="s">
         <v>43</v>
       </c>
@@ -24466,7 +24469,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="354" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:16" ht="15" customHeight="1">
       <c r="B354" s="22" t="s">
         <v>43</v>
       </c>
@@ -24513,7 +24516,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="355" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:16" ht="15" customHeight="1">
       <c r="B355" s="22" t="s">
         <v>43</v>
       </c>
@@ -24560,7 +24563,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="356" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:16" ht="15" customHeight="1">
       <c r="B356" s="22" t="s">
         <v>43</v>
       </c>
@@ -24607,7 +24610,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="357" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:16" ht="15" customHeight="1">
       <c r="B357" s="22" t="s">
         <v>43</v>
       </c>
@@ -24654,7 +24657,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="358" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:16" ht="15" customHeight="1">
       <c r="B358" s="22" t="s">
         <v>43</v>
       </c>
@@ -24701,7 +24704,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="359" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:16" ht="15" customHeight="1">
       <c r="B359" s="22" t="s">
         <v>43</v>
       </c>
@@ -24748,7 +24751,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="360" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:16" ht="15" customHeight="1">
       <c r="B360" s="22" t="s">
         <v>43</v>
       </c>
@@ -24795,7 +24798,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="361" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:16" ht="15" customHeight="1">
       <c r="B361" s="22" t="s">
         <v>43</v>
       </c>
@@ -24842,7 +24845,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="362" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:16" ht="15" customHeight="1">
       <c r="B362" s="22" t="s">
         <v>43</v>
       </c>
@@ -24889,7 +24892,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="363" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:16" ht="15" customHeight="1">
       <c r="B363" s="22" t="s">
         <v>43</v>
       </c>
@@ -24936,7 +24939,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="364" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:16" ht="13.5" customHeight="1">
       <c r="B364" s="22" t="s">
         <v>43</v>
       </c>
@@ -24983,7 +24986,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="365" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:16" ht="15" customHeight="1">
       <c r="B365" s="22" t="s">
         <v>43</v>
       </c>
@@ -25027,7 +25030,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="366" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:16" ht="15" customHeight="1">
       <c r="B366" s="22" t="s">
         <v>43</v>
       </c>
@@ -25074,7 +25077,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="367" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:16" ht="15" customHeight="1">
       <c r="B367" s="22" t="s">
         <v>43</v>
       </c>
@@ -25121,7 +25124,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="368" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:16" ht="15" customHeight="1">
       <c r="B368" s="22" t="s">
         <v>43</v>
       </c>
@@ -25168,7 +25171,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="369" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" ht="15" customHeight="1">
       <c r="B369" s="22" t="s">
         <v>43</v>
       </c>
@@ -25215,7 +25218,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="370" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" ht="15" customHeight="1">
       <c r="B370" s="22" t="s">
         <v>43</v>
       </c>
@@ -25262,7 +25265,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="371" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" ht="15" customHeight="1">
       <c r="B371" s="22" t="s">
         <v>43</v>
       </c>
@@ -25309,7 +25312,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="372" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" ht="15" customHeight="1">
       <c r="B372" s="22" t="s">
         <v>43</v>
       </c>
@@ -25356,7 +25359,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="373" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" ht="15" customHeight="1">
       <c r="B373" s="22" t="s">
         <v>43</v>
       </c>
@@ -25403,7 +25406,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="374" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" ht="15" customHeight="1">
       <c r="B374" s="22" t="s">
         <v>43</v>
       </c>
@@ -25450,7 +25453,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="375" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" ht="15" customHeight="1">
       <c r="B375" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25500,7 +25503,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="376" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" ht="15" customHeight="1">
       <c r="B376" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25538,7 +25541,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="377" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" ht="15" customHeight="1">
       <c r="B377" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25576,7 +25579,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="378" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" ht="15" customHeight="1">
       <c r="B378" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25623,7 +25626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="379" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" ht="15" customHeight="1">
       <c r="B379" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25664,7 +25667,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="380" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" ht="15" customHeight="1">
       <c r="B380" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25711,7 +25714,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="381" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" ht="15" customHeight="1">
       <c r="B381" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25758,7 +25761,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="382" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" ht="15" customHeight="1">
       <c r="B382" s="66" t="s">
         <v>1118</v>
       </c>
@@ -25805,7 +25808,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="383" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" ht="15" customHeight="1">
       <c r="A383" s="25"/>
       <c r="B383" s="22" t="s">
         <v>43</v>
@@ -25853,7 +25856,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="384" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" ht="15" customHeight="1">
       <c r="A384" s="25"/>
       <c r="B384" s="22" t="s">
         <v>43</v>
@@ -25901,7 +25904,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" ht="15" customHeight="1">
       <c r="A385" s="25"/>
       <c r="B385" s="22" t="s">
         <v>43</v>
@@ -25949,7 +25952,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" ht="15" customHeight="1">
       <c r="A386" s="25"/>
       <c r="B386" s="22" t="s">
         <v>43</v>
@@ -25997,7 +26000,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" ht="15" customHeight="1">
       <c r="A387" s="25"/>
       <c r="B387" s="22" t="s">
         <v>43</v>
@@ -26045,7 +26048,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" ht="15" customHeight="1">
       <c r="A388" s="25"/>
       <c r="B388" s="22" t="s">
         <v>43</v>
@@ -26093,7 +26096,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" ht="15" customHeight="1">
       <c r="A389" s="25"/>
       <c r="B389" s="22" t="s">
         <v>43</v>
@@ -26141,7 +26144,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" ht="15" customHeight="1">
       <c r="A390" s="25"/>
       <c r="B390" s="22" t="s">
         <v>43</v>
@@ -26189,7 +26192,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="391" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" ht="15" customHeight="1">
       <c r="A391" s="25"/>
       <c r="B391" s="22" t="s">
         <v>43</v>
@@ -26237,7 +26240,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" ht="15" customHeight="1">
       <c r="A392" s="25"/>
       <c r="B392" s="22" t="s">
         <v>43</v>
@@ -26285,7 +26288,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" ht="15" customHeight="1">
       <c r="A393" s="25"/>
       <c r="B393" s="22" t="s">
         <v>43</v>
@@ -26333,7 +26336,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" ht="15" customHeight="1">
       <c r="A394" s="25"/>
       <c r="B394" s="22" t="s">
         <v>43</v>
@@ -26381,7 +26384,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" ht="15" customHeight="1">
       <c r="A395" s="25"/>
       <c r="B395" s="22" t="s">
         <v>43</v>
@@ -26429,7 +26432,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" ht="15" customHeight="1">
       <c r="A396" s="25"/>
       <c r="B396" s="22" t="s">
         <v>43</v>
@@ -26477,7 +26480,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" ht="15" customHeight="1">
       <c r="A397" s="25"/>
       <c r="B397" s="22" t="s">
         <v>43</v>
@@ -26525,7 +26528,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" ht="15" customHeight="1">
       <c r="A398" s="25"/>
       <c r="B398" s="22" t="s">
         <v>43</v>
@@ -26573,7 +26576,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" ht="15" customHeight="1">
       <c r="A399" s="25"/>
       <c r="B399" s="22" t="s">
         <v>43</v>
@@ -26621,7 +26624,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" ht="15" customHeight="1">
       <c r="A400" s="25"/>
       <c r="B400" s="22" t="s">
         <v>43</v>
@@ -26669,7 +26672,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" ht="15" customHeight="1">
       <c r="A401" s="25"/>
       <c r="B401" s="22" t="s">
         <v>43</v>
@@ -26717,7 +26720,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" ht="15" customHeight="1">
       <c r="A402" s="25"/>
       <c r="B402" s="22" t="s">
         <v>43</v>
@@ -26765,7 +26768,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="403" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" ht="15" customHeight="1">
       <c r="A403" s="25"/>
       <c r="B403" s="22" t="s">
         <v>43</v>
@@ -26813,7 +26816,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="404" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" ht="15" customHeight="1">
       <c r="A404" s="25"/>
       <c r="B404" s="22" t="s">
         <v>43</v>
@@ -26861,7 +26864,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" ht="15" customHeight="1">
       <c r="A405" s="25"/>
       <c r="B405" s="22" t="s">
         <v>43</v>
@@ -26909,7 +26912,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" ht="15" customHeight="1">
       <c r="A406" s="25"/>
       <c r="B406" s="22" t="s">
         <v>43</v>
@@ -26957,7 +26960,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" ht="15" customHeight="1">
       <c r="A407" s="25"/>
       <c r="B407" s="22" t="s">
         <v>43</v>
@@ -27005,7 +27008,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" ht="15" customHeight="1">
       <c r="A408" s="25"/>
       <c r="B408" s="22" t="s">
         <v>43</v>
@@ -27053,7 +27056,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" ht="15" customHeight="1">
       <c r="A409" s="25"/>
       <c r="B409" s="22" t="s">
         <v>43</v>
@@ -27101,7 +27104,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" ht="15" customHeight="1">
       <c r="A410" s="25"/>
       <c r="B410" s="22" t="s">
         <v>43</v>
@@ -27149,7 +27152,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" ht="15" customHeight="1">
       <c r="A411" s="25"/>
       <c r="B411" s="22" t="s">
         <v>43</v>
@@ -27197,7 +27200,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" ht="15" customHeight="1">
       <c r="A412" s="25"/>
       <c r="B412" s="22" t="s">
         <v>43</v>
@@ -27245,7 +27248,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" ht="15" customHeight="1">
       <c r="A413" s="25"/>
       <c r="B413" s="22" t="s">
         <v>43</v>
@@ -27293,7 +27296,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" ht="15" customHeight="1">
       <c r="A414" s="25"/>
       <c r="B414" s="22" t="s">
         <v>43</v>
@@ -27341,7 +27344,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" ht="15" customHeight="1">
       <c r="A415" s="25"/>
       <c r="B415" s="22" t="s">
         <v>43</v>
@@ -27389,7 +27392,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" ht="15" customHeight="1">
       <c r="A416" s="25"/>
       <c r="B416" s="22" t="s">
         <v>43</v>
@@ -27437,7 +27440,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" ht="15" customHeight="1">
       <c r="A417" s="25"/>
       <c r="B417" s="22" t="s">
         <v>43</v>
@@ -27485,7 +27488,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" ht="15" customHeight="1">
       <c r="A418" s="25"/>
       <c r="B418" s="22" t="s">
         <v>43</v>
@@ -27533,7 +27536,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" ht="15" customHeight="1">
       <c r="A419" s="25"/>
       <c r="B419" s="22" t="s">
         <v>43</v>
@@ -27581,7 +27584,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" ht="15" customHeight="1">
       <c r="A420" s="25"/>
       <c r="B420" s="22" t="s">
         <v>43</v>
@@ -27629,7 +27632,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" ht="15" customHeight="1">
       <c r="A421" s="25"/>
       <c r="B421" s="22" t="s">
         <v>43</v>
@@ -27677,7 +27680,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" ht="15" customHeight="1">
       <c r="A422" s="25"/>
       <c r="B422" s="22" t="s">
         <v>43</v>
@@ -27725,7 +27728,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" ht="15" customHeight="1">
       <c r="A423" s="25"/>
       <c r="B423" s="22" t="s">
         <v>43</v>
@@ -27773,7 +27776,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" ht="15" customHeight="1">
       <c r="A424" s="25"/>
       <c r="B424" s="22" t="s">
         <v>43</v>
@@ -27821,7 +27824,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" ht="15" customHeight="1">
       <c r="A425" s="25"/>
       <c r="B425" s="22" t="s">
         <v>43</v>
@@ -27869,7 +27872,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" ht="15" customHeight="1">
       <c r="A426" s="25"/>
       <c r="B426" s="22" t="s">
         <v>43</v>
@@ -27917,7 +27920,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" ht="15" customHeight="1">
       <c r="A427" s="25"/>
       <c r="B427" s="22" t="s">
         <v>43</v>
@@ -27965,7 +27968,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" ht="15" customHeight="1">
       <c r="A428" s="25"/>
       <c r="B428" s="22" t="s">
         <v>43</v>
@@ -28013,7 +28016,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" ht="15" customHeight="1">
       <c r="A429" s="25"/>
       <c r="B429" s="22" t="s">
         <v>43</v>
@@ -28061,7 +28064,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" ht="15" customHeight="1">
       <c r="A430" s="25"/>
       <c r="B430" s="22" t="s">
         <v>43</v>
@@ -28109,7 +28112,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:16" ht="15" customHeight="1">
       <c r="A431" s="25"/>
       <c r="B431" s="22" t="s">
         <v>43</v>
@@ -28157,7 +28160,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" ht="15" customHeight="1">
       <c r="A432" s="25"/>
       <c r="B432" s="22" t="s">
         <v>43</v>
@@ -28205,7 +28208,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" ht="15" customHeight="1">
       <c r="A433" s="25"/>
       <c r="B433" s="22" t="s">
         <v>43</v>
@@ -28253,7 +28256,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" ht="15" customHeight="1">
       <c r="A434" s="25"/>
       <c r="B434" s="22" t="s">
         <v>43</v>
@@ -28301,7 +28304,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:16" ht="15" customHeight="1">
       <c r="A435" s="25"/>
       <c r="B435" s="22" t="s">
         <v>43</v>
@@ -28346,7 +28349,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" ht="15" customHeight="1">
       <c r="A436" s="25"/>
       <c r="B436" s="22" t="s">
         <v>43</v>
@@ -28394,7 +28397,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" ht="15" customHeight="1">
       <c r="A437" s="25"/>
       <c r="B437" s="22" t="s">
         <v>43</v>
@@ -28442,7 +28445,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" ht="15" customHeight="1">
       <c r="A438" s="25"/>
       <c r="B438" s="22" t="s">
         <v>43</v>
@@ -28490,7 +28493,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" ht="15" customHeight="1">
       <c r="A439" s="25"/>
       <c r="B439" s="22" t="s">
         <v>43</v>
@@ -28538,7 +28541,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" ht="15" customHeight="1">
       <c r="A440" s="25"/>
       <c r="B440" s="22" t="s">
         <v>43</v>
@@ -28586,7 +28589,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" ht="15" customHeight="1">
       <c r="A441" s="25"/>
       <c r="B441" s="22" t="s">
         <v>43</v>
@@ -28634,7 +28637,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" ht="15" customHeight="1">
       <c r="A442" s="25"/>
       <c r="B442" s="22" t="s">
         <v>43</v>
@@ -28682,7 +28685,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" ht="15" customHeight="1">
       <c r="A443" s="25"/>
       <c r="B443" s="22" t="s">
         <v>43</v>
@@ -28730,7 +28733,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" ht="15" customHeight="1">
       <c r="A444" s="25"/>
       <c r="B444" s="22" t="s">
         <v>43</v>
@@ -28775,7 +28778,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:16" ht="15" customHeight="1">
       <c r="A445" s="25"/>
       <c r="B445" s="22" t="s">
         <v>43</v>
@@ -28823,7 +28826,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" ht="15" customHeight="1">
       <c r="A446" s="25"/>
       <c r="B446" s="22" t="s">
         <v>43</v>
@@ -28871,7 +28874,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="447" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" ht="15" customHeight="1">
       <c r="A447" s="25"/>
       <c r="B447" s="22" t="s">
         <v>43</v>
@@ -28919,7 +28922,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="448" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" ht="15" customHeight="1">
       <c r="A448" s="25"/>
       <c r="B448" s="22" t="s">
         <v>43</v>
@@ -28967,7 +28970,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="449" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:16" ht="15" customHeight="1">
       <c r="B449" s="22" t="s">
         <v>43</v>
       </c>
@@ -29014,7 +29017,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="450" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:16" ht="15" customHeight="1">
       <c r="B450" s="22" t="s">
         <v>43</v>
       </c>
@@ -29061,7 +29064,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="451" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:16" ht="15" customHeight="1">
       <c r="B451" s="22" t="s">
         <v>43</v>
       </c>
@@ -29108,7 +29111,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="452" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:16" ht="15" customHeight="1">
       <c r="B452" s="22" t="s">
         <v>43</v>
       </c>
@@ -29155,7 +29158,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="453" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:16" ht="15" customHeight="1">
       <c r="B453" s="22" t="s">
         <v>43</v>
       </c>
@@ -29202,7 +29205,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="454" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:16" ht="15" customHeight="1">
       <c r="B454" s="22" t="s">
         <v>43</v>
       </c>
@@ -29249,14 +29252,17 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="455" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:16" ht="47.25">
       <c r="C455" s="28"/>
       <c r="G455" s="24"/>
       <c r="I455" s="23" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="456" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M455" s="22" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="456" spans="2:16" ht="15" customHeight="1">
       <c r="B456" s="22" t="s">
         <v>43</v>
       </c>
@@ -29264,7 +29270,7 @@
         <v>45334</v>
       </c>
       <c r="D456" s="22" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="E456" s="21">
         <v>869953</v>
@@ -29279,13 +29285,13 @@
         <v>31</v>
       </c>
       <c r="I456" s="23" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="J456" s="68" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="K456" s="22" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="L456" s="22" t="s">
         <v>866</v>
@@ -29303,7 +29309,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="457" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:16" ht="15" customHeight="1">
       <c r="B457" s="22" t="s">
         <v>43</v>
       </c>
@@ -29311,7 +29317,7 @@
         <v>45334</v>
       </c>
       <c r="D457" s="22" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E457" s="21">
         <v>881387</v>
@@ -29326,13 +29332,13 @@
         <v>31</v>
       </c>
       <c r="I457" s="23" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="J457" s="68" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="K457" s="68" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="L457" s="22" t="s">
         <v>866</v>
@@ -29350,7 +29356,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="458" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:16" ht="15" customHeight="1">
       <c r="B458" s="22" t="s">
         <v>43</v>
       </c>
@@ -29358,7 +29364,7 @@
         <v>45334</v>
       </c>
       <c r="D458" s="22" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="E458" s="21">
         <v>917109</v>
@@ -29373,13 +29379,13 @@
         <v>31</v>
       </c>
       <c r="I458" s="23" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="J458" s="68" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="K458" s="68" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="L458" s="22" t="s">
         <v>866</v>
@@ -29397,7 +29403,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="459" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:16" ht="15" customHeight="1">
       <c r="B459" s="22" t="s">
         <v>43</v>
       </c>
@@ -29405,7 +29411,7 @@
         <v>45334</v>
       </c>
       <c r="D459" s="22" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="E459" s="21">
         <v>803129</v>
@@ -29420,13 +29426,13 @@
         <v>31</v>
       </c>
       <c r="I459" s="23" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="J459" s="68" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="K459" s="68" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="L459" s="22" t="s">
         <v>866</v>
@@ -29444,7 +29450,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="460" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:16" ht="15" customHeight="1">
       <c r="B460" s="22" t="s">
         <v>43</v>
       </c>
@@ -29452,7 +29458,7 @@
         <v>45334</v>
       </c>
       <c r="D460" s="22" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="E460" s="21">
         <v>865333</v>
@@ -29467,13 +29473,13 @@
         <v>31</v>
       </c>
       <c r="I460" s="23" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J460" s="68" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="K460" s="68" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="L460" s="22" t="s">
         <v>866</v>
@@ -29491,7 +29497,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="461" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:16" ht="15" customHeight="1">
       <c r="B461" s="22" t="s">
         <v>43</v>
       </c>
@@ -29499,7 +29505,7 @@
         <v>45334</v>
       </c>
       <c r="D461" s="22" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E461" s="21">
         <v>990861</v>
@@ -29514,13 +29520,13 @@
         <v>31</v>
       </c>
       <c r="I461" s="23" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="J461" s="68" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="K461" s="68" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="L461" s="22" t="s">
         <v>866</v>
@@ -29538,7 +29544,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="462" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:16" ht="15" customHeight="1">
       <c r="B462" s="22" t="s">
         <v>43</v>
       </c>
@@ -29546,7 +29552,7 @@
         <v>45334</v>
       </c>
       <c r="D462" s="22" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="E462" s="21">
         <v>618051</v>
@@ -29561,13 +29567,13 @@
         <v>31</v>
       </c>
       <c r="I462" s="23" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="J462" s="68" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="K462" s="68" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="L462" s="22" t="s">
         <v>866</v>
@@ -29585,7 +29591,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="463" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:16" ht="15" customHeight="1">
       <c r="B463" s="22" t="s">
         <v>43</v>
       </c>
@@ -29593,7 +29599,7 @@
         <v>45334</v>
       </c>
       <c r="D463" s="22" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="E463" s="21">
         <v>968744</v>
@@ -29608,13 +29614,13 @@
         <v>31</v>
       </c>
       <c r="I463" s="23" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="J463" s="68" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="K463" s="68" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="L463" s="22" t="s">
         <v>866</v>
@@ -29632,7 +29638,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="464" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:16" ht="15" customHeight="1">
       <c r="B464" s="22" t="s">
         <v>43</v>
       </c>
@@ -29640,7 +29646,7 @@
         <v>45334</v>
       </c>
       <c r="D464" s="22" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="E464" s="21">
         <v>791508</v>
@@ -29655,13 +29661,13 @@
         <v>31</v>
       </c>
       <c r="I464" s="23" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="J464" s="68" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="K464" s="68" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="L464" s="22" t="s">
         <v>866</v>
@@ -29679,7 +29685,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="465" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:16" ht="15" customHeight="1">
       <c r="B465" s="22" t="s">
         <v>43</v>
       </c>
@@ -29687,7 +29693,7 @@
         <v>45334</v>
       </c>
       <c r="D465" s="22" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="E465" s="21">
         <v>682738</v>
@@ -29702,13 +29708,13 @@
         <v>31</v>
       </c>
       <c r="I465" s="23" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="J465" s="68" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="K465" s="68" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L465" s="22" t="s">
         <v>866</v>
@@ -29726,7 +29732,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="466" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:16" ht="15" customHeight="1">
       <c r="B466" s="22" t="s">
         <v>43</v>
       </c>
@@ -29734,7 +29740,7 @@
         <v>45334</v>
       </c>
       <c r="D466" s="22" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="E466" s="21">
         <v>696891</v>
@@ -29749,13 +29755,13 @@
         <v>31</v>
       </c>
       <c r="I466" s="23" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J466" s="68" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="K466" s="68" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="L466" s="22" t="s">
         <v>866</v>
@@ -29773,7 +29779,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="467" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:16" ht="15" customHeight="1">
       <c r="B467" s="22" t="s">
         <v>43</v>
       </c>
@@ -29781,7 +29787,7 @@
         <v>45334</v>
       </c>
       <c r="D467" s="22" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E467" s="21">
         <v>866515</v>
@@ -29796,13 +29802,13 @@
         <v>31</v>
       </c>
       <c r="I467" s="23" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="J467" s="68" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="K467" s="68" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="L467" s="22" t="s">
         <v>866</v>
@@ -29820,7 +29826,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="468" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:16" ht="15" customHeight="1">
       <c r="B468" s="22" t="s">
         <v>43</v>
       </c>
@@ -29828,7 +29834,7 @@
         <v>45334</v>
       </c>
       <c r="D468" s="22" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="E468" s="21">
         <v>822731</v>
@@ -29843,13 +29849,13 @@
         <v>31</v>
       </c>
       <c r="I468" s="23" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="J468" s="68" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="K468" s="68" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="L468" s="22" t="s">
         <v>866</v>
@@ -29867,7 +29873,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="469" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:16" ht="15" customHeight="1">
       <c r="B469" s="22" t="s">
         <v>43</v>
       </c>
@@ -29875,7 +29881,7 @@
         <v>45334</v>
       </c>
       <c r="D469" s="22" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="E469" s="21">
         <v>860463</v>
@@ -29890,13 +29896,13 @@
         <v>31</v>
       </c>
       <c r="I469" s="72" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="J469" s="68" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="K469" s="68" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="L469" s="22" t="s">
         <v>866</v>
@@ -29914,7 +29920,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="470" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:16" ht="15" customHeight="1">
       <c r="B470" s="22" t="s">
         <v>43</v>
       </c>
@@ -29922,7 +29928,7 @@
         <v>45334</v>
       </c>
       <c r="D470" s="22" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="E470" s="21">
         <v>942874</v>
@@ -29937,13 +29943,13 @@
         <v>31</v>
       </c>
       <c r="I470" s="72" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="J470" s="68" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="K470" s="68" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="L470" s="22" t="s">
         <v>866</v>
@@ -29961,7 +29967,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="471" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:16" ht="15" customHeight="1">
       <c r="B471" s="22" t="s">
         <v>43</v>
       </c>
@@ -29969,7 +29975,7 @@
         <v>45334</v>
       </c>
       <c r="D471" s="22" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="E471" s="21">
         <v>885630</v>
@@ -29984,13 +29990,13 @@
         <v>31</v>
       </c>
       <c r="I471" s="72" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="J471" s="68" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="K471" s="68" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="L471" s="22" t="s">
         <v>866</v>
@@ -30008,7 +30014,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="472" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:16" ht="15" customHeight="1">
       <c r="B472" s="22" t="s">
         <v>43</v>
       </c>
@@ -30016,7 +30022,7 @@
         <v>45334</v>
       </c>
       <c r="D472" s="22" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="E472" s="21">
         <v>720363</v>
@@ -30031,13 +30037,13 @@
         <v>31</v>
       </c>
       <c r="I472" s="23" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J472" s="68" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="K472" s="68" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="L472" s="22" t="s">
         <v>866</v>
@@ -30055,7 +30061,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="473" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:16" ht="15" customHeight="1">
       <c r="B473" s="22" t="s">
         <v>43</v>
       </c>
@@ -30063,7 +30069,7 @@
         <v>45334</v>
       </c>
       <c r="D473" s="22" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="E473" s="21">
         <v>951008</v>
@@ -30078,13 +30084,13 @@
         <v>31</v>
       </c>
       <c r="I473" s="23" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="J473" s="68" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="K473" s="68" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="L473" s="22" t="s">
         <v>866</v>
@@ -30102,7 +30108,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="474" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:16" ht="15" customHeight="1">
       <c r="B474" s="22" t="s">
         <v>43</v>
       </c>
@@ -30110,7 +30116,7 @@
         <v>45334</v>
       </c>
       <c r="D474" s="22" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="E474" s="21">
         <v>837884</v>
@@ -30125,13 +30131,13 @@
         <v>31</v>
       </c>
       <c r="I474" s="23" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="J474" s="68" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="K474" s="68" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="L474" s="22" t="s">
         <v>866</v>
@@ -30149,7 +30155,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="475" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:16" ht="15" customHeight="1">
       <c r="B475" s="22" t="s">
         <v>43</v>
       </c>
@@ -30157,7 +30163,7 @@
         <v>45334</v>
       </c>
       <c r="D475" s="22" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="E475" s="21">
         <v>849393</v>
@@ -30172,13 +30178,13 @@
         <v>31</v>
       </c>
       <c r="I475" s="23" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="J475" s="68" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="K475" s="68" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="L475" s="22" t="s">
         <v>866</v>
@@ -30196,7 +30202,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="476" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:16" ht="15" customHeight="1">
       <c r="B476" s="22" t="s">
         <v>43</v>
       </c>
@@ -30204,7 +30210,7 @@
         <v>45334</v>
       </c>
       <c r="D476" s="22" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E476" s="21">
         <v>747206</v>
@@ -30219,13 +30225,13 @@
         <v>31</v>
       </c>
       <c r="I476" s="23" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="J476" s="68" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="K476" s="68" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="L476" s="22" t="s">
         <v>866</v>
@@ -30243,7 +30249,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="477" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:16" ht="15" customHeight="1">
       <c r="B477" s="22" t="s">
         <v>43</v>
       </c>
@@ -30251,7 +30257,7 @@
         <v>45334</v>
       </c>
       <c r="D477" s="22" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="E477" s="21">
         <v>852917</v>
@@ -30266,13 +30272,13 @@
         <v>31</v>
       </c>
       <c r="I477" s="23" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="J477" s="68" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="K477" s="68" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="L477" s="22" t="s">
         <v>866</v>
@@ -30290,7 +30296,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="478" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:16" ht="15" customHeight="1">
       <c r="B478" s="22" t="s">
         <v>43</v>
       </c>
@@ -30298,7 +30304,7 @@
         <v>45334</v>
       </c>
       <c r="D478" s="22" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="E478" s="21">
         <v>826182</v>
@@ -30313,13 +30319,13 @@
         <v>31</v>
       </c>
       <c r="I478" s="23" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="J478" s="68" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="K478" s="68" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="L478" s="22" t="s">
         <v>866</v>
@@ -30337,7 +30343,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="479" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:16" ht="15" customHeight="1">
       <c r="B479" s="22" t="s">
         <v>43</v>
       </c>
@@ -30345,7 +30351,7 @@
         <v>45334</v>
       </c>
       <c r="D479" s="22" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="E479" s="21">
         <v>778098</v>
@@ -30360,13 +30366,13 @@
         <v>31</v>
       </c>
       <c r="I479" s="23" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="J479" s="68" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="K479" s="68" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="L479" s="22" t="s">
         <v>866</v>
@@ -30384,7 +30390,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="480" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:16" ht="15" customHeight="1">
       <c r="B480" s="22" t="s">
         <v>43</v>
       </c>
@@ -30392,7 +30398,7 @@
         <v>45334</v>
       </c>
       <c r="D480" s="22" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="E480" s="21">
         <v>832644</v>
@@ -30413,7 +30419,7 @@
         <v>831</v>
       </c>
       <c r="K480" s="68" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="L480" s="22" t="s">
         <v>866</v>
@@ -30431,7 +30437,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="481" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:16" ht="15" customHeight="1">
       <c r="B481" s="22" t="s">
         <v>43</v>
       </c>
@@ -30439,7 +30445,7 @@
         <v>45334</v>
       </c>
       <c r="D481" s="22" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="E481" s="21">
         <v>880275</v>
@@ -30454,13 +30460,13 @@
         <v>31</v>
       </c>
       <c r="I481" s="23" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="J481" s="68" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="K481" s="68" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="L481" s="22" t="s">
         <v>866</v>
@@ -30478,7 +30484,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="482" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:16" ht="15" customHeight="1">
       <c r="B482" s="22" t="s">
         <v>43</v>
       </c>
@@ -30486,7 +30492,7 @@
         <v>45334</v>
       </c>
       <c r="D482" s="22" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="E482" s="21">
         <v>840914</v>
@@ -30501,13 +30507,13 @@
         <v>31</v>
       </c>
       <c r="I482" s="23" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="J482" s="68" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="K482" s="68" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="L482" s="22" t="s">
         <v>866</v>
@@ -30525,7 +30531,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="483" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:16" ht="15" customHeight="1">
       <c r="B483" s="22" t="s">
         <v>43</v>
       </c>
@@ -30533,7 +30539,7 @@
         <v>45334</v>
       </c>
       <c r="D483" s="22" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="E483" s="21">
         <v>872163</v>
@@ -30548,13 +30554,13 @@
         <v>31</v>
       </c>
       <c r="I483" s="23" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="J483" s="68" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="K483" s="68" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="L483" s="22" t="s">
         <v>866</v>
@@ -30572,7 +30578,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="484" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:16" ht="15" customHeight="1">
       <c r="B484" s="22" t="s">
         <v>43</v>
       </c>
@@ -30580,7 +30586,7 @@
         <v>45334</v>
       </c>
       <c r="D484" s="22" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="E484" s="21">
         <v>943025</v>
@@ -30595,13 +30601,13 @@
         <v>31</v>
       </c>
       <c r="I484" s="23" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="J484" s="68" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="K484" s="68" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="L484" s="22" t="s">
         <v>866</v>
@@ -30619,7 +30625,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="485" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:16" ht="15" customHeight="1">
       <c r="B485" s="22" t="s">
         <v>43</v>
       </c>
@@ -30627,7 +30633,7 @@
         <v>45334</v>
       </c>
       <c r="D485" s="22" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="E485" s="21">
         <v>870491</v>
@@ -30642,13 +30648,13 @@
         <v>31</v>
       </c>
       <c r="I485" s="23" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="J485" s="68" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="K485" s="68" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="L485" s="22" t="s">
         <v>866</v>
@@ -30666,7 +30672,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="486" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:16" ht="15" customHeight="1">
       <c r="B486" s="22" t="s">
         <v>43</v>
       </c>
@@ -30674,7 +30680,7 @@
         <v>45334</v>
       </c>
       <c r="D486" s="22" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="E486" s="21">
         <v>888839</v>
@@ -30689,13 +30695,13 @@
         <v>31</v>
       </c>
       <c r="I486" s="23" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="J486" s="68" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="K486" s="68" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="L486" s="22" t="s">
         <v>866</v>
@@ -30713,15 +30719,15 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="487" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:16" ht="15" customHeight="1">
       <c r="B487" s="22" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="C487" s="24">
         <v>45334</v>
       </c>
       <c r="D487" s="22" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="E487" s="22">
         <v>743506</v>
@@ -30736,13 +30742,13 @@
         <v>31</v>
       </c>
       <c r="I487" s="23" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="J487" s="68" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="K487" s="68" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="L487" s="22" t="s">
         <v>866</v>
@@ -30751,12 +30757,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="488" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" ht="31.5">
       <c r="C488" s="24">
         <v>45334</v>
       </c>
       <c r="D488" s="22" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E488" s="22">
         <v>743506</v>
@@ -30774,24 +30780,24 @@
         <v>1803</v>
       </c>
       <c r="J488" s="21" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="K488" s="22" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="489" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16" ht="31.5">
       <c r="A489" s="22">
         <v>1</v>
       </c>
       <c r="B489" s="22" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="C489" s="24">
         <v>45334</v>
       </c>
       <c r="D489" s="22" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="E489" s="22">
         <v>743506</v>
@@ -30809,12 +30815,12 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="490" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16" ht="15" customHeight="1">
       <c r="A490" s="22">
         <v>1</v>
       </c>
       <c r="B490" s="22" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="C490" s="24">
         <v>45335</v>
@@ -30835,18 +30841,18 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="491" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16" ht="15" customHeight="1">
       <c r="A491" s="22">
         <v>1</v>
       </c>
       <c r="B491" s="22" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="C491" s="24">
         <v>45336</v>
       </c>
       <c r="D491" s="22" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="E491" s="22">
         <v>743506</v>
@@ -30861,18 +30867,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="492" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" ht="15" customHeight="1">
       <c r="A492" s="22">
         <v>1</v>
       </c>
       <c r="B492" s="22" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="C492" s="24">
         <v>45337</v>
       </c>
       <c r="D492" s="22" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="E492" s="22">
         <v>743506</v>
@@ -30890,30 +30896,30 @@
         <v>1803</v>
       </c>
       <c r="J492" s="21" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="K492" s="22" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="493" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" ht="15" customHeight="1">
       <c r="A493" s="22">
         <v>1</v>
       </c>
       <c r="B493" s="22" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="C493" s="24">
         <v>45338</v>
       </c>
       <c r="D493" s="22" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="E493" s="22">
         <v>743506</v>
       </c>
       <c r="F493" s="22" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="G493" s="24">
         <v>45335</v>
@@ -30925,10 +30931,10 @@
         <v>1803</v>
       </c>
       <c r="J493" s="21" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="K493" s="22" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
   </sheetData>
@@ -31058,7 +31064,7 @@
       <selection sqref="A1:A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/LandRegistryProject/TestDatas/TittleNumer.xlsx
+++ b/LandRegistryProject/TestDatas/TittleNumer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amos.Awaghade\source\repos\LandRegistryBulk-Discharge-Automation\LandRegistryProject\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85AB906-ED2E-4ADD-A096-AF4000A7C10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA4FDBB-9910-4559-A491-112E773D61FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{400498CB-F334-4E68-B062-A427E2481F8E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5031" uniqueCount="1940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5076" uniqueCount="1942">
   <si>
     <t>Daily Download</t>
   </si>
@@ -5461,9 +5461,6 @@
     <t>HD602384</t>
   </si>
   <si>
-    <t>No value in Field 'HMLR Title No' or 'Full Asset Address'.</t>
-  </si>
-  <si>
     <t>1 Slater Way Ilkeston DE7 4SL</t>
   </si>
   <si>
@@ -5854,26 +5851,35 @@
     <t>31 Wallace Green Way, Walkern, Stevenage (SG2 7FA)</t>
   </si>
   <si>
-    <t>31 Wallace Green Way, Walkern, Stevenage (SG2 7FB)</t>
-  </si>
-  <si>
-    <t>Zk</t>
-  </si>
-  <si>
-    <t>HD602384/Z085RHT/228</t>
-  </si>
-  <si>
-    <t>HD602384/D185RHT/228</t>
-  </si>
-  <si>
-    <t>HD602384/H185RHT/228</t>
+    <t>HD602384/V767JJT/246</t>
+  </si>
+  <si>
+    <t>HD602384/W767JJT/246</t>
+  </si>
+  <si>
+    <t>HD602384/X767JJT/246</t>
+  </si>
+  <si>
+    <t>HD602384/E867JJT/246</t>
+  </si>
+  <si>
+    <t>HD602384/F867JJT/246</t>
+  </si>
+  <si>
+    <t>HD602384/I867JJT/246</t>
+  </si>
+  <si>
+    <t>HD602384/J867JJT/246</t>
+  </si>
+  <si>
+    <t>HD602384/K867JJT/246</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6805,8 +6811,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3041</xdr:row>
-      <xdr:rowOff>80043</xdr:rowOff>
+      <xdr:row>3043</xdr:row>
+      <xdr:rowOff>102454</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6895,16 +6901,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>31210</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1006121</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>186765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>3043</xdr:row>
-      <xdr:rowOff>7453</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3045</xdr:row>
+      <xdr:rowOff>29864</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6924,8 +6930,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7823034" y="2039471"/>
-          <a:ext cx="198697" cy="589642307"/>
+          <a:off x="7404680" y="2035736"/>
+          <a:ext cx="197390" cy="579557010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6998,9 +7004,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7038,7 +7044,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7144,7 +7150,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7286,7 +7292,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7294,13 +7300,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8018EBFC-BBDD-47D5-8A8F-DFE2D059D3E8}">
-  <dimension ref="A1:R493"/>
+  <dimension ref="A1:R500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M488" sqref="M488:M493"/>
+    <sheetView tabSelected="1" topLeftCell="A463" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M489" sqref="M489:M501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="22" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="24" customWidth="1"/>
@@ -7313,16 +7319,16 @@
     <col min="10" max="10" width="52.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" style="22" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" style="22" customWidth="1"/>
-    <col min="13" max="13" width="26.42578125" style="22" customWidth="1"/>
+    <col min="13" max="13" width="38.42578125" style="22" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="24" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="24" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="22" customWidth="1"/>
     <col min="17" max="17" width="59" style="22" customWidth="1"/>
-    <col min="18" max="41" width="9.140625" style="22" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="22"/>
+    <col min="18" max="46" width="9.140625" style="22" customWidth="1"/>
+    <col min="47" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
@@ -7352,7 +7358,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" ht="48" customHeight="1">
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>5</v>
       </c>
@@ -7384,7 +7390,7 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" ht="67.5" customHeight="1">
+    <row r="3" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -7438,7 +7444,7 @@
       </c>
       <c r="R3" s="21"/>
     </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
@@ -7492,7 +7498,7 @@
       </c>
       <c r="R4" s="21"/>
     </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>28</v>
       </c>
@@ -7543,7 +7549,7 @@
       </c>
       <c r="R5" s="21"/>
     </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -7594,7 +7600,7 @@
       </c>
       <c r="R6" s="21"/>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>43</v>
       </c>
@@ -7645,7 +7651,7 @@
       </c>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>43</v>
       </c>
@@ -7696,7 +7702,7 @@
       </c>
       <c r="R8" s="21"/>
     </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>43</v>
       </c>
@@ -7744,7 +7750,7 @@
       </c>
       <c r="R9" s="21"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>43</v>
       </c>
@@ -7795,7 +7801,7 @@
       </c>
       <c r="R10" s="21"/>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>43</v>
       </c>
@@ -7846,7 +7852,7 @@
       </c>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>43</v>
       </c>
@@ -7897,7 +7903,7 @@
       </c>
       <c r="R12" s="21"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>43</v>
       </c>
@@ -7948,7 +7954,7 @@
       </c>
       <c r="R13" s="21"/>
     </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>43</v>
       </c>
@@ -7999,7 +8005,7 @@
       </c>
       <c r="R14" s="21"/>
     </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>43</v>
       </c>
@@ -8050,7 +8056,7 @@
       </c>
       <c r="R15" s="21"/>
     </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>43</v>
       </c>
@@ -8101,7 +8107,7 @@
       </c>
       <c r="R16" s="21"/>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>43</v>
       </c>
@@ -8152,7 +8158,7 @@
       </c>
       <c r="R17" s="21"/>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>43</v>
       </c>
@@ -8203,7 +8209,7 @@
       </c>
       <c r="R18" s="21"/>
     </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1">
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>43</v>
       </c>
@@ -8254,7 +8260,7 @@
       </c>
       <c r="R19" s="21"/>
     </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
@@ -8305,7 +8311,7 @@
       </c>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>43</v>
       </c>
@@ -8356,7 +8362,7 @@
       </c>
       <c r="R21" s="21"/>
     </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1">
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>43</v>
       </c>
@@ -8407,7 +8413,7 @@
       </c>
       <c r="R22" s="21"/>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1">
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>43</v>
       </c>
@@ -8458,7 +8464,7 @@
       </c>
       <c r="R23" s="21"/>
     </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1">
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>43</v>
       </c>
@@ -8509,7 +8515,7 @@
       </c>
       <c r="R24" s="21"/>
     </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1">
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>43</v>
       </c>
@@ -8560,7 +8566,7 @@
       </c>
       <c r="R25" s="21"/>
     </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1">
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>43</v>
       </c>
@@ -8611,7 +8617,7 @@
       </c>
       <c r="R26" s="21"/>
     </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1">
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>43</v>
       </c>
@@ -8662,7 +8668,7 @@
       </c>
       <c r="R27" s="21"/>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1">
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>43</v>
       </c>
@@ -8713,7 +8719,7 @@
       </c>
       <c r="R28" s="21"/>
     </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1">
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>43</v>
       </c>
@@ -8764,7 +8770,7 @@
       </c>
       <c r="R29" s="21"/>
     </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1">
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>43</v>
       </c>
@@ -8815,7 +8821,7 @@
       </c>
       <c r="R30" s="21"/>
     </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1">
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>43</v>
       </c>
@@ -8866,7 +8872,7 @@
       </c>
       <c r="R31" s="21"/>
     </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1">
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>43</v>
       </c>
@@ -8917,7 +8923,7 @@
       </c>
       <c r="R32" s="21"/>
     </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1">
+    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>43</v>
       </c>
@@ -8971,7 +8977,7 @@
       </c>
       <c r="R33" s="21"/>
     </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1">
+    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>43</v>
       </c>
@@ -9022,7 +9028,7 @@
       </c>
       <c r="R34" s="21"/>
     </row>
-    <row r="35" spans="1:18" ht="15" customHeight="1">
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>43</v>
       </c>
@@ -9073,7 +9079,7 @@
       </c>
       <c r="R35" s="21"/>
     </row>
-    <row r="36" spans="1:18" ht="15" customHeight="1">
+    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>43</v>
       </c>
@@ -9124,7 +9130,7 @@
       </c>
       <c r="R36" s="21"/>
     </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1">
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>43</v>
       </c>
@@ -9175,7 +9181,7 @@
       </c>
       <c r="R37" s="21"/>
     </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1">
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>43</v>
       </c>
@@ -9226,7 +9232,7 @@
       </c>
       <c r="R38" s="21"/>
     </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1">
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>43</v>
       </c>
@@ -9277,7 +9283,7 @@
       </c>
       <c r="R39" s="21"/>
     </row>
-    <row r="40" spans="1:18" ht="15" customHeight="1">
+    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>43</v>
       </c>
@@ -9328,7 +9334,7 @@
       </c>
       <c r="R40" s="21"/>
     </row>
-    <row r="41" spans="1:18" ht="15" customHeight="1">
+    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>43</v>
       </c>
@@ -9379,7 +9385,7 @@
       </c>
       <c r="R41" s="21"/>
     </row>
-    <row r="42" spans="1:18" ht="15" customHeight="1">
+    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>43</v>
       </c>
@@ -9430,7 +9436,7 @@
       </c>
       <c r="R42" s="21"/>
     </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1">
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>43</v>
       </c>
@@ -9481,7 +9487,7 @@
       </c>
       <c r="R43" s="21"/>
     </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1">
+    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>43</v>
       </c>
@@ -9532,7 +9538,7 @@
       </c>
       <c r="R44" s="21"/>
     </row>
-    <row r="45" spans="1:18" ht="15" customHeight="1">
+    <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>43</v>
       </c>
@@ -9583,7 +9589,7 @@
       </c>
       <c r="R45" s="21"/>
     </row>
-    <row r="46" spans="1:18" ht="15" customHeight="1">
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>43</v>
       </c>
@@ -9634,7 +9640,7 @@
       </c>
       <c r="R46" s="21"/>
     </row>
-    <row r="47" spans="1:18" ht="15" customHeight="1">
+    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>43</v>
       </c>
@@ -9685,7 +9691,7 @@
       </c>
       <c r="R47" s="21"/>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1">
+    <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>43</v>
       </c>
@@ -9736,7 +9742,7 @@
       </c>
       <c r="R48" s="21"/>
     </row>
-    <row r="49" spans="1:18" ht="15" customHeight="1">
+    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>43</v>
       </c>
@@ -9787,7 +9793,7 @@
       </c>
       <c r="R49" s="21"/>
     </row>
-    <row r="50" spans="1:18" ht="15" customHeight="1">
+    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>43</v>
       </c>
@@ -9838,7 +9844,7 @@
       </c>
       <c r="R50" s="21"/>
     </row>
-    <row r="51" spans="1:18" ht="15" customHeight="1">
+    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>43</v>
       </c>
@@ -9889,7 +9895,7 @@
       </c>
       <c r="R51" s="21"/>
     </row>
-    <row r="52" spans="1:18" ht="15" customHeight="1">
+    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>43</v>
       </c>
@@ -9940,7 +9946,7 @@
       </c>
       <c r="R52" s="21"/>
     </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1">
+    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>43</v>
       </c>
@@ -9991,7 +9997,7 @@
       </c>
       <c r="R53" s="21"/>
     </row>
-    <row r="54" spans="1:18" ht="15" customHeight="1">
+    <row r="54" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>43</v>
       </c>
@@ -10042,7 +10048,7 @@
       </c>
       <c r="R54" s="21"/>
     </row>
-    <row r="55" spans="1:18" ht="15" customHeight="1">
+    <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>43</v>
       </c>
@@ -10093,7 +10099,7 @@
       </c>
       <c r="R55" s="21"/>
     </row>
-    <row r="56" spans="1:18" ht="15" customHeight="1">
+    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>43</v>
       </c>
@@ -10144,7 +10150,7 @@
       </c>
       <c r="R56" s="21"/>
     </row>
-    <row r="57" spans="1:18" ht="15" customHeight="1">
+    <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>43</v>
       </c>
@@ -10195,7 +10201,7 @@
       </c>
       <c r="R57" s="21"/>
     </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1">
+    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>43</v>
       </c>
@@ -10246,7 +10252,7 @@
       </c>
       <c r="R58" s="21"/>
     </row>
-    <row r="59" spans="1:18" ht="15" customHeight="1">
+    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>43</v>
       </c>
@@ -10297,7 +10303,7 @@
       </c>
       <c r="R59" s="21"/>
     </row>
-    <row r="60" spans="1:18" ht="15" customHeight="1">
+    <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>43</v>
       </c>
@@ -10348,7 +10354,7 @@
       </c>
       <c r="R60" s="21"/>
     </row>
-    <row r="61" spans="1:18" ht="15" customHeight="1">
+    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>43</v>
       </c>
@@ -10399,7 +10405,7 @@
       </c>
       <c r="R61" s="21"/>
     </row>
-    <row r="62" spans="1:18" ht="15" customHeight="1">
+    <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>43</v>
       </c>
@@ -10450,7 +10456,7 @@
       </c>
       <c r="R62" s="21"/>
     </row>
-    <row r="63" spans="1:18" ht="15" customHeight="1">
+    <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>43</v>
       </c>
@@ -10501,7 +10507,7 @@
       </c>
       <c r="R63" s="21"/>
     </row>
-    <row r="64" spans="1:18" ht="15" customHeight="1">
+    <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>43</v>
       </c>
@@ -10552,7 +10558,7 @@
       </c>
       <c r="R64" s="21"/>
     </row>
-    <row r="65" spans="1:18" ht="15" customHeight="1">
+    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>43</v>
       </c>
@@ -10603,7 +10609,7 @@
       </c>
       <c r="R65" s="21"/>
     </row>
-    <row r="66" spans="1:18" ht="15" customHeight="1">
+    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>43</v>
       </c>
@@ -10654,7 +10660,7 @@
       </c>
       <c r="R66" s="21"/>
     </row>
-    <row r="67" spans="1:18" ht="15" customHeight="1">
+    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>43</v>
       </c>
@@ -10705,7 +10711,7 @@
       </c>
       <c r="R67" s="21"/>
     </row>
-    <row r="68" spans="1:18" ht="15" customHeight="1">
+    <row r="68" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>43</v>
       </c>
@@ -10747,7 +10753,7 @@
       </c>
       <c r="R68" s="21"/>
     </row>
-    <row r="69" spans="1:18" ht="15" customHeight="1">
+    <row r="69" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>43</v>
       </c>
@@ -10798,7 +10804,7 @@
       </c>
       <c r="R69" s="21"/>
     </row>
-    <row r="70" spans="1:18" ht="15" customHeight="1">
+    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>43</v>
       </c>
@@ -10849,7 +10855,7 @@
       </c>
       <c r="R70" s="21"/>
     </row>
-    <row r="71" spans="1:18" ht="15" customHeight="1">
+    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>43</v>
       </c>
@@ -10900,7 +10906,7 @@
       </c>
       <c r="R71" s="21"/>
     </row>
-    <row r="72" spans="1:18" ht="15" customHeight="1">
+    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>43</v>
       </c>
@@ -10951,7 +10957,7 @@
       </c>
       <c r="R72" s="21"/>
     </row>
-    <row r="73" spans="1:18" ht="15" customHeight="1">
+    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>43</v>
       </c>
@@ -11002,7 +11008,7 @@
       </c>
       <c r="R73" s="21"/>
     </row>
-    <row r="74" spans="1:18" ht="15" customHeight="1">
+    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>43</v>
       </c>
@@ -11053,7 +11059,7 @@
       </c>
       <c r="R74" s="21"/>
     </row>
-    <row r="75" spans="1:18" ht="15" customHeight="1">
+    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>43</v>
       </c>
@@ -11104,7 +11110,7 @@
       </c>
       <c r="R75" s="21"/>
     </row>
-    <row r="76" spans="1:18" ht="15" customHeight="1">
+    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>43</v>
       </c>
@@ -11155,7 +11161,7 @@
       </c>
       <c r="R76" s="21"/>
     </row>
-    <row r="77" spans="1:18" ht="15" customHeight="1">
+    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>43</v>
       </c>
@@ -11206,7 +11212,7 @@
       </c>
       <c r="R77" s="21"/>
     </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1">
+    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>43</v>
       </c>
@@ -11260,7 +11266,7 @@
       </c>
       <c r="R78" s="21"/>
     </row>
-    <row r="79" spans="1:18" ht="15" customHeight="1">
+    <row r="79" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>43</v>
       </c>
@@ -11311,7 +11317,7 @@
       </c>
       <c r="R79" s="21"/>
     </row>
-    <row r="80" spans="1:18" ht="15" customHeight="1">
+    <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>43</v>
       </c>
@@ -11362,7 +11368,7 @@
       </c>
       <c r="R80" s="21"/>
     </row>
-    <row r="81" spans="1:18" ht="15" customHeight="1">
+    <row r="81" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>43</v>
       </c>
@@ -11416,7 +11422,7 @@
       </c>
       <c r="R81" s="21"/>
     </row>
-    <row r="82" spans="1:18" ht="15" customHeight="1">
+    <row r="82" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>43</v>
       </c>
@@ -11470,7 +11476,7 @@
       </c>
       <c r="R82" s="21"/>
     </row>
-    <row r="83" spans="1:18" ht="15" customHeight="1">
+    <row r="83" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>43</v>
       </c>
@@ -11521,7 +11527,7 @@
       </c>
       <c r="R83" s="21"/>
     </row>
-    <row r="84" spans="1:18" ht="15" customHeight="1">
+    <row r="84" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>43</v>
       </c>
@@ -11572,7 +11578,7 @@
       </c>
       <c r="R84" s="21"/>
     </row>
-    <row r="85" spans="1:18" ht="15" customHeight="1">
+    <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>43</v>
       </c>
@@ -11623,7 +11629,7 @@
       </c>
       <c r="R85" s="21"/>
     </row>
-    <row r="86" spans="1:18" ht="15" customHeight="1">
+    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>43</v>
       </c>
@@ -11674,7 +11680,7 @@
       </c>
       <c r="R86" s="21"/>
     </row>
-    <row r="87" spans="1:18" ht="15" customHeight="1">
+    <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>43</v>
       </c>
@@ -11725,7 +11731,7 @@
       </c>
       <c r="R87" s="21"/>
     </row>
-    <row r="88" spans="1:18" ht="15" customHeight="1">
+    <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>43</v>
       </c>
@@ -11776,7 +11782,7 @@
       </c>
       <c r="R88" s="21"/>
     </row>
-    <row r="89" spans="1:18" ht="15" customHeight="1">
+    <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>43</v>
       </c>
@@ -11827,7 +11833,7 @@
       </c>
       <c r="R89" s="21"/>
     </row>
-    <row r="90" spans="1:18" ht="15" customHeight="1">
+    <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>43</v>
       </c>
@@ -11878,7 +11884,7 @@
       </c>
       <c r="R90" s="21"/>
     </row>
-    <row r="91" spans="1:18" ht="15" customHeight="1">
+    <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>43</v>
       </c>
@@ -11929,7 +11935,7 @@
       </c>
       <c r="R91" s="21"/>
     </row>
-    <row r="92" spans="1:18" ht="15" customHeight="1">
+    <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>43</v>
       </c>
@@ -11980,7 +11986,7 @@
       </c>
       <c r="R92" s="21"/>
     </row>
-    <row r="93" spans="1:18" ht="15" customHeight="1">
+    <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>43</v>
       </c>
@@ -12031,7 +12037,7 @@
       </c>
       <c r="R93" s="21"/>
     </row>
-    <row r="94" spans="1:18" ht="15" customHeight="1">
+    <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>43</v>
       </c>
@@ -12079,7 +12085,7 @@
       </c>
       <c r="R94" s="21"/>
     </row>
-    <row r="95" spans="1:18" ht="15" customHeight="1">
+    <row r="95" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>43</v>
       </c>
@@ -12130,7 +12136,7 @@
       </c>
       <c r="R95" s="21"/>
     </row>
-    <row r="96" spans="1:18" ht="15" customHeight="1">
+    <row r="96" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>43</v>
       </c>
@@ -12181,7 +12187,7 @@
       </c>
       <c r="R96" s="21"/>
     </row>
-    <row r="97" spans="1:18" ht="15" customHeight="1">
+    <row r="97" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>43</v>
       </c>
@@ -12232,7 +12238,7 @@
       </c>
       <c r="R97" s="21"/>
     </row>
-    <row r="98" spans="1:18" ht="15" customHeight="1">
+    <row r="98" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>43</v>
       </c>
@@ -12283,7 +12289,7 @@
       </c>
       <c r="R98" s="21"/>
     </row>
-    <row r="99" spans="1:18" ht="15" customHeight="1">
+    <row r="99" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>43</v>
       </c>
@@ -12334,7 +12340,7 @@
       </c>
       <c r="R99" s="21"/>
     </row>
-    <row r="100" spans="1:18" ht="15" customHeight="1">
+    <row r="100" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
         <v>43</v>
       </c>
@@ -12385,7 +12391,7 @@
       </c>
       <c r="R100" s="21"/>
     </row>
-    <row r="101" spans="1:18" ht="15" customHeight="1">
+    <row r="101" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
         <v>43</v>
       </c>
@@ -12436,7 +12442,7 @@
       </c>
       <c r="R101" s="21"/>
     </row>
-    <row r="102" spans="1:18" ht="15" customHeight="1">
+    <row r="102" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>43</v>
       </c>
@@ -12487,7 +12493,7 @@
       </c>
       <c r="R102" s="21"/>
     </row>
-    <row r="103" spans="1:18" ht="15" customHeight="1">
+    <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
         <v>43</v>
       </c>
@@ -12538,7 +12544,7 @@
       </c>
       <c r="R103" s="21"/>
     </row>
-    <row r="104" spans="1:18" ht="15" customHeight="1">
+    <row r="104" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>43</v>
       </c>
@@ -12589,7 +12595,7 @@
       </c>
       <c r="R104" s="21"/>
     </row>
-    <row r="105" spans="1:18" ht="15" customHeight="1">
+    <row r="105" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>43</v>
       </c>
@@ -12640,7 +12646,7 @@
       </c>
       <c r="R105" s="21"/>
     </row>
-    <row r="106" spans="1:18" ht="15" customHeight="1">
+    <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>43</v>
       </c>
@@ -12691,7 +12697,7 @@
       </c>
       <c r="R106" s="21"/>
     </row>
-    <row r="107" spans="1:18" ht="15" customHeight="1">
+    <row r="107" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>43</v>
       </c>
@@ -12742,7 +12748,7 @@
       </c>
       <c r="R107" s="21"/>
     </row>
-    <row r="108" spans="1:18" ht="15" customHeight="1">
+    <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>43</v>
       </c>
@@ -12793,7 +12799,7 @@
       </c>
       <c r="R108" s="21"/>
     </row>
-    <row r="109" spans="1:18" ht="15" customHeight="1">
+    <row r="109" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>43</v>
       </c>
@@ -12844,7 +12850,7 @@
       </c>
       <c r="R109" s="21"/>
     </row>
-    <row r="110" spans="1:18" ht="15" customHeight="1">
+    <row r="110" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>43</v>
       </c>
@@ -12895,7 +12901,7 @@
       </c>
       <c r="R110" s="21"/>
     </row>
-    <row r="111" spans="1:18" ht="15" customHeight="1">
+    <row r="111" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>43</v>
       </c>
@@ -12946,7 +12952,7 @@
       </c>
       <c r="R111" s="21"/>
     </row>
-    <row r="112" spans="1:18" ht="15" customHeight="1">
+    <row r="112" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>43</v>
       </c>
@@ -12997,7 +13003,7 @@
       </c>
       <c r="R112" s="21"/>
     </row>
-    <row r="113" spans="1:18" ht="15" customHeight="1">
+    <row r="113" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>43</v>
       </c>
@@ -13048,7 +13054,7 @@
       </c>
       <c r="R113" s="21"/>
     </row>
-    <row r="114" spans="1:18" ht="15" customHeight="1">
+    <row r="114" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>43</v>
       </c>
@@ -13099,7 +13105,7 @@
       </c>
       <c r="R114" s="21"/>
     </row>
-    <row r="115" spans="1:18" ht="15" customHeight="1">
+    <row r="115" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>43</v>
       </c>
@@ -13150,7 +13156,7 @@
       </c>
       <c r="R115" s="21"/>
     </row>
-    <row r="116" spans="1:18" ht="15" customHeight="1">
+    <row r="116" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>43</v>
       </c>
@@ -13201,7 +13207,7 @@
       </c>
       <c r="R116" s="21"/>
     </row>
-    <row r="117" spans="1:18" ht="15" customHeight="1">
+    <row r="117" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>43</v>
       </c>
@@ -13252,7 +13258,7 @@
       </c>
       <c r="R117" s="21"/>
     </row>
-    <row r="118" spans="1:18" ht="15" customHeight="1">
+    <row r="118" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>43</v>
       </c>
@@ -13303,7 +13309,7 @@
       </c>
       <c r="R118" s="21"/>
     </row>
-    <row r="119" spans="1:18" ht="15" customHeight="1">
+    <row r="119" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>43</v>
       </c>
@@ -13354,7 +13360,7 @@
       </c>
       <c r="R119" s="21"/>
     </row>
-    <row r="120" spans="1:18" ht="15" customHeight="1">
+    <row r="120" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>43</v>
       </c>
@@ -13405,7 +13411,7 @@
       </c>
       <c r="R120" s="21"/>
     </row>
-    <row r="121" spans="1:18" ht="15" customHeight="1">
+    <row r="121" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>43</v>
       </c>
@@ -13456,7 +13462,7 @@
       </c>
       <c r="R121" s="21"/>
     </row>
-    <row r="122" spans="1:18" ht="15" customHeight="1">
+    <row r="122" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>43</v>
       </c>
@@ -13507,7 +13513,7 @@
       </c>
       <c r="R122" s="21"/>
     </row>
-    <row r="123" spans="1:18" ht="15" customHeight="1">
+    <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>43</v>
       </c>
@@ -13558,7 +13564,7 @@
       </c>
       <c r="R123" s="21"/>
     </row>
-    <row r="124" spans="1:18" ht="15" customHeight="1">
+    <row r="124" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>43</v>
       </c>
@@ -13609,7 +13615,7 @@
       </c>
       <c r="R124" s="21"/>
     </row>
-    <row r="125" spans="1:18" ht="15" customHeight="1">
+    <row r="125" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>43</v>
       </c>
@@ -13660,7 +13666,7 @@
       </c>
       <c r="R125" s="21"/>
     </row>
-    <row r="126" spans="1:18" ht="15" customHeight="1">
+    <row r="126" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>43</v>
       </c>
@@ -13711,7 +13717,7 @@
       </c>
       <c r="R126" s="21"/>
     </row>
-    <row r="127" spans="1:18" ht="15" customHeight="1">
+    <row r="127" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>43</v>
       </c>
@@ -13762,7 +13768,7 @@
       </c>
       <c r="R127" s="21"/>
     </row>
-    <row r="128" spans="1:18" ht="15" customHeight="1">
+    <row r="128" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>43</v>
       </c>
@@ -13813,7 +13819,7 @@
       </c>
       <c r="R128" s="21"/>
     </row>
-    <row r="129" spans="1:18" ht="15" customHeight="1">
+    <row r="129" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>43</v>
       </c>
@@ -13864,7 +13870,7 @@
       </c>
       <c r="R129" s="21"/>
     </row>
-    <row r="130" spans="1:18" ht="15" customHeight="1">
+    <row r="130" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>28</v>
       </c>
@@ -13915,7 +13921,7 @@
       </c>
       <c r="R130" s="21"/>
     </row>
-    <row r="131" spans="1:18" ht="15" customHeight="1">
+    <row r="131" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
         <v>28</v>
       </c>
@@ -13966,7 +13972,7 @@
       </c>
       <c r="R131" s="21"/>
     </row>
-    <row r="132" spans="1:18" ht="15" customHeight="1">
+    <row r="132" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
         <v>28</v>
       </c>
@@ -14017,7 +14023,7 @@
       </c>
       <c r="R132" s="21"/>
     </row>
-    <row r="133" spans="1:18" ht="15" customHeight="1">
+    <row r="133" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22" t="s">
         <v>28</v>
       </c>
@@ -14068,7 +14074,7 @@
       </c>
       <c r="R133" s="21"/>
     </row>
-    <row r="134" spans="1:18" ht="15" customHeight="1">
+    <row r="134" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="22" t="s">
         <v>28</v>
       </c>
@@ -14119,7 +14125,7 @@
       </c>
       <c r="R134" s="21"/>
     </row>
-    <row r="135" spans="1:18" ht="15" customHeight="1">
+    <row r="135" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30"/>
       <c r="B135" s="25" t="s">
         <v>43</v>
@@ -14168,7 +14174,7 @@
       </c>
       <c r="Q135" s="30"/>
     </row>
-    <row r="136" spans="1:18" ht="15" customHeight="1">
+    <row r="136" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="25" t="s">
         <v>43</v>
       </c>
@@ -14215,7 +14221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="15" customHeight="1">
+    <row r="137" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="25" t="s">
         <v>43</v>
       </c>
@@ -14262,7 +14268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="15" customHeight="1">
+    <row r="138" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="25" t="s">
         <v>43</v>
       </c>
@@ -14309,7 +14315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="15" customHeight="1">
+    <row r="139" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="25" t="s">
         <v>43</v>
       </c>
@@ -14356,7 +14362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="15" customHeight="1">
+    <row r="140" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="25" t="s">
         <v>43</v>
       </c>
@@ -14403,7 +14409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="15" customHeight="1">
+    <row r="141" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="25" t="s">
         <v>43</v>
       </c>
@@ -14450,7 +14456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="15" customHeight="1">
+    <row r="142" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="25" t="s">
         <v>43</v>
       </c>
@@ -14497,7 +14503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="15" customHeight="1">
+    <row r="143" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="25" t="s">
         <v>43</v>
       </c>
@@ -14544,7 +14550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="15" customHeight="1">
+    <row r="144" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="25" t="s">
         <v>43</v>
       </c>
@@ -14591,7 +14597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="2:16" ht="15" customHeight="1">
+    <row r="145" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="25" t="s">
         <v>43</v>
       </c>
@@ -14638,7 +14644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="2:16" ht="15" customHeight="1">
+    <row r="146" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="25" t="s">
         <v>43</v>
       </c>
@@ -14685,7 +14691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="2:16" ht="15" customHeight="1">
+    <row r="147" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="25" t="s">
         <v>43</v>
       </c>
@@ -14732,7 +14738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="2:16" ht="14.25" customHeight="1">
+    <row r="148" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="25" t="s">
         <v>43</v>
       </c>
@@ -14779,7 +14785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="2:16" ht="15" customHeight="1">
+    <row r="149" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="25" t="s">
         <v>43</v>
       </c>
@@ -14826,7 +14832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="2:16" ht="15" customHeight="1">
+    <row r="150" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="25" t="s">
         <v>43</v>
       </c>
@@ -14873,7 +14879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="2:16" ht="15" customHeight="1">
+    <row r="151" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="25" t="s">
         <v>43</v>
       </c>
@@ -14920,7 +14926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="2:16" ht="15" customHeight="1">
+    <row r="152" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="25" t="s">
         <v>43</v>
       </c>
@@ -14967,7 +14973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="2:16" ht="15" customHeight="1">
+    <row r="153" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="25" t="s">
         <v>43</v>
       </c>
@@ -15014,7 +15020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="2:16" ht="15" customHeight="1">
+    <row r="154" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="25" t="s">
         <v>43</v>
       </c>
@@ -15061,7 +15067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="2:16" ht="15" customHeight="1">
+    <row r="155" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="25" t="s">
         <v>43</v>
       </c>
@@ -15108,7 +15114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="2:16" ht="15" customHeight="1">
+    <row r="156" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="25" t="s">
         <v>43</v>
       </c>
@@ -15155,7 +15161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="2:16" ht="15" customHeight="1">
+    <row r="157" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="25" t="s">
         <v>43</v>
       </c>
@@ -15202,7 +15208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="2:16" ht="15" customHeight="1">
+    <row r="158" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="25" t="s">
         <v>43</v>
       </c>
@@ -15249,7 +15255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="2:16" ht="15" customHeight="1">
+    <row r="159" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="25" t="s">
         <v>43</v>
       </c>
@@ -15296,7 +15302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="2:16" ht="15" customHeight="1">
+    <row r="160" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="25" t="s">
         <v>43</v>
       </c>
@@ -15343,7 +15349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="15" customHeight="1">
+    <row r="161" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="25" t="s">
         <v>43</v>
       </c>
@@ -15390,7 +15396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="15" customHeight="1">
+    <row r="162" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="25" t="s">
         <v>43</v>
       </c>
@@ -15437,7 +15443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="15" customHeight="1">
+    <row r="163" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="22" t="s">
         <v>28</v>
       </c>
@@ -15487,7 +15493,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="15" customHeight="1">
+    <row r="164" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="33" t="s">
         <v>28</v>
       </c>
@@ -15537,7 +15543,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="15" customHeight="1">
+    <row r="165" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="25"/>
       <c r="B165" s="22" t="s">
         <v>43</v>
@@ -15585,7 +15591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="15" customHeight="1">
+    <row r="166" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="25"/>
       <c r="B166" s="22" t="s">
         <v>43</v>
@@ -15633,7 +15639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="15" customHeight="1">
+    <row r="167" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="B167" s="22" t="s">
         <v>43</v>
@@ -15681,7 +15687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="15" customHeight="1">
+    <row r="168" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="25"/>
       <c r="B168" s="22" t="s">
         <v>43</v>
@@ -15729,7 +15735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="15" customHeight="1">
+    <row r="169" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="22" t="s">
         <v>43</v>
@@ -15777,7 +15783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="15" customHeight="1">
+    <row r="170" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="B170" s="22" t="s">
         <v>43</v>
@@ -15825,7 +15831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="15" customHeight="1">
+    <row r="171" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="22" t="s">
         <v>43</v>
@@ -15873,7 +15879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="15" customHeight="1">
+    <row r="172" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="25"/>
       <c r="B172" s="22" t="s">
         <v>43</v>
@@ -15921,7 +15927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="15" customHeight="1">
+    <row r="173" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="B173" s="22" t="s">
         <v>43</v>
@@ -15969,7 +15975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="15" customHeight="1">
+    <row r="174" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="22" t="s">
         <v>43</v>
@@ -16017,7 +16023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="15" customHeight="1">
+    <row r="175" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="22" t="s">
         <v>43</v>
@@ -16065,7 +16071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="15" customHeight="1">
+    <row r="176" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="22" t="s">
         <v>43</v>
@@ -16113,7 +16119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15" customHeight="1">
+    <row r="177" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="22" t="s">
         <v>43</v>
@@ -16161,7 +16167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15" customHeight="1">
+    <row r="178" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="22" t="s">
         <v>43</v>
@@ -16209,7 +16215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" customHeight="1">
+    <row r="179" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="25"/>
       <c r="B179" s="22" t="s">
         <v>43</v>
@@ -16257,7 +16263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" customHeight="1">
+    <row r="180" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="25"/>
       <c r="B180" s="22" t="s">
         <v>43</v>
@@ -16305,7 +16311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15" customHeight="1">
+    <row r="181" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="B181" s="22" t="s">
         <v>43</v>
@@ -16353,7 +16359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15" customHeight="1">
+    <row r="182" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="22" t="s">
         <v>43</v>
@@ -16401,7 +16407,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" customHeight="1">
+    <row r="183" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="22" t="s">
         <v>43</v>
@@ -16449,7 +16455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" customHeight="1">
+    <row r="184" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="22" t="s">
         <v>43</v>
@@ -16497,7 +16503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" customHeight="1">
+    <row r="185" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="25"/>
       <c r="B185" s="22" t="s">
         <v>43</v>
@@ -16545,7 +16551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" customHeight="1">
+    <row r="186" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="25"/>
       <c r="B186" s="22" t="s">
         <v>43</v>
@@ -16593,7 +16599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" customHeight="1">
+    <row r="187" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="25"/>
       <c r="B187" s="22" t="s">
         <v>43</v>
@@ -16641,7 +16647,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" customHeight="1">
+    <row r="188" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="22" t="s">
         <v>43</v>
@@ -16689,7 +16695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" customHeight="1">
+    <row r="189" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="22" t="s">
         <v>43</v>
@@ -16737,7 +16743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" customHeight="1">
+    <row r="190" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="22" t="s">
         <v>43</v>
@@ -16785,7 +16791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15" customHeight="1">
+    <row r="191" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="22" t="s">
         <v>43</v>
@@ -16833,7 +16839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" customHeight="1">
+    <row r="192" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="22" t="s">
         <v>43</v>
@@ -16881,7 +16887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="15" customHeight="1">
+    <row r="193" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
       <c r="B193" s="22" t="s">
         <v>43</v>
@@ -16929,7 +16935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="15" customHeight="1">
+    <row r="194" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="B194" s="22" t="s">
         <v>43</v>
@@ -16977,7 +16983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="15" customHeight="1">
+    <row r="195" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="22" t="s">
         <v>43</v>
@@ -17025,7 +17031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="15" customHeight="1">
+    <row r="196" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="22" t="s">
         <v>43</v>
@@ -17073,7 +17079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="15" customHeight="1">
+    <row r="197" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="22" t="s">
         <v>43</v>
@@ -17121,7 +17127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="15" customHeight="1">
+    <row r="198" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="22" t="s">
         <v>43</v>
@@ -17169,7 +17175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="15" customHeight="1">
+    <row r="199" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="B199" s="22" t="s">
         <v>43</v>
@@ -17217,7 +17223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="15" customHeight="1">
+    <row r="200" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="25"/>
       <c r="B200" s="22" t="s">
         <v>43</v>
@@ -17265,7 +17271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="15" customHeight="1">
+    <row r="201" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="25"/>
       <c r="B201" s="22" t="s">
         <v>43</v>
@@ -17313,7 +17319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="15" customHeight="1">
+    <row r="202" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="30" t="s">
         <v>28</v>
       </c>
@@ -17363,7 +17369,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="15" customHeight="1">
+    <row r="203" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="22" t="s">
         <v>28</v>
       </c>
@@ -17413,7 +17419,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="15" customHeight="1">
+    <row r="204" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="22" t="s">
         <v>28</v>
       </c>
@@ -17463,7 +17469,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="15" customHeight="1">
+    <row r="205" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="22" t="s">
         <v>28</v>
       </c>
@@ -17513,7 +17519,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="15" customHeight="1">
+    <row r="206" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="22" t="s">
         <v>28</v>
       </c>
@@ -17563,7 +17569,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="15" customHeight="1">
+    <row r="207" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="22" t="s">
         <v>28</v>
       </c>
@@ -17610,7 +17616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="15" customHeight="1">
+    <row r="208" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="22" t="s">
         <v>28</v>
       </c>
@@ -17657,7 +17663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="2:16" ht="15" customHeight="1">
+    <row r="209" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="22" t="s">
         <v>28</v>
       </c>
@@ -17704,7 +17710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="2:16" ht="15" customHeight="1">
+    <row r="210" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="22" t="s">
         <v>28</v>
       </c>
@@ -17751,7 +17757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="2:16" ht="15" customHeight="1">
+    <row r="211" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="22" t="s">
         <v>28</v>
       </c>
@@ -17798,7 +17804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="2:16" ht="15" customHeight="1">
+    <row r="212" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="22" t="s">
         <v>28</v>
       </c>
@@ -17845,7 +17851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="2:16" ht="15" customHeight="1">
+    <row r="213" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="22" t="s">
         <v>28</v>
       </c>
@@ -17892,7 +17898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="2:16" ht="15" customHeight="1">
+    <row r="214" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="22" t="s">
         <v>28</v>
       </c>
@@ -17939,7 +17945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="2:16" ht="15" customHeight="1">
+    <row r="215" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="22" t="s">
         <v>28</v>
       </c>
@@ -17986,7 +17992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="2:16" ht="15" customHeight="1">
+    <row r="216" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="22" t="s">
         <v>43</v>
       </c>
@@ -18033,7 +18039,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="217" spans="2:16" ht="15" customHeight="1">
+    <row r="217" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="22" t="s">
         <v>43</v>
       </c>
@@ -18080,7 +18086,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="218" spans="2:16" ht="15" customHeight="1">
+    <row r="218" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="22" t="s">
         <v>43</v>
       </c>
@@ -18127,7 +18133,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="219" spans="2:16" ht="15" customHeight="1">
+    <row r="219" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="22" t="s">
         <v>43</v>
       </c>
@@ -18174,7 +18180,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="220" spans="2:16" ht="15" customHeight="1">
+    <row r="220" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="22" t="s">
         <v>43</v>
       </c>
@@ -18221,7 +18227,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="221" spans="2:16" ht="15" customHeight="1">
+    <row r="221" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="22" t="s">
         <v>43</v>
       </c>
@@ -18268,7 +18274,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="222" spans="2:16" ht="15" customHeight="1">
+    <row r="222" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="22" t="s">
         <v>43</v>
       </c>
@@ -18315,7 +18321,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="223" spans="2:16" ht="15" customHeight="1">
+    <row r="223" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="22" t="s">
         <v>43</v>
       </c>
@@ -18362,7 +18368,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="224" spans="2:16" ht="15" customHeight="1">
+    <row r="224" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="22" t="s">
         <v>43</v>
       </c>
@@ -18409,7 +18415,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="225" spans="2:16" ht="15" customHeight="1">
+    <row r="225" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="22" t="s">
         <v>43</v>
       </c>
@@ -18456,7 +18462,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="226" spans="2:16" ht="15" customHeight="1">
+    <row r="226" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="22" t="s">
         <v>43</v>
       </c>
@@ -18503,7 +18509,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="227" spans="2:16" ht="15" customHeight="1">
+    <row r="227" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="22" t="s">
         <v>43</v>
       </c>
@@ -18550,7 +18556,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="228" spans="2:16" ht="15" customHeight="1">
+    <row r="228" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="22" t="s">
         <v>43</v>
       </c>
@@ -18597,7 +18603,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="229" spans="2:16" ht="15" customHeight="1">
+    <row r="229" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="22" t="s">
         <v>43</v>
       </c>
@@ -18644,7 +18650,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="230" spans="2:16" ht="15" customHeight="1">
+    <row r="230" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="22" t="s">
         <v>43</v>
       </c>
@@ -18691,7 +18697,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="231" spans="2:16" ht="15" customHeight="1">
+    <row r="231" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="22" t="s">
         <v>43</v>
       </c>
@@ -18738,7 +18744,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="232" spans="2:16" ht="15" customHeight="1">
+    <row r="232" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="22" t="s">
         <v>43</v>
       </c>
@@ -18785,7 +18791,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="233" spans="2:16" ht="15" customHeight="1">
+    <row r="233" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="22" t="s">
         <v>43</v>
       </c>
@@ -18832,7 +18838,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="234" spans="2:16" ht="15" customHeight="1">
+    <row r="234" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="22" t="s">
         <v>43</v>
       </c>
@@ -18879,7 +18885,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="235" spans="2:16" ht="15" customHeight="1">
+    <row r="235" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="22" t="s">
         <v>43</v>
       </c>
@@ -18926,7 +18932,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="236" spans="2:16" ht="15" customHeight="1">
+    <row r="236" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="22" t="s">
         <v>43</v>
       </c>
@@ -18973,7 +18979,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="237" spans="2:16" ht="15" customHeight="1">
+    <row r="237" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="22" t="s">
         <v>43</v>
       </c>
@@ -19020,7 +19026,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="238" spans="2:16" ht="15" customHeight="1">
+    <row r="238" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="22" t="s">
         <v>43</v>
       </c>
@@ -19067,7 +19073,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="239" spans="2:16" ht="15" customHeight="1">
+    <row r="239" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="22" t="s">
         <v>43</v>
       </c>
@@ -19114,7 +19120,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="240" spans="2:16" ht="15" customHeight="1">
+    <row r="240" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="22" t="s">
         <v>43</v>
       </c>
@@ -19161,7 +19167,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="241" spans="2:16" ht="15" customHeight="1">
+    <row r="241" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="22" t="s">
         <v>43</v>
       </c>
@@ -19208,7 +19214,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="242" spans="2:16" ht="15" customHeight="1">
+    <row r="242" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="22" t="s">
         <v>43</v>
       </c>
@@ -19255,7 +19261,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="243" spans="2:16" ht="15" customHeight="1">
+    <row r="243" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="22" t="s">
         <v>43</v>
       </c>
@@ -19302,7 +19308,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="244" spans="2:16" ht="15" customHeight="1">
+    <row r="244" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="22" t="s">
         <v>43</v>
       </c>
@@ -19349,7 +19355,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="245" spans="2:16" ht="15" customHeight="1">
+    <row r="245" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="22" t="s">
         <v>43</v>
       </c>
@@ -19396,7 +19402,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="246" spans="2:16" ht="15" customHeight="1">
+    <row r="246" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="22" t="s">
         <v>43</v>
       </c>
@@ -19443,7 +19449,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="247" spans="2:16" ht="15" customHeight="1">
+    <row r="247" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="22" t="s">
         <v>43</v>
       </c>
@@ -19490,7 +19496,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="248" spans="2:16" ht="15" customHeight="1">
+    <row r="248" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="22" t="s">
         <v>43</v>
       </c>
@@ -19534,7 +19540,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="249" spans="2:16" ht="15" customHeight="1">
+    <row r="249" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="22" t="s">
         <v>43</v>
       </c>
@@ -19581,7 +19587,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="250" spans="2:16" ht="15" customHeight="1">
+    <row r="250" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="22" t="s">
         <v>43</v>
       </c>
@@ -19628,7 +19634,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="251" spans="2:16" ht="15" customHeight="1">
+    <row r="251" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="22" t="s">
         <v>43</v>
       </c>
@@ -19675,7 +19681,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="252" spans="2:16" ht="15" customHeight="1">
+    <row r="252" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="22" t="s">
         <v>43</v>
       </c>
@@ -19722,7 +19728,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="253" spans="2:16" ht="15" customHeight="1">
+    <row r="253" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="22" t="s">
         <v>43</v>
       </c>
@@ -19769,7 +19775,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="254" spans="2:16" ht="15" customHeight="1">
+    <row r="254" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="22" t="s">
         <v>43</v>
       </c>
@@ -19816,7 +19822,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="255" spans="2:16" ht="15" customHeight="1">
+    <row r="255" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="22" t="s">
         <v>43</v>
       </c>
@@ -19863,7 +19869,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="256" spans="2:16" ht="15" customHeight="1">
+    <row r="256" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="22" t="s">
         <v>43</v>
       </c>
@@ -19910,7 +19916,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="257" spans="2:16" ht="15" customHeight="1">
+    <row r="257" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="22" t="s">
         <v>43</v>
       </c>
@@ -19957,7 +19963,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="258" spans="2:16" ht="15" customHeight="1">
+    <row r="258" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="22" t="s">
         <v>43</v>
       </c>
@@ -20004,7 +20010,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="259" spans="2:16" ht="15" customHeight="1">
+    <row r="259" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="22" t="s">
         <v>43</v>
       </c>
@@ -20051,7 +20057,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="260" spans="2:16" ht="15" customHeight="1">
+    <row r="260" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="22" t="s">
         <v>43</v>
       </c>
@@ -20098,7 +20104,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="261" spans="2:16" ht="15" customHeight="1">
+    <row r="261" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="22" t="s">
         <v>43</v>
       </c>
@@ -20145,7 +20151,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="262" spans="2:16" ht="15" customHeight="1">
+    <row r="262" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="22" t="s">
         <v>43</v>
       </c>
@@ -20192,7 +20198,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="263" spans="2:16" ht="15" customHeight="1">
+    <row r="263" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="22" t="s">
         <v>43</v>
       </c>
@@ -20239,7 +20245,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="264" spans="2:16" ht="15" customHeight="1">
+    <row r="264" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="22" t="s">
         <v>43</v>
       </c>
@@ -20286,7 +20292,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="265" spans="2:16" ht="15" customHeight="1">
+    <row r="265" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="22" t="s">
         <v>43</v>
       </c>
@@ -20333,7 +20339,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="266" spans="2:16" ht="15" customHeight="1">
+    <row r="266" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="22" t="s">
         <v>43</v>
       </c>
@@ -20380,7 +20386,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="267" spans="2:16" ht="15" customHeight="1">
+    <row r="267" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="22" t="s">
         <v>43</v>
       </c>
@@ -20427,7 +20433,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="268" spans="2:16" ht="15" customHeight="1">
+    <row r="268" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="22" t="s">
         <v>43</v>
       </c>
@@ -20474,7 +20480,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="269" spans="2:16" ht="15" customHeight="1">
+    <row r="269" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="22" t="s">
         <v>43</v>
       </c>
@@ -20521,7 +20527,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="270" spans="2:16" ht="15" customHeight="1">
+    <row r="270" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="22" t="s">
         <v>43</v>
       </c>
@@ -20568,7 +20574,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="271" spans="2:16" ht="15" customHeight="1">
+    <row r="271" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="22" t="s">
         <v>43</v>
       </c>
@@ -20615,7 +20621,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="272" spans="2:16" ht="15" customHeight="1">
+    <row r="272" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="22" t="s">
         <v>43</v>
       </c>
@@ -20662,7 +20668,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="273" spans="2:16" ht="15" customHeight="1">
+    <row r="273" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="22" t="s">
         <v>43</v>
       </c>
@@ -20709,7 +20715,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="274" spans="2:16" ht="15" customHeight="1">
+    <row r="274" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="22" t="s">
         <v>43</v>
       </c>
@@ -20756,7 +20762,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="275" spans="2:16" ht="15" customHeight="1">
+    <row r="275" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="22" t="s">
         <v>43</v>
       </c>
@@ -20803,7 +20809,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="276" spans="2:16" ht="15" customHeight="1">
+    <row r="276" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="22" t="s">
         <v>43</v>
       </c>
@@ -20850,7 +20856,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="277" spans="2:16" ht="15" customHeight="1">
+    <row r="277" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="22" t="s">
         <v>43</v>
       </c>
@@ -20897,7 +20903,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="278" spans="2:16" ht="15" customHeight="1">
+    <row r="278" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="22" t="s">
         <v>43</v>
       </c>
@@ -20944,7 +20950,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="279" spans="2:16" ht="15" customHeight="1">
+    <row r="279" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="22" t="s">
         <v>43</v>
       </c>
@@ -20991,7 +20997,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="280" spans="2:16" ht="15" customHeight="1">
+    <row r="280" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="22" t="s">
         <v>43</v>
       </c>
@@ -21038,7 +21044,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="281" spans="2:16" ht="15" customHeight="1">
+    <row r="281" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21085,7 +21091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="282" spans="2:16" ht="15" customHeight="1">
+    <row r="282" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21132,7 +21138,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="283" spans="2:16" ht="15" customHeight="1">
+    <row r="283" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21179,7 +21185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="284" spans="2:16" ht="15" customHeight="1">
+    <row r="284" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21226,7 +21232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="285" spans="2:16" ht="15" customHeight="1">
+    <row r="285" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21273,7 +21279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="286" spans="2:16" ht="15" customHeight="1">
+    <row r="286" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21320,7 +21326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="287" spans="2:16" ht="15" customHeight="1">
+    <row r="287" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21367,7 +21373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="288" spans="2:16" ht="15" customHeight="1">
+    <row r="288" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21414,7 +21420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="289" spans="2:16" ht="15" customHeight="1">
+    <row r="289" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21461,7 +21467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="290" spans="2:16" ht="15" customHeight="1">
+    <row r="290" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21508,7 +21514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="291" spans="2:16" ht="15" customHeight="1">
+    <row r="291" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21555,7 +21561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" spans="2:16" ht="15" customHeight="1">
+    <row r="292" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21602,7 +21608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="293" spans="2:16" ht="15" customHeight="1">
+    <row r="293" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21649,7 +21655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="294" spans="2:16" ht="15" customHeight="1">
+    <row r="294" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21696,7 +21702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="2:16" ht="15" customHeight="1">
+    <row r="295" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21743,7 +21749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="296" spans="2:16" ht="15" customHeight="1">
+    <row r="296" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21790,7 +21796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="297" spans="2:16" ht="15" customHeight="1">
+    <row r="297" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21837,7 +21843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="2:16" ht="15" customHeight="1">
+    <row r="298" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="22" t="s">
         <v>1118</v>
       </c>
@@ -21884,7 +21890,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="299" spans="2:16" ht="15" customHeight="1">
+    <row r="299" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="22" t="s">
         <v>43</v>
       </c>
@@ -21931,7 +21937,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="300" spans="2:16" ht="15" customHeight="1">
+    <row r="300" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="22" t="s">
         <v>43</v>
       </c>
@@ -21978,7 +21984,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="301" spans="2:16" ht="15" customHeight="1">
+    <row r="301" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="22" t="s">
         <v>43</v>
       </c>
@@ -22025,7 +22031,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="302" spans="2:16" ht="15" customHeight="1">
+    <row r="302" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="22" t="s">
         <v>43</v>
       </c>
@@ -22072,7 +22078,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="303" spans="2:16" ht="15" customHeight="1">
+    <row r="303" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="22" t="s">
         <v>43</v>
       </c>
@@ -22119,7 +22125,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="304" spans="2:16" ht="15" customHeight="1">
+    <row r="304" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="22" t="s">
         <v>43</v>
       </c>
@@ -22166,7 +22172,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="305" spans="2:16" ht="15" customHeight="1">
+    <row r="305" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="22" t="s">
         <v>43</v>
       </c>
@@ -22213,7 +22219,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="306" spans="2:16" ht="15" customHeight="1">
+    <row r="306" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="22" t="s">
         <v>43</v>
       </c>
@@ -22260,7 +22266,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="307" spans="2:16" ht="15" customHeight="1">
+    <row r="307" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="22" t="s">
         <v>43</v>
       </c>
@@ -22307,7 +22313,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="308" spans="2:16" ht="15" customHeight="1">
+    <row r="308" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="22" t="s">
         <v>43</v>
       </c>
@@ -22354,7 +22360,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="309" spans="2:16" ht="15" customHeight="1">
+    <row r="309" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="22" t="s">
         <v>43</v>
       </c>
@@ -22401,7 +22407,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="310" spans="2:16" ht="15" customHeight="1">
+    <row r="310" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="22" t="s">
         <v>43</v>
       </c>
@@ -22448,7 +22454,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="311" spans="2:16" ht="15" customHeight="1">
+    <row r="311" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="22" t="s">
         <v>43</v>
       </c>
@@ -22495,7 +22501,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="312" spans="2:16" ht="15" customHeight="1">
+    <row r="312" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="22" t="s">
         <v>43</v>
       </c>
@@ -22542,7 +22548,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="313" spans="2:16" ht="15" customHeight="1">
+    <row r="313" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="22" t="s">
         <v>43</v>
       </c>
@@ -22589,7 +22595,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="314" spans="2:16" ht="15" customHeight="1">
+    <row r="314" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="22" t="s">
         <v>43</v>
       </c>
@@ -22636,7 +22642,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="315" spans="2:16" ht="15" customHeight="1">
+    <row r="315" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="22" t="s">
         <v>43</v>
       </c>
@@ -22683,7 +22689,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="316" spans="2:16" ht="15" customHeight="1">
+    <row r="316" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="22" t="s">
         <v>43</v>
       </c>
@@ -22730,7 +22736,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="317" spans="2:16" ht="15" customHeight="1">
+    <row r="317" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="22" t="s">
         <v>43</v>
       </c>
@@ -22777,7 +22783,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="318" spans="2:16" ht="15" customHeight="1">
+    <row r="318" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="22" t="s">
         <v>43</v>
       </c>
@@ -22824,7 +22830,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="319" spans="2:16" ht="15" customHeight="1">
+    <row r="319" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="22" t="s">
         <v>43</v>
       </c>
@@ -22871,7 +22877,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="320" spans="2:16" ht="15" customHeight="1">
+    <row r="320" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="22" t="s">
         <v>43</v>
       </c>
@@ -22918,7 +22924,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="321" spans="2:16" ht="15" customHeight="1">
+    <row r="321" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="22" t="s">
         <v>43</v>
       </c>
@@ -22965,7 +22971,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="322" spans="2:16" ht="15" customHeight="1">
+    <row r="322" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="22" t="s">
         <v>43</v>
       </c>
@@ -23012,7 +23018,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="323" spans="2:16" ht="15" customHeight="1">
+    <row r="323" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="22" t="s">
         <v>43</v>
       </c>
@@ -23059,7 +23065,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="324" spans="2:16" ht="15" customHeight="1">
+    <row r="324" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="22" t="s">
         <v>43</v>
       </c>
@@ -23106,7 +23112,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="325" spans="2:16" ht="15" customHeight="1">
+    <row r="325" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="22" t="s">
         <v>43</v>
       </c>
@@ -23153,7 +23159,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="326" spans="2:16" ht="15" customHeight="1">
+    <row r="326" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="22" t="s">
         <v>43</v>
       </c>
@@ -23200,7 +23206,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="327" spans="2:16" ht="15" customHeight="1">
+    <row r="327" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="22" t="s">
         <v>43</v>
       </c>
@@ -23247,7 +23253,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="328" spans="2:16" ht="15" customHeight="1">
+    <row r="328" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="22" t="s">
         <v>43</v>
       </c>
@@ -23294,7 +23300,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="329" spans="2:16" ht="15" customHeight="1">
+    <row r="329" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="22" t="s">
         <v>43</v>
       </c>
@@ -23341,7 +23347,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="330" spans="2:16" ht="15" customHeight="1">
+    <row r="330" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="22" t="s">
         <v>43</v>
       </c>
@@ -23388,7 +23394,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="331" spans="2:16" ht="15" customHeight="1">
+    <row r="331" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="22" t="s">
         <v>43</v>
       </c>
@@ -23435,7 +23441,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="332" spans="2:16" ht="15" customHeight="1">
+    <row r="332" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="22" t="s">
         <v>43</v>
       </c>
@@ -23482,7 +23488,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="333" spans="2:16" ht="15" customHeight="1">
+    <row r="333" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="22" t="s">
         <v>43</v>
       </c>
@@ -23529,7 +23535,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="334" spans="2:16" ht="15" customHeight="1">
+    <row r="334" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="22" t="s">
         <v>43</v>
       </c>
@@ -23576,7 +23582,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="335" spans="2:16" ht="15" customHeight="1">
+    <row r="335" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="22" t="s">
         <v>43</v>
       </c>
@@ -23623,7 +23629,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="336" spans="2:16" ht="15" customHeight="1">
+    <row r="336" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="22" t="s">
         <v>43</v>
       </c>
@@ -23670,7 +23676,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="337" spans="2:16" ht="15" customHeight="1">
+    <row r="337" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="22" t="s">
         <v>43</v>
       </c>
@@ -23717,7 +23723,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="338" spans="2:16" ht="15" customHeight="1">
+    <row r="338" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="22" t="s">
         <v>43</v>
       </c>
@@ -23764,7 +23770,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="339" spans="2:16" ht="15" customHeight="1">
+    <row r="339" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="22" t="s">
         <v>43</v>
       </c>
@@ -23811,7 +23817,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="340" spans="2:16" ht="15" customHeight="1">
+    <row r="340" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="22" t="s">
         <v>43</v>
       </c>
@@ -23858,7 +23864,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="341" spans="2:16" ht="15" customHeight="1">
+    <row r="341" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="22" t="s">
         <v>43</v>
       </c>
@@ -23905,7 +23911,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="342" spans="2:16" ht="15" customHeight="1">
+    <row r="342" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="22" t="s">
         <v>43</v>
       </c>
@@ -23952,7 +23958,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="343" spans="2:16" ht="15" customHeight="1">
+    <row r="343" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="22" t="s">
         <v>1118</v>
       </c>
@@ -23999,7 +24005,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="344" spans="2:16" ht="15" customHeight="1">
+    <row r="344" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="22" t="s">
         <v>1118</v>
       </c>
@@ -24046,7 +24052,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="345" spans="2:16" ht="15" customHeight="1">
+    <row r="345" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="22" t="s">
         <v>43</v>
       </c>
@@ -24093,7 +24099,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="346" spans="2:16" ht="15" customHeight="1">
+    <row r="346" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="22" t="s">
         <v>43</v>
       </c>
@@ -24140,7 +24146,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="347" spans="2:16" ht="15" customHeight="1">
+    <row r="347" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="22" t="s">
         <v>43</v>
       </c>
@@ -24187,7 +24193,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="348" spans="2:16" ht="15" customHeight="1">
+    <row r="348" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="22" t="s">
         <v>43</v>
       </c>
@@ -24234,7 +24240,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="349" spans="2:16" ht="15" customHeight="1">
+    <row r="349" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="22" t="s">
         <v>43</v>
       </c>
@@ -24281,7 +24287,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="350" spans="2:16" ht="15" customHeight="1">
+    <row r="350" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="22" t="s">
         <v>43</v>
       </c>
@@ -24328,7 +24334,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="351" spans="2:16" ht="15" customHeight="1">
+    <row r="351" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="22" t="s">
         <v>43</v>
       </c>
@@ -24375,7 +24381,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="352" spans="2:16" ht="15" customHeight="1">
+    <row r="352" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="22" t="s">
         <v>43</v>
       </c>
@@ -24422,7 +24428,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="353" spans="2:16" ht="15" customHeight="1">
+    <row r="353" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="22" t="s">
         <v>43</v>
       </c>
@@ -24469,7 +24475,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="354" spans="2:16" ht="15" customHeight="1">
+    <row r="354" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="22" t="s">
         <v>43</v>
       </c>
@@ -24516,7 +24522,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="355" spans="2:16" ht="15" customHeight="1">
+    <row r="355" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="22" t="s">
         <v>43</v>
       </c>
@@ -24563,7 +24569,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="356" spans="2:16" ht="15" customHeight="1">
+    <row r="356" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="22" t="s">
         <v>43</v>
       </c>
@@ -24610,7 +24616,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="357" spans="2:16" ht="15" customHeight="1">
+    <row r="357" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="22" t="s">
         <v>43</v>
       </c>
@@ -24657,7 +24663,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="358" spans="2:16" ht="15" customHeight="1">
+    <row r="358" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="22" t="s">
         <v>43</v>
       </c>
@@ -24704,7 +24710,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="359" spans="2:16" ht="15" customHeight="1">
+    <row r="359" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="22" t="s">
         <v>43</v>
       </c>
@@ -24751,7 +24757,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="360" spans="2:16" ht="15" customHeight="1">
+    <row r="360" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="22" t="s">
         <v>43</v>
       </c>
@@ -24798,7 +24804,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="361" spans="2:16" ht="15" customHeight="1">
+    <row r="361" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="22" t="s">
         <v>43</v>
       </c>
@@ -24845,7 +24851,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="362" spans="2:16" ht="15" customHeight="1">
+    <row r="362" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="22" t="s">
         <v>43</v>
       </c>
@@ -24892,7 +24898,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="363" spans="2:16" ht="15" customHeight="1">
+    <row r="363" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="22" t="s">
         <v>43</v>
       </c>
@@ -24939,7 +24945,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="364" spans="2:16" ht="13.5" customHeight="1">
+    <row r="364" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="22" t="s">
         <v>43</v>
       </c>
@@ -24986,7 +24992,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="365" spans="2:16" ht="15" customHeight="1">
+    <row r="365" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="22" t="s">
         <v>43</v>
       </c>
@@ -25030,7 +25036,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="366" spans="2:16" ht="15" customHeight="1">
+    <row r="366" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="22" t="s">
         <v>43</v>
       </c>
@@ -25077,7 +25083,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="367" spans="2:16" ht="15" customHeight="1">
+    <row r="367" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="22" t="s">
         <v>43</v>
       </c>
@@ -25124,7 +25130,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="368" spans="2:16" ht="15" customHeight="1">
+    <row r="368" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="22" t="s">
         <v>43</v>
       </c>
@@ -25171,7 +25177,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="369" spans="1:17" ht="15" customHeight="1">
+    <row r="369" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="22" t="s">
         <v>43</v>
       </c>
@@ -25218,7 +25224,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="370" spans="1:17" ht="15" customHeight="1">
+    <row r="370" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="22" t="s">
         <v>43</v>
       </c>
@@ -25265,7 +25271,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="371" spans="1:17" ht="15" customHeight="1">
+    <row r="371" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="22" t="s">
         <v>43</v>
       </c>
@@ -25312,7 +25318,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="372" spans="1:17" ht="15" customHeight="1">
+    <row r="372" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="22" t="s">
         <v>43</v>
       </c>
@@ -25359,7 +25365,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="373" spans="1:17" ht="15" customHeight="1">
+    <row r="373" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="22" t="s">
         <v>43</v>
       </c>
@@ -25406,7 +25412,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="374" spans="1:17" ht="15" customHeight="1">
+    <row r="374" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="22" t="s">
         <v>43</v>
       </c>
@@ -25453,7 +25459,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="375" spans="1:17" ht="15" customHeight="1">
+    <row r="375" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25503,7 +25509,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="376" spans="1:17" ht="15" customHeight="1">
+    <row r="376" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25541,7 +25547,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="377" spans="1:17" ht="15" customHeight="1">
+    <row r="377" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25579,7 +25585,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="378" spans="1:17" ht="15" customHeight="1">
+    <row r="378" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25626,7 +25632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="379" spans="1:17" ht="15" customHeight="1">
+    <row r="379" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25667,7 +25673,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="380" spans="1:17" ht="15" customHeight="1">
+    <row r="380" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25714,7 +25720,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="381" spans="1:17" ht="15" customHeight="1">
+    <row r="381" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="25" t="s">
         <v>1118</v>
       </c>
@@ -25761,7 +25767,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="382" spans="1:17" ht="15" customHeight="1">
+    <row r="382" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="66" t="s">
         <v>1118</v>
       </c>
@@ -25808,7 +25814,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="383" spans="1:17" ht="15" customHeight="1">
+    <row r="383" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="25"/>
       <c r="B383" s="22" t="s">
         <v>43</v>
@@ -25856,7 +25862,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="384" spans="1:17" ht="15" customHeight="1">
+    <row r="384" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="25"/>
       <c r="B384" s="22" t="s">
         <v>43</v>
@@ -25904,7 +25910,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="15" customHeight="1">
+    <row r="385" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="25"/>
       <c r="B385" s="22" t="s">
         <v>43</v>
@@ -25952,7 +25958,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="15" customHeight="1">
+    <row r="386" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="25"/>
       <c r="B386" s="22" t="s">
         <v>43</v>
@@ -26000,7 +26006,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="15" customHeight="1">
+    <row r="387" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="25"/>
       <c r="B387" s="22" t="s">
         <v>43</v>
@@ -26048,7 +26054,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="15" customHeight="1">
+    <row r="388" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="25"/>
       <c r="B388" s="22" t="s">
         <v>43</v>
@@ -26096,7 +26102,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="15" customHeight="1">
+    <row r="389" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="25"/>
       <c r="B389" s="22" t="s">
         <v>43</v>
@@ -26144,7 +26150,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="15" customHeight="1">
+    <row r="390" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="25"/>
       <c r="B390" s="22" t="s">
         <v>43</v>
@@ -26192,7 +26198,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="391" spans="1:16" ht="15" customHeight="1">
+    <row r="391" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="25"/>
       <c r="B391" s="22" t="s">
         <v>43</v>
@@ -26240,7 +26246,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="15" customHeight="1">
+    <row r="392" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="25"/>
       <c r="B392" s="22" t="s">
         <v>43</v>
@@ -26288,7 +26294,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="15" customHeight="1">
+    <row r="393" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="25"/>
       <c r="B393" s="22" t="s">
         <v>43</v>
@@ -26336,7 +26342,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="15" customHeight="1">
+    <row r="394" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="25"/>
       <c r="B394" s="22" t="s">
         <v>43</v>
@@ -26384,7 +26390,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="15" customHeight="1">
+    <row r="395" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="25"/>
       <c r="B395" s="22" t="s">
         <v>43</v>
@@ -26432,7 +26438,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="15" customHeight="1">
+    <row r="396" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="25"/>
       <c r="B396" s="22" t="s">
         <v>43</v>
@@ -26480,7 +26486,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="15" customHeight="1">
+    <row r="397" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="25"/>
       <c r="B397" s="22" t="s">
         <v>43</v>
@@ -26528,7 +26534,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="15" customHeight="1">
+    <row r="398" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="25"/>
       <c r="B398" s="22" t="s">
         <v>43</v>
@@ -26576,7 +26582,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="15" customHeight="1">
+    <row r="399" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="25"/>
       <c r="B399" s="22" t="s">
         <v>43</v>
@@ -26624,7 +26630,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="15" customHeight="1">
+    <row r="400" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="25"/>
       <c r="B400" s="22" t="s">
         <v>43</v>
@@ -26672,7 +26678,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="15" customHeight="1">
+    <row r="401" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="25"/>
       <c r="B401" s="22" t="s">
         <v>43</v>
@@ -26720,7 +26726,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="15" customHeight="1">
+    <row r="402" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="25"/>
       <c r="B402" s="22" t="s">
         <v>43</v>
@@ -26768,7 +26774,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="403" spans="1:16" ht="15" customHeight="1">
+    <row r="403" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="25"/>
       <c r="B403" s="22" t="s">
         <v>43</v>
@@ -26816,7 +26822,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="404" spans="1:16" ht="15" customHeight="1">
+    <row r="404" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="25"/>
       <c r="B404" s="22" t="s">
         <v>43</v>
@@ -26864,7 +26870,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="15" customHeight="1">
+    <row r="405" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="25"/>
       <c r="B405" s="22" t="s">
         <v>43</v>
@@ -26912,7 +26918,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="15" customHeight="1">
+    <row r="406" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="25"/>
       <c r="B406" s="22" t="s">
         <v>43</v>
@@ -26960,7 +26966,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="15" customHeight="1">
+    <row r="407" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="25"/>
       <c r="B407" s="22" t="s">
         <v>43</v>
@@ -27008,7 +27014,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="15" customHeight="1">
+    <row r="408" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="25"/>
       <c r="B408" s="22" t="s">
         <v>43</v>
@@ -27056,7 +27062,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="15" customHeight="1">
+    <row r="409" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="25"/>
       <c r="B409" s="22" t="s">
         <v>43</v>
@@ -27104,7 +27110,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="15" customHeight="1">
+    <row r="410" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="25"/>
       <c r="B410" s="22" t="s">
         <v>43</v>
@@ -27152,7 +27158,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="15" customHeight="1">
+    <row r="411" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="25"/>
       <c r="B411" s="22" t="s">
         <v>43</v>
@@ -27200,7 +27206,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="15" customHeight="1">
+    <row r="412" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="25"/>
       <c r="B412" s="22" t="s">
         <v>43</v>
@@ -27248,7 +27254,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="15" customHeight="1">
+    <row r="413" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="25"/>
       <c r="B413" s="22" t="s">
         <v>43</v>
@@ -27296,7 +27302,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="15" customHeight="1">
+    <row r="414" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="25"/>
       <c r="B414" s="22" t="s">
         <v>43</v>
@@ -27344,7 +27350,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="15" customHeight="1">
+    <row r="415" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="25"/>
       <c r="B415" s="22" t="s">
         <v>43</v>
@@ -27392,7 +27398,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="15" customHeight="1">
+    <row r="416" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="25"/>
       <c r="B416" s="22" t="s">
         <v>43</v>
@@ -27440,7 +27446,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="15" customHeight="1">
+    <row r="417" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="25"/>
       <c r="B417" s="22" t="s">
         <v>43</v>
@@ -27488,7 +27494,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="15" customHeight="1">
+    <row r="418" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="25"/>
       <c r="B418" s="22" t="s">
         <v>43</v>
@@ -27536,7 +27542,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="15" customHeight="1">
+    <row r="419" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="25"/>
       <c r="B419" s="22" t="s">
         <v>43</v>
@@ -27584,7 +27590,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="15" customHeight="1">
+    <row r="420" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="25"/>
       <c r="B420" s="22" t="s">
         <v>43</v>
@@ -27632,7 +27638,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="15" customHeight="1">
+    <row r="421" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="25"/>
       <c r="B421" s="22" t="s">
         <v>43</v>
@@ -27680,7 +27686,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="15" customHeight="1">
+    <row r="422" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="25"/>
       <c r="B422" s="22" t="s">
         <v>43</v>
@@ -27728,7 +27734,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="15" customHeight="1">
+    <row r="423" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="25"/>
       <c r="B423" s="22" t="s">
         <v>43</v>
@@ -27776,7 +27782,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="15" customHeight="1">
+    <row r="424" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="25"/>
       <c r="B424" s="22" t="s">
         <v>43</v>
@@ -27824,7 +27830,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="15" customHeight="1">
+    <row r="425" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="25"/>
       <c r="B425" s="22" t="s">
         <v>43</v>
@@ -27872,7 +27878,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="15" customHeight="1">
+    <row r="426" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="25"/>
       <c r="B426" s="22" t="s">
         <v>43</v>
@@ -27920,7 +27926,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="15" customHeight="1">
+    <row r="427" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="25"/>
       <c r="B427" s="22" t="s">
         <v>43</v>
@@ -27968,7 +27974,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="15" customHeight="1">
+    <row r="428" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="25"/>
       <c r="B428" s="22" t="s">
         <v>43</v>
@@ -28016,7 +28022,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="15" customHeight="1">
+    <row r="429" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="25"/>
       <c r="B429" s="22" t="s">
         <v>43</v>
@@ -28064,7 +28070,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="15" customHeight="1">
+    <row r="430" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="25"/>
       <c r="B430" s="22" t="s">
         <v>43</v>
@@ -28112,7 +28118,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="15" customHeight="1">
+    <row r="431" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="25"/>
       <c r="B431" s="22" t="s">
         <v>43</v>
@@ -28160,7 +28166,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="15" customHeight="1">
+    <row r="432" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="25"/>
       <c r="B432" s="22" t="s">
         <v>43</v>
@@ -28208,7 +28214,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="15" customHeight="1">
+    <row r="433" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="25"/>
       <c r="B433" s="22" t="s">
         <v>43</v>
@@ -28256,7 +28262,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="15" customHeight="1">
+    <row r="434" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="25"/>
       <c r="B434" s="22" t="s">
         <v>43</v>
@@ -28304,7 +28310,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="15" customHeight="1">
+    <row r="435" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="25"/>
       <c r="B435" s="22" t="s">
         <v>43</v>
@@ -28349,7 +28355,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="15" customHeight="1">
+    <row r="436" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="25"/>
       <c r="B436" s="22" t="s">
         <v>43</v>
@@ -28397,7 +28403,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="15" customHeight="1">
+    <row r="437" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="25"/>
       <c r="B437" s="22" t="s">
         <v>43</v>
@@ -28445,7 +28451,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="15" customHeight="1">
+    <row r="438" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="25"/>
       <c r="B438" s="22" t="s">
         <v>43</v>
@@ -28493,7 +28499,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="15" customHeight="1">
+    <row r="439" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="25"/>
       <c r="B439" s="22" t="s">
         <v>43</v>
@@ -28541,7 +28547,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="15" customHeight="1">
+    <row r="440" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="25"/>
       <c r="B440" s="22" t="s">
         <v>43</v>
@@ -28589,7 +28595,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="15" customHeight="1">
+    <row r="441" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="25"/>
       <c r="B441" s="22" t="s">
         <v>43</v>
@@ -28637,7 +28643,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="15" customHeight="1">
+    <row r="442" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="25"/>
       <c r="B442" s="22" t="s">
         <v>43</v>
@@ -28685,7 +28691,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="15" customHeight="1">
+    <row r="443" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="25"/>
       <c r="B443" s="22" t="s">
         <v>43</v>
@@ -28733,7 +28739,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="15" customHeight="1">
+    <row r="444" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="25"/>
       <c r="B444" s="22" t="s">
         <v>43</v>
@@ -28778,7 +28784,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="15" customHeight="1">
+    <row r="445" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="25"/>
       <c r="B445" s="22" t="s">
         <v>43</v>
@@ -28826,7 +28832,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="15" customHeight="1">
+    <row r="446" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="25"/>
       <c r="B446" s="22" t="s">
         <v>43</v>
@@ -28874,7 +28880,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="447" spans="1:16" ht="15" customHeight="1">
+    <row r="447" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="25"/>
       <c r="B447" s="22" t="s">
         <v>43</v>
@@ -28922,7 +28928,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="448" spans="1:16" ht="15" customHeight="1">
+    <row r="448" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="25"/>
       <c r="B448" s="22" t="s">
         <v>43</v>
@@ -28970,7 +28976,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="449" spans="2:16" ht="15" customHeight="1">
+    <row r="449" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="22" t="s">
         <v>43</v>
       </c>
@@ -29017,7 +29023,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="450" spans="2:16" ht="15" customHeight="1">
+    <row r="450" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="22" t="s">
         <v>43</v>
       </c>
@@ -29064,7 +29070,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="451" spans="2:16" ht="15" customHeight="1">
+    <row r="451" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="22" t="s">
         <v>43</v>
       </c>
@@ -29111,7 +29117,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="452" spans="2:16" ht="15" customHeight="1">
+    <row r="452" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="22" t="s">
         <v>43</v>
       </c>
@@ -29158,7 +29164,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="453" spans="2:16" ht="15" customHeight="1">
+    <row r="453" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="22" t="s">
         <v>43</v>
       </c>
@@ -29205,7 +29211,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="454" spans="2:16" ht="15" customHeight="1">
+    <row r="454" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="22" t="s">
         <v>43</v>
       </c>
@@ -29252,17 +29258,31 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="455" spans="2:16" ht="47.25">
-      <c r="C455" s="28"/>
-      <c r="G455" s="24"/>
+    <row r="455" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B455" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C455" s="28">
+        <v>45334</v>
+      </c>
+      <c r="E455" s="21"/>
+      <c r="F455" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G455" s="24">
+        <v>45335</v>
+      </c>
+      <c r="H455" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="I455" s="23" t="s">
         <v>1803</v>
       </c>
       <c r="M455" s="22" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="456" spans="2:16" ht="15" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="456" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B456" s="22" t="s">
         <v>43</v>
       </c>
@@ -29270,7 +29290,7 @@
         <v>45334</v>
       </c>
       <c r="D456" s="22" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E456" s="21">
         <v>869953</v>
@@ -29285,13 +29305,13 @@
         <v>31</v>
       </c>
       <c r="I456" s="23" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J456" s="68" t="s">
         <v>1806</v>
       </c>
-      <c r="J456" s="68" t="s">
+      <c r="K456" s="22" t="s">
         <v>1807</v>
-      </c>
-      <c r="K456" s="22" t="s">
-        <v>1808</v>
       </c>
       <c r="L456" s="22" t="s">
         <v>866</v>
@@ -29309,7 +29329,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="457" spans="2:16" ht="15" customHeight="1">
+    <row r="457" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B457" s="22" t="s">
         <v>43</v>
       </c>
@@ -29317,7 +29337,7 @@
         <v>45334</v>
       </c>
       <c r="D457" s="22" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E457" s="21">
         <v>881387</v>
@@ -29332,13 +29352,13 @@
         <v>31</v>
       </c>
       <c r="I457" s="23" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J457" s="68" t="s">
         <v>1810</v>
       </c>
-      <c r="J457" s="68" t="s">
+      <c r="K457" s="68" t="s">
         <v>1811</v>
-      </c>
-      <c r="K457" s="68" t="s">
-        <v>1812</v>
       </c>
       <c r="L457" s="22" t="s">
         <v>866</v>
@@ -29356,7 +29376,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="458" spans="2:16" ht="15" customHeight="1">
+    <row r="458" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B458" s="22" t="s">
         <v>43</v>
       </c>
@@ -29364,7 +29384,7 @@
         <v>45334</v>
       </c>
       <c r="D458" s="22" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E458" s="21">
         <v>917109</v>
@@ -29379,13 +29399,13 @@
         <v>31</v>
       </c>
       <c r="I458" s="23" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J458" s="68" t="s">
         <v>1814</v>
       </c>
-      <c r="J458" s="68" t="s">
+      <c r="K458" s="68" t="s">
         <v>1815</v>
-      </c>
-      <c r="K458" s="68" t="s">
-        <v>1816</v>
       </c>
       <c r="L458" s="22" t="s">
         <v>866</v>
@@ -29403,7 +29423,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="459" spans="2:16" ht="15" customHeight="1">
+    <row r="459" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B459" s="22" t="s">
         <v>43</v>
       </c>
@@ -29411,7 +29431,7 @@
         <v>45334</v>
       </c>
       <c r="D459" s="22" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E459" s="21">
         <v>803129</v>
@@ -29426,13 +29446,13 @@
         <v>31</v>
       </c>
       <c r="I459" s="23" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J459" s="68" t="s">
         <v>1818</v>
       </c>
-      <c r="J459" s="68" t="s">
+      <c r="K459" s="68" t="s">
         <v>1819</v>
-      </c>
-      <c r="K459" s="68" t="s">
-        <v>1820</v>
       </c>
       <c r="L459" s="22" t="s">
         <v>866</v>
@@ -29450,7 +29470,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="460" spans="2:16" ht="15" customHeight="1">
+    <row r="460" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B460" s="22" t="s">
         <v>43</v>
       </c>
@@ -29458,7 +29478,7 @@
         <v>45334</v>
       </c>
       <c r="D460" s="22" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E460" s="21">
         <v>865333</v>
@@ -29473,13 +29493,13 @@
         <v>31</v>
       </c>
       <c r="I460" s="23" t="s">
+        <v>1821</v>
+      </c>
+      <c r="J460" s="68" t="s">
         <v>1822</v>
       </c>
-      <c r="J460" s="68" t="s">
+      <c r="K460" s="68" t="s">
         <v>1823</v>
-      </c>
-      <c r="K460" s="68" t="s">
-        <v>1824</v>
       </c>
       <c r="L460" s="22" t="s">
         <v>866</v>
@@ -29497,7 +29517,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="461" spans="2:16" ht="15" customHeight="1">
+    <row r="461" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B461" s="22" t="s">
         <v>43</v>
       </c>
@@ -29505,7 +29525,7 @@
         <v>45334</v>
       </c>
       <c r="D461" s="22" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E461" s="21">
         <v>990861</v>
@@ -29520,13 +29540,13 @@
         <v>31</v>
       </c>
       <c r="I461" s="23" t="s">
+        <v>1825</v>
+      </c>
+      <c r="J461" s="68" t="s">
         <v>1826</v>
       </c>
-      <c r="J461" s="68" t="s">
+      <c r="K461" s="68" t="s">
         <v>1827</v>
-      </c>
-      <c r="K461" s="68" t="s">
-        <v>1828</v>
       </c>
       <c r="L461" s="22" t="s">
         <v>866</v>
@@ -29544,7 +29564,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="462" spans="2:16" ht="15" customHeight="1">
+    <row r="462" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="22" t="s">
         <v>43</v>
       </c>
@@ -29552,7 +29572,7 @@
         <v>45334</v>
       </c>
       <c r="D462" s="22" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E462" s="21">
         <v>618051</v>
@@ -29567,13 +29587,13 @@
         <v>31</v>
       </c>
       <c r="I462" s="23" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J462" s="68" t="s">
         <v>1830</v>
       </c>
-      <c r="J462" s="68" t="s">
+      <c r="K462" s="68" t="s">
         <v>1831</v>
-      </c>
-      <c r="K462" s="68" t="s">
-        <v>1832</v>
       </c>
       <c r="L462" s="22" t="s">
         <v>866</v>
@@ -29591,7 +29611,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="463" spans="2:16" ht="15" customHeight="1">
+    <row r="463" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="22" t="s">
         <v>43</v>
       </c>
@@ -29599,7 +29619,7 @@
         <v>45334</v>
       </c>
       <c r="D463" s="22" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E463" s="21">
         <v>968744</v>
@@ -29614,13 +29634,13 @@
         <v>31</v>
       </c>
       <c r="I463" s="23" t="s">
+        <v>1833</v>
+      </c>
+      <c r="J463" s="68" t="s">
         <v>1834</v>
       </c>
-      <c r="J463" s="68" t="s">
+      <c r="K463" s="68" t="s">
         <v>1835</v>
-      </c>
-      <c r="K463" s="68" t="s">
-        <v>1836</v>
       </c>
       <c r="L463" s="22" t="s">
         <v>866</v>
@@ -29638,7 +29658,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="464" spans="2:16" ht="15" customHeight="1">
+    <row r="464" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="22" t="s">
         <v>43</v>
       </c>
@@ -29646,7 +29666,7 @@
         <v>45334</v>
       </c>
       <c r="D464" s="22" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="E464" s="21">
         <v>791508</v>
@@ -29661,13 +29681,13 @@
         <v>31</v>
       </c>
       <c r="I464" s="23" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J464" s="68" t="s">
         <v>1838</v>
       </c>
-      <c r="J464" s="68" t="s">
+      <c r="K464" s="68" t="s">
         <v>1839</v>
-      </c>
-      <c r="K464" s="68" t="s">
-        <v>1840</v>
       </c>
       <c r="L464" s="22" t="s">
         <v>866</v>
@@ -29685,7 +29705,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="465" spans="2:16" ht="15" customHeight="1">
+    <row r="465" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="22" t="s">
         <v>43</v>
       </c>
@@ -29693,7 +29713,7 @@
         <v>45334</v>
       </c>
       <c r="D465" s="22" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E465" s="21">
         <v>682738</v>
@@ -29708,13 +29728,13 @@
         <v>31</v>
       </c>
       <c r="I465" s="23" t="s">
+        <v>1841</v>
+      </c>
+      <c r="J465" s="68" t="s">
         <v>1842</v>
       </c>
-      <c r="J465" s="68" t="s">
+      <c r="K465" s="68" t="s">
         <v>1843</v>
-      </c>
-      <c r="K465" s="68" t="s">
-        <v>1844</v>
       </c>
       <c r="L465" s="22" t="s">
         <v>866</v>
@@ -29732,7 +29752,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="466" spans="2:16" ht="15" customHeight="1">
+    <row r="466" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="22" t="s">
         <v>43</v>
       </c>
@@ -29740,7 +29760,7 @@
         <v>45334</v>
       </c>
       <c r="D466" s="22" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E466" s="21">
         <v>696891</v>
@@ -29755,13 +29775,13 @@
         <v>31</v>
       </c>
       <c r="I466" s="23" t="s">
+        <v>1845</v>
+      </c>
+      <c r="J466" s="68" t="s">
         <v>1846</v>
       </c>
-      <c r="J466" s="68" t="s">
+      <c r="K466" s="68" t="s">
         <v>1847</v>
-      </c>
-      <c r="K466" s="68" t="s">
-        <v>1848</v>
       </c>
       <c r="L466" s="22" t="s">
         <v>866</v>
@@ -29779,7 +29799,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="467" spans="2:16" ht="15" customHeight="1">
+    <row r="467" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="22" t="s">
         <v>43</v>
       </c>
@@ -29787,7 +29807,7 @@
         <v>45334</v>
       </c>
       <c r="D467" s="22" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E467" s="21">
         <v>866515</v>
@@ -29802,13 +29822,13 @@
         <v>31</v>
       </c>
       <c r="I467" s="23" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J467" s="68" t="s">
         <v>1850</v>
       </c>
-      <c r="J467" s="68" t="s">
+      <c r="K467" s="68" t="s">
         <v>1851</v>
-      </c>
-      <c r="K467" s="68" t="s">
-        <v>1852</v>
       </c>
       <c r="L467" s="22" t="s">
         <v>866</v>
@@ -29826,7 +29846,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="468" spans="2:16" ht="15" customHeight="1">
+    <row r="468" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="22" t="s">
         <v>43</v>
       </c>
@@ -29834,7 +29854,7 @@
         <v>45334</v>
       </c>
       <c r="D468" s="22" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E468" s="21">
         <v>822731</v>
@@ -29849,13 +29869,13 @@
         <v>31</v>
       </c>
       <c r="I468" s="23" t="s">
+        <v>1853</v>
+      </c>
+      <c r="J468" s="68" t="s">
         <v>1854</v>
       </c>
-      <c r="J468" s="68" t="s">
+      <c r="K468" s="68" t="s">
         <v>1855</v>
-      </c>
-      <c r="K468" s="68" t="s">
-        <v>1856</v>
       </c>
       <c r="L468" s="22" t="s">
         <v>866</v>
@@ -29873,7 +29893,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="469" spans="2:16" ht="15" customHeight="1">
+    <row r="469" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="22" t="s">
         <v>43</v>
       </c>
@@ -29881,7 +29901,7 @@
         <v>45334</v>
       </c>
       <c r="D469" s="22" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="E469" s="21">
         <v>860463</v>
@@ -29896,13 +29916,13 @@
         <v>31</v>
       </c>
       <c r="I469" s="72" t="s">
+        <v>1857</v>
+      </c>
+      <c r="J469" s="68" t="s">
         <v>1858</v>
       </c>
-      <c r="J469" s="68" t="s">
+      <c r="K469" s="68" t="s">
         <v>1859</v>
-      </c>
-      <c r="K469" s="68" t="s">
-        <v>1860</v>
       </c>
       <c r="L469" s="22" t="s">
         <v>866</v>
@@ -29920,7 +29940,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="470" spans="2:16" ht="15" customHeight="1">
+    <row r="470" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="22" t="s">
         <v>43</v>
       </c>
@@ -29928,7 +29948,7 @@
         <v>45334</v>
       </c>
       <c r="D470" s="22" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E470" s="21">
         <v>942874</v>
@@ -29943,13 +29963,13 @@
         <v>31</v>
       </c>
       <c r="I470" s="72" t="s">
+        <v>1861</v>
+      </c>
+      <c r="J470" s="68" t="s">
         <v>1862</v>
       </c>
-      <c r="J470" s="68" t="s">
+      <c r="K470" s="68" t="s">
         <v>1863</v>
-      </c>
-      <c r="K470" s="68" t="s">
-        <v>1864</v>
       </c>
       <c r="L470" s="22" t="s">
         <v>866</v>
@@ -29967,7 +29987,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="471" spans="2:16" ht="15" customHeight="1">
+    <row r="471" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="22" t="s">
         <v>43</v>
       </c>
@@ -29975,7 +29995,7 @@
         <v>45334</v>
       </c>
       <c r="D471" s="22" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E471" s="21">
         <v>885630</v>
@@ -29990,13 +30010,13 @@
         <v>31</v>
       </c>
       <c r="I471" s="72" t="s">
+        <v>1865</v>
+      </c>
+      <c r="J471" s="68" t="s">
         <v>1866</v>
       </c>
-      <c r="J471" s="68" t="s">
+      <c r="K471" s="68" t="s">
         <v>1867</v>
-      </c>
-      <c r="K471" s="68" t="s">
-        <v>1868</v>
       </c>
       <c r="L471" s="22" t="s">
         <v>866</v>
@@ -30014,7 +30034,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="472" spans="2:16" ht="15" customHeight="1">
+    <row r="472" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B472" s="22" t="s">
         <v>43</v>
       </c>
@@ -30022,7 +30042,7 @@
         <v>45334</v>
       </c>
       <c r="D472" s="22" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="E472" s="21">
         <v>720363</v>
@@ -30037,13 +30057,13 @@
         <v>31</v>
       </c>
       <c r="I472" s="23" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J472" s="68" t="s">
         <v>1870</v>
       </c>
-      <c r="J472" s="68" t="s">
+      <c r="K472" s="68" t="s">
         <v>1871</v>
-      </c>
-      <c r="K472" s="68" t="s">
-        <v>1872</v>
       </c>
       <c r="L472" s="22" t="s">
         <v>866</v>
@@ -30061,7 +30081,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="473" spans="2:16" ht="15" customHeight="1">
+    <row r="473" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B473" s="22" t="s">
         <v>43</v>
       </c>
@@ -30069,7 +30089,7 @@
         <v>45334</v>
       </c>
       <c r="D473" s="22" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E473" s="21">
         <v>951008</v>
@@ -30084,13 +30104,13 @@
         <v>31</v>
       </c>
       <c r="I473" s="23" t="s">
+        <v>1873</v>
+      </c>
+      <c r="J473" s="68" t="s">
         <v>1874</v>
       </c>
-      <c r="J473" s="68" t="s">
+      <c r="K473" s="68" t="s">
         <v>1875</v>
-      </c>
-      <c r="K473" s="68" t="s">
-        <v>1876</v>
       </c>
       <c r="L473" s="22" t="s">
         <v>866</v>
@@ -30108,7 +30128,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="474" spans="2:16" ht="15" customHeight="1">
+    <row r="474" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="22" t="s">
         <v>43</v>
       </c>
@@ -30116,7 +30136,7 @@
         <v>45334</v>
       </c>
       <c r="D474" s="22" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E474" s="21">
         <v>837884</v>
@@ -30131,13 +30151,13 @@
         <v>31</v>
       </c>
       <c r="I474" s="23" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J474" s="68" t="s">
         <v>1878</v>
       </c>
-      <c r="J474" s="68" t="s">
+      <c r="K474" s="68" t="s">
         <v>1879</v>
-      </c>
-      <c r="K474" s="68" t="s">
-        <v>1880</v>
       </c>
       <c r="L474" s="22" t="s">
         <v>866</v>
@@ -30155,7 +30175,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="475" spans="2:16" ht="15" customHeight="1">
+    <row r="475" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B475" s="22" t="s">
         <v>43</v>
       </c>
@@ -30163,7 +30183,7 @@
         <v>45334</v>
       </c>
       <c r="D475" s="22" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E475" s="21">
         <v>849393</v>
@@ -30178,13 +30198,13 @@
         <v>31</v>
       </c>
       <c r="I475" s="23" t="s">
+        <v>1881</v>
+      </c>
+      <c r="J475" s="68" t="s">
         <v>1882</v>
       </c>
-      <c r="J475" s="68" t="s">
+      <c r="K475" s="68" t="s">
         <v>1883</v>
-      </c>
-      <c r="K475" s="68" t="s">
-        <v>1884</v>
       </c>
       <c r="L475" s="22" t="s">
         <v>866</v>
@@ -30202,7 +30222,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="476" spans="2:16" ht="15" customHeight="1">
+    <row r="476" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B476" s="22" t="s">
         <v>43</v>
       </c>
@@ -30210,7 +30230,7 @@
         <v>45334</v>
       </c>
       <c r="D476" s="22" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E476" s="21">
         <v>747206</v>
@@ -30225,13 +30245,13 @@
         <v>31</v>
       </c>
       <c r="I476" s="23" t="s">
+        <v>1885</v>
+      </c>
+      <c r="J476" s="68" t="s">
         <v>1886</v>
       </c>
-      <c r="J476" s="68" t="s">
+      <c r="K476" s="68" t="s">
         <v>1887</v>
-      </c>
-      <c r="K476" s="68" t="s">
-        <v>1888</v>
       </c>
       <c r="L476" s="22" t="s">
         <v>866</v>
@@ -30249,7 +30269,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="477" spans="2:16" ht="15" customHeight="1">
+    <row r="477" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="22" t="s">
         <v>43</v>
       </c>
@@ -30257,7 +30277,7 @@
         <v>45334</v>
       </c>
       <c r="D477" s="22" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E477" s="21">
         <v>852917</v>
@@ -30272,13 +30292,13 @@
         <v>31</v>
       </c>
       <c r="I477" s="23" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J477" s="68" t="s">
         <v>1890</v>
       </c>
-      <c r="J477" s="68" t="s">
+      <c r="K477" s="68" t="s">
         <v>1891</v>
-      </c>
-      <c r="K477" s="68" t="s">
-        <v>1892</v>
       </c>
       <c r="L477" s="22" t="s">
         <v>866</v>
@@ -30296,7 +30316,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="478" spans="2:16" ht="15" customHeight="1">
+    <row r="478" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B478" s="22" t="s">
         <v>43</v>
       </c>
@@ -30304,7 +30324,7 @@
         <v>45334</v>
       </c>
       <c r="D478" s="22" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="E478" s="21">
         <v>826182</v>
@@ -30319,13 +30339,13 @@
         <v>31</v>
       </c>
       <c r="I478" s="23" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J478" s="68" t="s">
         <v>1894</v>
       </c>
-      <c r="J478" s="68" t="s">
+      <c r="K478" s="68" t="s">
         <v>1895</v>
-      </c>
-      <c r="K478" s="68" t="s">
-        <v>1896</v>
       </c>
       <c r="L478" s="22" t="s">
         <v>866</v>
@@ -30343,7 +30363,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="479" spans="2:16" ht="15" customHeight="1">
+    <row r="479" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="22" t="s">
         <v>43</v>
       </c>
@@ -30351,7 +30371,7 @@
         <v>45334</v>
       </c>
       <c r="D479" s="22" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E479" s="21">
         <v>778098</v>
@@ -30366,13 +30386,13 @@
         <v>31</v>
       </c>
       <c r="I479" s="23" t="s">
+        <v>1897</v>
+      </c>
+      <c r="J479" s="68" t="s">
         <v>1898</v>
       </c>
-      <c r="J479" s="68" t="s">
+      <c r="K479" s="68" t="s">
         <v>1899</v>
-      </c>
-      <c r="K479" s="68" t="s">
-        <v>1900</v>
       </c>
       <c r="L479" s="22" t="s">
         <v>866</v>
@@ -30390,7 +30410,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="480" spans="2:16" ht="15" customHeight="1">
+    <row r="480" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="22" t="s">
         <v>43</v>
       </c>
@@ -30398,7 +30418,7 @@
         <v>45334</v>
       </c>
       <c r="D480" s="22" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E480" s="21">
         <v>832644</v>
@@ -30419,7 +30439,7 @@
         <v>831</v>
       </c>
       <c r="K480" s="68" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="L480" s="22" t="s">
         <v>866</v>
@@ -30437,7 +30457,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="481" spans="1:16" ht="15" customHeight="1">
+    <row r="481" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="22" t="s">
         <v>43</v>
       </c>
@@ -30445,7 +30465,7 @@
         <v>45334</v>
       </c>
       <c r="D481" s="22" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="E481" s="21">
         <v>880275</v>
@@ -30460,13 +30480,13 @@
         <v>31</v>
       </c>
       <c r="I481" s="23" t="s">
+        <v>1903</v>
+      </c>
+      <c r="J481" s="68" t="s">
         <v>1904</v>
       </c>
-      <c r="J481" s="68" t="s">
+      <c r="K481" s="68" t="s">
         <v>1905</v>
-      </c>
-      <c r="K481" s="68" t="s">
-        <v>1906</v>
       </c>
       <c r="L481" s="22" t="s">
         <v>866</v>
@@ -30484,7 +30504,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="482" spans="1:16" ht="15" customHeight="1">
+    <row r="482" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B482" s="22" t="s">
         <v>43</v>
       </c>
@@ -30492,7 +30512,7 @@
         <v>45334</v>
       </c>
       <c r="D482" s="22" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E482" s="21">
         <v>840914</v>
@@ -30507,13 +30527,13 @@
         <v>31</v>
       </c>
       <c r="I482" s="23" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J482" s="68" t="s">
         <v>1908</v>
       </c>
-      <c r="J482" s="68" t="s">
+      <c r="K482" s="68" t="s">
         <v>1909</v>
-      </c>
-      <c r="K482" s="68" t="s">
-        <v>1910</v>
       </c>
       <c r="L482" s="22" t="s">
         <v>866</v>
@@ -30531,7 +30551,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="483" spans="1:16" ht="15" customHeight="1">
+    <row r="483" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="22" t="s">
         <v>43</v>
       </c>
@@ -30539,7 +30559,7 @@
         <v>45334</v>
       </c>
       <c r="D483" s="22" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E483" s="21">
         <v>872163</v>
@@ -30554,13 +30574,13 @@
         <v>31</v>
       </c>
       <c r="I483" s="23" t="s">
+        <v>1911</v>
+      </c>
+      <c r="J483" s="68" t="s">
         <v>1912</v>
       </c>
-      <c r="J483" s="68" t="s">
+      <c r="K483" s="68" t="s">
         <v>1913</v>
-      </c>
-      <c r="K483" s="68" t="s">
-        <v>1914</v>
       </c>
       <c r="L483" s="22" t="s">
         <v>866</v>
@@ -30578,7 +30598,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="484" spans="1:16" ht="15" customHeight="1">
+    <row r="484" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B484" s="22" t="s">
         <v>43</v>
       </c>
@@ -30586,7 +30606,7 @@
         <v>45334</v>
       </c>
       <c r="D484" s="22" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E484" s="21">
         <v>943025</v>
@@ -30601,13 +30621,13 @@
         <v>31</v>
       </c>
       <c r="I484" s="23" t="s">
+        <v>1915</v>
+      </c>
+      <c r="J484" s="68" t="s">
         <v>1916</v>
       </c>
-      <c r="J484" s="68" t="s">
+      <c r="K484" s="68" t="s">
         <v>1917</v>
-      </c>
-      <c r="K484" s="68" t="s">
-        <v>1918</v>
       </c>
       <c r="L484" s="22" t="s">
         <v>866</v>
@@ -30625,7 +30645,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="485" spans="1:16" ht="15" customHeight="1">
+    <row r="485" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="22" t="s">
         <v>43</v>
       </c>
@@ -30633,7 +30653,7 @@
         <v>45334</v>
       </c>
       <c r="D485" s="22" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E485" s="21">
         <v>870491</v>
@@ -30648,13 +30668,13 @@
         <v>31</v>
       </c>
       <c r="I485" s="23" t="s">
+        <v>1919</v>
+      </c>
+      <c r="J485" s="68" t="s">
         <v>1920</v>
       </c>
-      <c r="J485" s="68" t="s">
+      <c r="K485" s="68" t="s">
         <v>1921</v>
-      </c>
-      <c r="K485" s="68" t="s">
-        <v>1922</v>
       </c>
       <c r="L485" s="22" t="s">
         <v>866</v>
@@ -30672,7 +30692,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="486" spans="1:16" ht="15" customHeight="1">
+    <row r="486" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="22" t="s">
         <v>43</v>
       </c>
@@ -30680,7 +30700,7 @@
         <v>45334</v>
       </c>
       <c r="D486" s="22" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E486" s="21">
         <v>888839</v>
@@ -30695,13 +30715,13 @@
         <v>31</v>
       </c>
       <c r="I486" s="23" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J486" s="68" t="s">
         <v>1924</v>
       </c>
-      <c r="J486" s="68" t="s">
+      <c r="K486" s="68" t="s">
         <v>1925</v>
-      </c>
-      <c r="K486" s="68" t="s">
-        <v>1926</v>
       </c>
       <c r="L486" s="22" t="s">
         <v>866</v>
@@ -30719,15 +30739,15 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="487" spans="1:16" ht="15" customHeight="1">
+    <row r="487" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="22" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C487" s="24">
         <v>45334</v>
       </c>
       <c r="D487" s="22" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E487" s="22">
         <v>743506</v>
@@ -30742,13 +30762,13 @@
         <v>31</v>
       </c>
       <c r="I487" s="23" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J487" s="68" t="s">
         <v>1929</v>
       </c>
-      <c r="J487" s="68" t="s">
+      <c r="K487" s="68" t="s">
         <v>1930</v>
-      </c>
-      <c r="K487" s="68" t="s">
-        <v>1931</v>
       </c>
       <c r="L487" s="22" t="s">
         <v>866</v>
@@ -30757,12 +30777,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="488" spans="1:16" ht="31.5">
+    <row r="488" spans="2:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B488" s="22" t="s">
+        <v>1926</v>
+      </c>
       <c r="C488" s="24">
         <v>45334</v>
       </c>
       <c r="D488" s="22" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E488" s="22">
         <v>743506</v>
@@ -30780,24 +30803,24 @@
         <v>1803</v>
       </c>
       <c r="J488" s="21" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="K488" s="22" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="489" spans="1:16" ht="31.5">
-      <c r="A489" s="22">
-        <v>1</v>
-      </c>
+        <v>1934</v>
+      </c>
+      <c r="M488" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="489" spans="2:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B489" s="22" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C489" s="24">
         <v>45334</v>
       </c>
       <c r="D489" s="22" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E489" s="22">
         <v>743506</v>
@@ -30815,15 +30838,15 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="490" spans="1:16" ht="15" customHeight="1">
-      <c r="A490" s="22">
-        <v>1</v>
-      </c>
+    <row r="490" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="22" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C490" s="24">
-        <v>45335</v>
+        <v>45334</v>
+      </c>
+      <c r="D490" s="22" t="s">
+        <v>1931</v>
       </c>
       <c r="E490" s="22">
         <v>743506</v>
@@ -30837,22 +30860,16 @@
       <c r="H490" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I490" s="23" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="491" spans="1:16" ht="15" customHeight="1">
-      <c r="A491" s="22">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="491" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="22" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C491" s="24">
-        <v>45336</v>
+        <v>45334</v>
       </c>
       <c r="D491" s="22" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="E491" s="22">
         <v>743506</v>
@@ -30863,22 +30880,25 @@
       <c r="G491" s="24">
         <v>45335</v>
       </c>
-      <c r="H491" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="492" spans="1:16" ht="15" customHeight="1">
-      <c r="A492" s="22">
-        <v>1</v>
-      </c>
+      <c r="I491" s="23" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J491" s="21" t="s">
+        <v>1932</v>
+      </c>
+      <c r="K491" s="22" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="492" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="22" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C492" s="24">
-        <v>45337</v>
+        <v>45334</v>
       </c>
       <c r="D492" s="22" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="E492" s="22">
         <v>743506</v>
@@ -30886,9 +30906,7 @@
       <c r="F492" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="G492" s="24">
-        <v>45335</v>
-      </c>
+      <c r="G492" s="24"/>
       <c r="H492" s="25" t="s">
         <v>31</v>
       </c>
@@ -30896,31 +30914,25 @@
         <v>1803</v>
       </c>
       <c r="J492" s="21" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="K492" s="22" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="493" spans="1:16" ht="15" customHeight="1">
-      <c r="A493" s="22">
-        <v>1</v>
-      </c>
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="493" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="22" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C493" s="24">
-        <v>45338</v>
+        <v>45334</v>
       </c>
       <c r="D493" s="22" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="E493" s="22">
         <v>743506</v>
       </c>
-      <c r="F493" s="22" t="s">
-        <v>1936</v>
-      </c>
       <c r="G493" s="24">
         <v>45335</v>
       </c>
@@ -30931,10 +30943,198 @@
         <v>1803</v>
       </c>
       <c r="J493" s="21" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="K493" s="22" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="494" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B494" s="22" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C494" s="24">
+        <v>45334</v>
+      </c>
+      <c r="D494" s="22" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F494" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G494" s="24">
+        <v>45335</v>
+      </c>
+      <c r="H494" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I494" s="23" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J494" s="21" t="s">
+        <v>1932</v>
+      </c>
+      <c r="K494" s="22" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="495" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B495" s="22" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C495" s="24">
+        <v>45334</v>
+      </c>
+      <c r="E495" s="22">
+        <v>743506</v>
+      </c>
+      <c r="F495" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G495" s="24">
+        <v>45335</v>
+      </c>
+      <c r="H495" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I495" s="23" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="496" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B496" s="22" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D496" s="22" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E496" s="22">
+        <v>743506</v>
+      </c>
+      <c r="F496" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G496" s="24">
+        <v>45335</v>
+      </c>
+      <c r="H496" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I496" s="23" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J496" s="21" t="s">
+        <v>1932</v>
+      </c>
+      <c r="K496" s="22" t="s">
         <v>1939</v>
+      </c>
+    </row>
+    <row r="497" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C497" s="24">
+        <v>45334</v>
+      </c>
+      <c r="D497" s="22" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E497" s="22">
+        <v>743506</v>
+      </c>
+      <c r="F497" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G497" s="24">
+        <v>45335</v>
+      </c>
+      <c r="H497" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I497" s="23" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J497" s="21" t="s">
+        <v>1932</v>
+      </c>
+      <c r="K497" s="22" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="498" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B498" s="22" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C498" s="24">
+        <v>45334</v>
+      </c>
+      <c r="E498" s="22">
+        <v>743506</v>
+      </c>
+      <c r="F498" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G498" s="24">
+        <v>45335</v>
+      </c>
+      <c r="H498" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="499" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B499" s="22" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C499" s="24">
+        <v>45334</v>
+      </c>
+      <c r="D499" s="22" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E499" s="22">
+        <v>743506</v>
+      </c>
+      <c r="F499" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G499" s="24">
+        <v>45335</v>
+      </c>
+      <c r="H499" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I499" s="23" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J499" s="21" t="s">
+        <v>1932</v>
+      </c>
+      <c r="K499" s="22" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="500" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B500" s="22" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C500" s="24">
+        <v>45334</v>
+      </c>
+      <c r="D500" s="22" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E500" s="22">
+        <v>743506</v>
+      </c>
+      <c r="F500" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G500" s="24">
+        <v>45335</v>
+      </c>
+      <c r="H500" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I500" s="23" t="s">
+        <v>1928</v>
       </c>
     </row>
   </sheetData>
@@ -30953,7 +31153,7 @@
   <conditionalFormatting sqref="D4:D28 D30:D32 D34:D159">
     <cfRule type="duplicateValues" dxfId="37" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D375 D165:D206 D211 D213:D298 D343:D344 D377:D486 D488:D1048576">
+  <conditionalFormatting sqref="D375 D165:D206 D211 D213:D298 D343:D344 D377:D486 D488:D499 D501:D1048576">
     <cfRule type="duplicateValues" dxfId="36" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E160">
@@ -31064,7 +31264,7 @@
       <selection sqref="A1:A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -31074,33 +31274,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="691f3940-da01-4610-8a13-7e6f036c2548" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dbb798-63e8-4411-94d7-398665c805e3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="691f3940-da01-4610-8a13-7e6f036c2548">
-      <UserInfo>
-        <DisplayName>Odunayo Olufemi</DisplayName>
-        <AccountId>340</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010035F00B5F6B81D145829BBB93F2043D07" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c024d4678e8ddd8c8a664f05a2d02ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74dbb798-63e8-4411-94d7-398665c805e3" xmlns:ns3="691f3940-da01-4610-8a13-7e6f036c2548" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee14520912c247aa9ad2f1820187504a" ns2:_="" ns3:_="">
     <xsd:import namespace="74dbb798-63e8-4411-94d7-398665c805e3"/>
@@ -31355,26 +31528,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD4AE5-A275-4710-96E6-3074C94F50BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="691f3940-da01-4610-8a13-7e6f036c2548"/>
-    <ds:schemaRef ds:uri="74dbb798-63e8-4411-94d7-398665c805e3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD201087-7430-4DBC-91FB-E5375E0F53E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="691f3940-da01-4610-8a13-7e6f036c2548" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74dbb798-63e8-4411-94d7-398665c805e3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="691f3940-da01-4610-8a13-7e6f036c2548">
+      <UserInfo>
+        <DisplayName>Odunayo Olufemi</DisplayName>
+        <AccountId>340</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20E6ECBA-E825-4808-AC15-32F716C0C131}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31391,4 +31572,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD201087-7430-4DBC-91FB-E5375E0F53E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD4AE5-A275-4710-96E6-3074C94F50BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="691f3940-da01-4610-8a13-7e6f036c2548"/>
+    <ds:schemaRef ds:uri="74dbb798-63e8-4411-94d7-398665c805e3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>